--- a/documentos/Entrega 4/Family Care - WBS.xlsx
+++ b/documentos/Entrega 4/Family Care - WBS.xlsx
@@ -4,39 +4,42 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12180" tabRatio="854" activeTab="1"/>
+    <workbookView windowWidth="27945" windowHeight="11730" tabRatio="854" activeTab="3"/>
   </bookViews>
   <sheets>
-    <sheet name="WBS-MACRO-ATIVIDADE" sheetId="14" r:id="rId1"/>
-    <sheet name="WBS_Detalhado (ordem etapas)" sheetId="1" r:id="rId2"/>
-    <sheet name="Gráfico de Gantt" sheetId="18" state="hidden" r:id="rId3"/>
-    <sheet name="PV_dependência" sheetId="17" state="hidden" r:id="rId4"/>
-    <sheet name="Cronograma_de_Custos (2)" sheetId="6" state="hidden" r:id="rId5"/>
+    <sheet name="WBS MACRO" sheetId="14" r:id="rId1"/>
+    <sheet name="WBS Detalhado (ordem etapas)" sheetId="1" r:id="rId2"/>
+    <sheet name="Análise de Risco" sheetId="19" r:id="rId3"/>
+    <sheet name="Identificar" sheetId="20" r:id="rId4"/>
+    <sheet name="Quantificar" sheetId="21" r:id="rId5"/>
+    <sheet name="Gráfico de Gantt" sheetId="18" state="hidden" r:id="rId6"/>
+    <sheet name="PV_dependência" sheetId="17" state="hidden" r:id="rId7"/>
+    <sheet name="Cronograma_de_Custos (2)" sheetId="6" state="hidden" r:id="rId8"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId7"/>
-    <externalReference r:id="rId8"/>
-    <externalReference r:id="rId9"/>
+    <externalReference r:id="rId10"/>
+    <externalReference r:id="rId11"/>
+    <externalReference r:id="rId12"/>
   </externalReferences>
   <definedNames>
     <definedName name="A" hidden="1">{"'TG'!$A$1:$L$37"}</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="4">'Cronograma_de_Custos (2)'!$B$2:$X$18</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="7">'Cronograma_de_Custos (2)'!$B$2:$X$18</definedName>
     <definedName name="Comprar">[1]Param!#REF!</definedName>
     <definedName name="E" hidden="1">{TRUE,TRUE,-1.25,-15.5,604.5,369,FALSE,FALSE,TRUE,TRUE,0,1,#N/A,91,#N/A,20.5555555555556,24.8571428571429,1,FALSE,FALSE,3,TRUE,1,FALSE,80,"Swvu.summary3.","ACwvu.summary3.",#N/A,FALSE,FALSE,0.5,0.5,0.5,0.5,2,"&amp;F","&amp;A&amp;RPage &amp;P",TRUE,FALSE,FALSE,FALSE,1,50,#N/A,#N/A,"=R104C1:R153C31",FALSE,#N/A,#N/A,FALSE,FALSE,TRUE,1,600,600,FALSE,FALSE,TRUE,TRUE,TRUE}</definedName>
-    <definedName name="início_da_tarefa" localSheetId="2">[2]CronogramaDeProjeto!$E1</definedName>
+    <definedName name="início_da_tarefa" localSheetId="5">[2]CronogramaDeProjeto!$E1</definedName>
     <definedName name="Início_do_projeto">'Gráfico de Gantt'!$G$5</definedName>
     <definedName name="Periodicidade">[3]Param!$AB$5:$AB$9</definedName>
-    <definedName name="progresso_da_tarefa" localSheetId="2">[2]CronogramaDeProjeto!$D1</definedName>
+    <definedName name="progresso_da_tarefa" localSheetId="5">[2]CronogramaDeProjeto!$D1</definedName>
     <definedName name="Semana_de_exibição">'Gráfico de Gantt'!$G$6</definedName>
     <definedName name="Status">[1]Param!#REF!</definedName>
     <definedName name="t" hidden="1">{"'TG'!$A$1:$L$37"}</definedName>
-    <definedName name="término_da_tarefa" localSheetId="2">[2]CronogramaDeProjeto!$F1</definedName>
+    <definedName name="término_da_tarefa" localSheetId="5">[2]CronogramaDeProjeto!$F1</definedName>
     <definedName name="VersaoExcel">[3]Param!$D$15:$E$15</definedName>
     <definedName name="VersaoSR">[3]Param!$C$24:$C$26</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId6"/>
+    <pivotCache cacheId="0" r:id="rId9"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -55,10 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="552" uniqueCount="212">
-  <si>
-    <t>Data Safe AI</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="692" uniqueCount="341">
   <si>
     <t>4.1 Plano de ação detalhado da WBS (com dependência, tempo e recurso)</t>
   </si>
@@ -87,9 +87,6 @@
     <t>Custos</t>
   </si>
   <si>
-    <t>Obs</t>
-  </si>
-  <si>
     <t>Rede de Precedência de Atividades</t>
   </si>
   <si>
@@ -105,6 +102,9 @@
     <t>Identificar o público-alvo.</t>
   </si>
   <si>
+    <t>-</t>
+  </si>
+  <si>
     <t>2ª</t>
   </si>
   <si>
@@ -114,16 +114,13 @@
     <t>Pessoas</t>
   </si>
   <si>
-    <t>NÃO</t>
-  </si>
-  <si>
     <t>1.2</t>
   </si>
   <si>
     <t>Determinar a proposta de valor do projeto.</t>
   </si>
   <si>
-    <t>Planejamento</t>
+    <t>Negociação</t>
   </si>
   <si>
     <t>1.3</t>
@@ -132,78 +129,72 @@
     <t>Estabelecer metas e indicadores de sucesso.</t>
   </si>
   <si>
-    <t>Design e Prototipagem</t>
+    <t>Design e prototipagem</t>
   </si>
   <si>
     <t>Desenvolvimento</t>
   </si>
   <si>
-    <t>Planejamento/Design e Prototipagem</t>
+    <t>Negociação / Design e prototipagem</t>
   </si>
   <si>
     <t>2.1</t>
   </si>
   <si>
+    <t>Planejamento de escopo</t>
+  </si>
+  <si>
+    <t>Implementação</t>
+  </si>
+  <si>
+    <t>2.2</t>
+  </si>
+  <si>
+    <t>Definir os requisitos detalhados da plataforma</t>
+  </si>
+  <si>
+    <t>Recursos Humanos</t>
+  </si>
+  <si>
+    <t>2.2.1</t>
+  </si>
+  <si>
+    <t>Coleta de dados e projeção de zonas potenciais</t>
+  </si>
+  <si>
+    <t>Operação</t>
+  </si>
+  <si>
+    <t>Implementação / Recursos Humanos</t>
+  </si>
+  <si>
+    <t>2.2.2</t>
+  </si>
+  <si>
+    <t>Identificação de potenciais agentes afetados</t>
+  </si>
+  <si>
+    <t>1ª</t>
+  </si>
+  <si>
+    <t>Treinamento</t>
+  </si>
+  <si>
+    <t>2.2.3</t>
+  </si>
+  <si>
+    <t>Elaborar banco de dados com amostragem de projeção de mercado futuro</t>
+  </si>
+  <si>
+    <t>Expansão</t>
+  </si>
+  <si>
+    <t>2.2.4</t>
+  </si>
+  <si>
     <t>Realizar uma análise de mercado para entender concorrentes e demandas</t>
   </si>
   <si>
-    <t>Testes</t>
-  </si>
-  <si>
-    <t>Integração com sistemas de monitoramento de saúde</t>
-  </si>
-  <si>
-    <t>2.2</t>
-  </si>
-  <si>
-    <t>Definir os requisitos detalhados da plataforma</t>
-  </si>
-  <si>
-    <t>Lançamento (Stakeholders internos)</t>
-  </si>
-  <si>
-    <t>2.2.1</t>
-  </si>
-  <si>
-    <t>Envio de teste de phishing</t>
-  </si>
-  <si>
-    <t>Pós-lançamento (Stakeholders internos)</t>
-  </si>
-  <si>
-    <t>2.2.2</t>
-  </si>
-  <si>
-    <t>Direcionamento para treinamento de cybersecurity</t>
-  </si>
-  <si>
-    <t>1ª</t>
-  </si>
-  <si>
-    <t>Marketing e Divulgação para o Mercado</t>
-  </si>
-  <si>
-    <t>2.2.3</t>
-  </si>
-  <si>
-    <t>Coleta de dados e projeção de ocorrências de phishing</t>
-  </si>
-  <si>
-    <t>Avaliação e Aperfeiçoamento</t>
-  </si>
-  <si>
-    <t>Marketing e Divulgação</t>
-  </si>
-  <si>
-    <t>2.2.4</t>
-  </si>
-  <si>
-    <t>Gerar relatórios personalizados</t>
-  </si>
-  <si>
-    <t>Expansão</t>
-  </si>
-  <si>
     <t>2.2.5</t>
   </si>
   <si>
@@ -216,36 +207,36 @@
     <t>3.1</t>
   </si>
   <si>
+    <t>Criar logotipo e marca do projeto</t>
+  </si>
+  <si>
+    <t>DESIGN</t>
+  </si>
+  <si>
+    <t>3.1.1</t>
+  </si>
+  <si>
     <t>Realizar o design da interface do usuário (UI)</t>
   </si>
   <si>
-    <t>DESIGN</t>
-  </si>
-  <si>
-    <t>3.1.1</t>
+    <t>3.1.2</t>
   </si>
   <si>
     <t>Navegação simples entre as funcionalidades</t>
   </si>
   <si>
-    <t>3.1.2</t>
+    <t>3.2</t>
   </si>
   <si>
     <t>Criar protótipos interativos para validar o fluxo de usuário</t>
   </si>
   <si>
-    <t>3.2</t>
+    <t>3.2.1</t>
   </si>
   <si>
     <t xml:space="preserve"> Experiência do usuário (UX)</t>
   </si>
   <si>
-    <t>3.2.1</t>
-  </si>
-  <si>
-    <t>Interface limpa e intuitiva</t>
-  </si>
-  <si>
     <t>3.2.2</t>
   </si>
   <si>
@@ -255,7 +246,7 @@
     <t>4.1</t>
   </si>
   <si>
-    <t>Desenvolver a estrutura do aplicativo</t>
+    <t>Front-end, interface do usuário e interações</t>
   </si>
   <si>
     <t>DESENVOLVIMENTO</t>
@@ -264,7 +255,7 @@
     <t>4.1.2</t>
   </si>
   <si>
-    <t>Front-end: Interface do usuário e interações</t>
+    <t>Desenvolvimento de algoritmo de Linguagem Natural</t>
   </si>
   <si>
     <t>4.1.</t>
@@ -273,7 +264,7 @@
     <t>4.1.3</t>
   </si>
   <si>
-    <t>Codificação back-end</t>
+    <t>Desenvolvimento de algoritmo de Machining Learning de classificação</t>
   </si>
   <si>
     <t>4.2</t>
@@ -285,13 +276,13 @@
     <t>4.2.1</t>
   </si>
   <si>
-    <t>Módulo de IA</t>
+    <t>Codificação Back-end</t>
   </si>
   <si>
     <t>4.2.2</t>
   </si>
   <si>
-    <t>Gerador de relatórios</t>
+    <t>Estruturação do aplicativo</t>
   </si>
   <si>
     <t>4.2.3</t>
@@ -306,130 +297,487 @@
     <t xml:space="preserve">Realizar testes de qualidade e desempenho </t>
   </si>
   <si>
+    <t>5.1.2</t>
+  </si>
+  <si>
+    <t>Testar a usabilidade do aplicativo com usuários reais</t>
+  </si>
+  <si>
+    <t>5.1.3</t>
+  </si>
+  <si>
+    <t>Identificar e corrigir bugs e problemas de interface</t>
+  </si>
+  <si>
+    <t>6.1.1</t>
+  </si>
+  <si>
+    <t>Criar materiais de marketing, como vídeos promocionais e descrições claras</t>
+  </si>
+  <si>
+    <t>COMERCIAL</t>
+  </si>
+  <si>
+    <t>6.1.2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Criar estratégias de marketing digital para aumentar a visibilidade </t>
+  </si>
+  <si>
+    <t>6.1.3</t>
+  </si>
+  <si>
+    <t>Realizar campanhas de mídia social e anúncios online</t>
+  </si>
+  <si>
+    <t>6.1.4</t>
+  </si>
+  <si>
+    <t>Colaborar com influenciadores de tecnologia para promoção</t>
+  </si>
+  <si>
+    <t>7.1.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Preparar a infraestrutura para o lançamento </t>
+  </si>
+  <si>
+    <t>EQUIPE TÉCNICA</t>
+  </si>
+  <si>
+    <t>7.1.2</t>
+  </si>
+  <si>
+    <t>Realizar atualizações periódicas para adicionar novas funcionalidades e melhorias</t>
+  </si>
+  <si>
+    <t>.</t>
+  </si>
+  <si>
+    <t>7.1.3</t>
+  </si>
+  <si>
+    <t>Submeter a plataforma para revisão</t>
+  </si>
+  <si>
+    <t>7.1.4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Realizar análises regulares sobre o desempenho da plataforma </t>
+  </si>
+  <si>
+    <t>7.1.5</t>
+  </si>
+  <si>
+    <t>Coletar feedback e implementação de melhorias</t>
+  </si>
+  <si>
+    <t>8.1.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Contratação de equipe </t>
+  </si>
+  <si>
     <t>QUALIDADE</t>
   </si>
   <si>
-    <t>5.1.2</t>
-  </si>
-  <si>
-    <t>Testar a usabilidade do aplicativo com usuários reais</t>
-  </si>
-  <si>
-    <t>5.1.3</t>
-  </si>
-  <si>
-    <t>Identificar e corrigir bugs e problemas de interface</t>
-  </si>
-  <si>
-    <t>6.1.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Preparar a infraestrutura para o lançamento </t>
-  </si>
-  <si>
-    <t>REDES</t>
-  </si>
-  <si>
-    <t>6.1.2</t>
-  </si>
-  <si>
-    <t>Criar materiais de marketing, como vídeos promocionais e descrições claras</t>
-  </si>
-  <si>
-    <t>COMERCIAL</t>
-  </si>
-  <si>
-    <t>6.1.3</t>
-  </si>
-  <si>
-    <t>Submeter a plataforma para revisão</t>
-  </si>
-  <si>
-    <t>7.1.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Monitorar o feedback dos usuários escolhidos </t>
-  </si>
-  <si>
-    <t>EQUIPE TÉCNICA</t>
-  </si>
-  <si>
-    <t>7.1.2</t>
-  </si>
-  <si>
-    <t>Realizar atualizações periódicas para adicionar novas funcionalidades e melhorias</t>
-  </si>
-  <si>
-    <t>.</t>
-  </si>
-  <si>
-    <t>7.1.3</t>
+    <t>8.1.2</t>
+  </si>
+  <si>
+    <t>8.1.3</t>
   </si>
   <si>
     <t>Oferecer suporte ao cliente para solucionar problemas e responder dúvidas</t>
   </si>
   <si>
-    <t xml:space="preserve">Marketing e Divulgação - para o Mercado </t>
-  </si>
-  <si>
-    <t>8.1.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Criar estratégias de marketing digital para aumentar a visibilidade </t>
-  </si>
-  <si>
-    <t>8.1.2</t>
-  </si>
-  <si>
-    <t>Colaborar com influenciadores de tecnologia para promoção</t>
-  </si>
-  <si>
-    <t>8.1.3</t>
-  </si>
-  <si>
-    <t>Realizar campanhas de mídia social e anúncios online</t>
-  </si>
-  <si>
-    <t>9.1.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Realizar análises regulares sobre o desempenho da plataforma </t>
-  </si>
-  <si>
-    <t>DESEMPENHO</t>
+    <t>9.1</t>
+  </si>
+  <si>
+    <t>Análise de expansão de mercado</t>
   </si>
   <si>
     <t>9.1.2</t>
   </si>
   <si>
-    <t>Coletar feedback e implementação de melhorias</t>
+    <t>Desenvolvimento de parcerias</t>
   </si>
   <si>
     <t>9.1.3</t>
   </si>
   <si>
-    <t>Adaptação de mercado</t>
-  </si>
-  <si>
-    <t>10.1</t>
-  </si>
-  <si>
-    <t>Análise de expansão de mercado</t>
-  </si>
-  <si>
-    <t>10.1.2</t>
-  </si>
-  <si>
-    <t>Desenvolvimento de parcerias</t>
-  </si>
-  <si>
-    <t>10.1.3</t>
-  </si>
-  <si>
-    <t>Desenvolvimento de versões de assinatura - Monetização</t>
+    <t>Globalização da marca</t>
+  </si>
+  <si>
+    <t>9.2</t>
   </si>
   <si>
     <t>TOTAL</t>
+  </si>
+  <si>
+    <t>Informações sobre o projeto</t>
+  </si>
+  <si>
+    <t>Informações</t>
+  </si>
+  <si>
+    <t>Detalhes</t>
+  </si>
+  <si>
+    <t>Projeto</t>
+  </si>
+  <si>
+    <t>Family Care</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gerente Responsável </t>
+  </si>
+  <si>
+    <t>Nayan Pinho</t>
+  </si>
+  <si>
+    <t>Data da avaliação</t>
+  </si>
+  <si>
+    <t>Histórico da avaliação de riscos</t>
+  </si>
+  <si>
+    <t>Data</t>
+  </si>
+  <si>
+    <t>Descrição</t>
+  </si>
+  <si>
+    <t>Reunião inicial para identificar riscos gerais do projeto</t>
+  </si>
+  <si>
+    <t>Primeira avaliação da execução do projeto e análise dos riscos previamente identificados.</t>
+  </si>
+  <si>
+    <t>Revisão do andamento do projeto e novos riscos identificados.</t>
+  </si>
+  <si>
+    <t>Testes no sistema DMS e simulações de integração com documentos digitalizados.</t>
+  </si>
+  <si>
+    <t>Avaliação final antes da etapa de migração definitiva para o digital.</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>Fase ou Recurso</t>
+  </si>
+  <si>
+    <t>Classificação</t>
+  </si>
+  <si>
+    <t>CAUSA (Começa com 'Como resultado...')</t>
+  </si>
+  <si>
+    <t>RISCO (Começa com 'Pode ocorrer...')</t>
+  </si>
+  <si>
+    <t>CONSEQUÊNCIA (Começa com 'O que acarretaria...')</t>
+  </si>
+  <si>
+    <t>Resp.</t>
+  </si>
+  <si>
+    <t>Estratégia de Resposta</t>
+  </si>
+  <si>
+    <t>Plano de Prevenção</t>
+  </si>
+  <si>
+    <t>Plano de Contingência</t>
+  </si>
+  <si>
+    <t>Riscos Colaterais</t>
+  </si>
+  <si>
+    <t>Severidade (X,Y)</t>
+  </si>
+  <si>
+    <t>R01</t>
+  </si>
+  <si>
+    <t>Início - Identificação de Funcionalidades e Recursos</t>
+  </si>
+  <si>
+    <t>Estratégico</t>
+  </si>
+  <si>
+    <t>Como resultado da falta de alinhamento com as necessidades dos usuários finais.</t>
+  </si>
+  <si>
+    <t>Pode ocorrer definição incorreta das funcionalidades principais do projeto.</t>
+  </si>
+  <si>
+    <t>O que acarretaria em atrasos no desenvolvimento e insatisfação dos usuários.</t>
+  </si>
+  <si>
+    <t>Gerente de Projeto</t>
+  </si>
+  <si>
+    <t>Mitigar</t>
+  </si>
+  <si>
+    <t>Realizar workshops e entrevistas com stakeholders para validar os requisitos iniciais.</t>
+  </si>
+  <si>
+    <t>Reavaliar os requisitos durante a fase de planejamento e ajustar conforme necessário.</t>
+  </si>
+  <si>
+    <t>Aumento de custos no projeto.</t>
+  </si>
+  <si>
+    <t>R02</t>
+  </si>
+  <si>
+    <t>Planejamento - Análise de Mercado</t>
+  </si>
+  <si>
+    <t>Como resultado de pesquisa insuficiente sobre concorrentes e demandas do mercado.</t>
+  </si>
+  <si>
+    <t>Pode ocorrer subestimação ou superestimação das demandas do mercado.</t>
+  </si>
+  <si>
+    <t>O que acarretaria em dificuldades de aceitação do produto no mercado.</t>
+  </si>
+  <si>
+    <t>Desenvolvedor FullStack</t>
+  </si>
+  <si>
+    <t>Realizar pesquisa de mercado detalhada, utilizando métodos qualitativos e quantitativos.</t>
+  </si>
+  <si>
+    <t>Ajustar estratégias de marketing e funcionalidades do produto após o lançamento inicial.</t>
+  </si>
+  <si>
+    <t>Retrabalho na fase de marketing.</t>
+  </si>
+  <si>
+    <t>R03</t>
+  </si>
+  <si>
+    <t>Desenvolvimento - Integração de APIs</t>
+  </si>
+  <si>
+    <t>Técnico</t>
+  </si>
+  <si>
+    <t>Como resultado de incompatibilidades entre sistemas integrados.</t>
+  </si>
+  <si>
+    <t>Pode ocorrer falhas na comunicação entre o sistema e APIs de terceiros.</t>
+  </si>
+  <si>
+    <t>O que acarretaria em perda de funcionalidades e insatisfação dos usuários.</t>
+  </si>
+  <si>
+    <t>Realizar testes rigorosos de integração com APIs antes do lançamento.</t>
+  </si>
+  <si>
+    <t>Substituir APIs problemáticas por alternativas compatíveis em curto prazo.</t>
+  </si>
+  <si>
+    <t>Atraso no cronograma do projeto.</t>
+  </si>
+  <si>
+    <t>R04</t>
+  </si>
+  <si>
+    <t>Testes - Identificação e Correção de Bugs</t>
+  </si>
+  <si>
+    <t>Como resultado de testes insuficientes em ambientes controlados.</t>
+  </si>
+  <si>
+    <t>Pode ocorrer lançamento com bugs críticos.</t>
+  </si>
+  <si>
+    <t>O que acarretaria em perda de credibilidade e aumento de custos com correções emergenciais.</t>
+  </si>
+  <si>
+    <t>Desenvolvedor Back-End</t>
+  </si>
+  <si>
+    <t>Criar planos de teste robustos que cubram todos os cenários críticos.</t>
+  </si>
+  <si>
+    <t>Priorizar correção de bugs críticos e lançar atualizações frequentes.</t>
+  </si>
+  <si>
+    <t>Feedback negativo de clientes.</t>
+  </si>
+  <si>
+    <t>R05</t>
+  </si>
+  <si>
+    <t>Marketing e Divulgação - Campanhas Online</t>
+  </si>
+  <si>
+    <t>Operacional</t>
+  </si>
+  <si>
+    <t>Como resultado de estratégias mal planejadas e alocação incorreta de orçamento.</t>
+  </si>
+  <si>
+    <t>Pode ocorrer baixo engajamento em campanhas de marketing.</t>
+  </si>
+  <si>
+    <t>O que acarretaria em baixa adesão ao produto e impacto financeiro.</t>
+  </si>
+  <si>
+    <t>UX Designer</t>
+  </si>
+  <si>
+    <t>Evitar</t>
+  </si>
+  <si>
+    <t>Planejar e validar estratégias de marketing com base em dados do público-alvo.</t>
+  </si>
+  <si>
+    <t>Ajustar campanhas e realocar orçamento para canais mais eficazes.</t>
+  </si>
+  <si>
+    <t>Perda de recursos financeiros em campanhas.</t>
+  </si>
+  <si>
+    <t>R06</t>
+  </si>
+  <si>
+    <t>Expansão - Desenvolvimento de Versões de Assinatura</t>
+  </si>
+  <si>
+    <t>Como resultado de falta de análise de viabilidade para diferentes públicos.</t>
+  </si>
+  <si>
+    <t>Pode ocorrer insucesso na aceitação das novas versões de assinatura.</t>
+  </si>
+  <si>
+    <t>O que acarretaria em prejuízos financeiros e impacto na reputação da empresa.</t>
+  </si>
+  <si>
+    <t>Transferir</t>
+  </si>
+  <si>
+    <t>Realizar análise detalhada de viabilidade financeira e de mercado antes de lançar novas versões.</t>
+  </si>
+  <si>
+    <t>Contratar consultores especializados para ajustar modelos de assinatura.</t>
+  </si>
+  <si>
+    <t>Custos adicionais com consultorias externas.</t>
+  </si>
+  <si>
+    <t>Causa</t>
+  </si>
+  <si>
+    <t>Risco</t>
+  </si>
+  <si>
+    <t>Consequência</t>
+  </si>
+  <si>
+    <t>Impacto no Custo</t>
+  </si>
+  <si>
+    <t>Impacto no Cronograma</t>
+  </si>
+  <si>
+    <t>Observação</t>
+  </si>
+  <si>
+    <t>Como resultado de tentativas de acesso não autorizado ao sistema por pessoas externas.</t>
+  </si>
+  <si>
+    <t>Pode ocorrer invasão de dados ou perda de informações sensíveis.</t>
+  </si>
+  <si>
+    <t>Que acarretará em vazamento de informações confidenciais, impactando a segurança da empresa.</t>
+  </si>
+  <si>
+    <t>Líder de Qualidade</t>
+  </si>
+  <si>
+    <t>Multas e Sanções</t>
+  </si>
+  <si>
+    <t>Atraso de até 15 dias</t>
+  </si>
+  <si>
+    <t>Dias de atraso na implantação</t>
+  </si>
+  <si>
+    <t>Implementar criptografia dos dados no sistema DMS, com autenticação multifatorial e controle de acesso restrito.</t>
+  </si>
+  <si>
+    <t>Realizar auditorias regulares de segurança e implementar atualizações de proteção contra ameaças cibernéticas.</t>
+  </si>
+  <si>
+    <t>Como resultado de configurações inadequadas nos scanners ou baixa resolução nas digitalizações.</t>
+  </si>
+  <si>
+    <t>Pode ocorrer a digitalização com baixa qualidade de imagem.</t>
+  </si>
+  <si>
+    <t>O que acarretará em dificuldade de leitura e uso dos documentos digitalizados, impactando a eficiência do sistema.</t>
+  </si>
+  <si>
+    <t>Danos à Reputação</t>
+  </si>
+  <si>
+    <t>Atraso de até 10 dias</t>
+  </si>
+  <si>
+    <t>Realizar testes de qualidade nas configurações de digitalização para garantir alta resolução, ajustando scanners.</t>
+  </si>
+  <si>
+    <t>Estabelecer um processo de revisão para identificar e corrigir documentos digitalizados com baixa qualidade.</t>
+  </si>
+  <si>
+    <t>Como resultado da falta de treinamento adequado dos funcionários no uso do novo sistema.</t>
+  </si>
+  <si>
+    <t>Pode ocorrer resistência ou uso inadequado do sistema DMS.</t>
+  </si>
+  <si>
+    <t>O que acarretará em falhas operacionais e demora na adaptação ao novo sistema, afetando a produtividade.</t>
+  </si>
+  <si>
+    <t>Atraso no projeto e custos</t>
+  </si>
+  <si>
+    <t>Atraso de até 20 dias</t>
+  </si>
+  <si>
+    <t>Fornecer treinamento abrangente para todos os funcionários, abordando o uso do DMS e procedimentos de segurança.</t>
+  </si>
+  <si>
+    <t>Disponibilizar suporte técnico durante o período de adaptação, com treinamento adicional, se necessário.</t>
+  </si>
+  <si>
+    <t>Como resultado de descarte inadequado dos documentos físicos após digitalização.</t>
+  </si>
+  <si>
+    <t>Pode ocorrer violação das regulamentações de descarte seguro de documentos confidenciais.</t>
+  </si>
+  <si>
+    <t>O que acarretará em penalidades legais e possíveis danos à reputação da empresa.</t>
+  </si>
+  <si>
+    <t>Risco Legal</t>
+  </si>
+  <si>
+    <t>Atraso de até 7 dias</t>
+  </si>
+  <si>
+    <t>Contratar uma empresa especializada para realizar o descarte seguro, conforme as regulamentações legais.</t>
+  </si>
+  <si>
+    <t>Manter registros detalhados do processo de descarte e revisar práticas periodicamente para evitar problemas futuros.</t>
   </si>
   <si>
     <t>Saúde e bem-estar na palma da sua mão</t>
@@ -582,15 +930,27 @@
     <t>(vazio)</t>
   </si>
   <si>
+    <t>Planejamento</t>
+  </si>
+  <si>
     <t>10.1.1</t>
   </si>
   <si>
+    <t>DESEMPENHO</t>
+  </si>
+  <si>
     <t>Realizar análises regulares sobre o desempenho do aplicativo</t>
   </si>
   <si>
+    <t>10.1.2</t>
+  </si>
+  <si>
     <t>Explorar parcerias com empresas relacionadas à saúde e bem-estar</t>
   </si>
   <si>
+    <t>10.1.3</t>
+  </si>
+  <si>
     <t>Avaliar a possibilidade de oferecer versões premium ou modelos de assinatura</t>
   </si>
   <si>
@@ -600,12 +960,27 @@
     <t>Dicas de saúde e bem-estar</t>
   </si>
   <si>
+    <t>Integração com sistemas de monitoramento de saúde</t>
+  </si>
+  <si>
     <t>Mapas com locais de academias e parques</t>
   </si>
   <si>
     <t>Planos de exercícios físicos personalizados</t>
   </si>
   <si>
+    <t>Design e Prototipagem</t>
+  </si>
+  <si>
+    <t>Interface limpa e intuitiva</t>
+  </si>
+  <si>
+    <t>Desenvolver a estrutura do aplicativo</t>
+  </si>
+  <si>
+    <t>Front-end: Interface do usuário e interações</t>
+  </si>
+  <si>
     <t>Módulo de dicas de saúde</t>
   </si>
   <si>
@@ -642,6 +1017,9 @@
     <t>UX</t>
   </si>
   <si>
+    <t>REDES</t>
+  </si>
+  <si>
     <t>Preparar a infraestrutura para o lançamento nas lojas de aplicativos (App Store, Google Play)</t>
   </si>
   <si>
@@ -651,16 +1029,28 @@
     <t>Monitorar o feedback dos usuários e analisar métricas de uso</t>
   </si>
   <si>
+    <t>9.1.1</t>
+  </si>
+  <si>
     <t>Criar estratégias de marketing digital para aumentar a visibilidade do aplicativo</t>
   </si>
   <si>
     <t>Colaborar com influenciadores de saúde e bem-estar para promoção</t>
   </si>
   <si>
+    <t>Avaliação e Aperfeiçoamento</t>
+  </si>
+  <si>
     <t>Lançamento</t>
   </si>
   <si>
+    <t>Marketing e Divulgação</t>
+  </si>
+  <si>
     <t>Pós-lançamento</t>
+  </si>
+  <si>
+    <t>Testes</t>
   </si>
   <si>
     <t>Total Geral</t>
@@ -730,7 +1120,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
-  <numFmts count="9">
+  <numFmts count="10">
     <numFmt numFmtId="176" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="177" formatCode="_(&quot;R$ &quot;* #,##0.00_);_(&quot;R$ &quot;* \(#,##0.00\);_(&quot;R$ &quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="178" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
@@ -739,14 +1129,10 @@
     <numFmt numFmtId="181" formatCode="ddd\,\ dd/mm/yyyy"/>
     <numFmt numFmtId="182" formatCode="d\-mmm\-yyyy"/>
     <numFmt numFmtId="183" formatCode="d"/>
-    <numFmt numFmtId="184" formatCode="&quot;R$&quot;\ #,##0.00"/>
+    <numFmt numFmtId="184" formatCode="&quot;R$&quot;\ #,##0;[Red]\-&quot;R$&quot;\ #,##0"/>
+    <numFmt numFmtId="185" formatCode="&quot;R$&quot;\ #,##0.00"/>
   </numFmts>
-  <fonts count="56">
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-    </font>
+  <fonts count="55">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -894,6 +1280,26 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <name val="Times New Roman"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
       <sz val="14"/>
       <name val="Arial"/>
       <charset val="134"/>
@@ -928,18 +1334,12 @@
       <charset val="134"/>
     </font>
     <font>
-      <u/>
-      <sz val="12"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-    </font>
-    <font>
+      <b/>
       <sz val="11"/>
       <name val="Arial"/>
       <charset val="134"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <name val="Arial"/>
       <charset val="134"/>
@@ -977,13 +1377,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="10"/>
       <color indexed="12"/>
@@ -1016,14 +1409,6 @@
     <font>
       <b/>
       <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -1125,7 +1510,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="54">
+  <fills count="50">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1224,6 +1609,42 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FF8DB4E2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.349986266670736"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1" tint="0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF008000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="3" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1237,12 +1658,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1296,18 +1711,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1315,18 +1718,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1344,18 +1735,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1363,18 +1742,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1393,12 +1760,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1445,7 +1806,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="97">
+  <borders count="88">
     <border>
       <left/>
       <right/>
@@ -1895,6 +2256,41 @@
       <diagonal/>
     </border>
     <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color auto="1"/>
       </left>
@@ -2282,34 +2678,8 @@
       <left style="thin">
         <color auto="1"/>
       </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="3"/>
-      </left>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
       <bottom style="medium">
         <color auto="1"/>
       </bottom>
@@ -2327,19 +2697,6 @@
       </top>
       <bottom style="medium">
         <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="3"/>
-      </left>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color theme="3"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2363,39 +2720,9 @@
       <right style="medium">
         <color auto="1"/>
       </right>
-      <top style="thin">
-        <color theme="3"/>
-      </top>
+      <top/>
       <bottom style="thin">
         <color theme="3"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="3"/>
-      </left>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color theme="3"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="hair">
-        <color auto="1"/>
-      </left>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
-        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2415,28 +2742,6 @@
         <color auto="1"/>
       </left>
       <right style="thin">
-        <color theme="3"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="3"/>
-      </left>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
         <color auto="1"/>
       </right>
       <top style="thin">
@@ -2489,75 +2794,8 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
       <top/>
       <bottom style="medium">
         <color auto="1"/>
@@ -2656,15 +2894,15 @@
   </borders>
   <cellStyleXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="176" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="178" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="178" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="179" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="37" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2674,215 +2912,215 @@
     <xf numFmtId="0" fontId="38" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="21" borderId="90" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="81" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="39" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="40" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="91" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="82" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="26" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="27" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="26" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="27" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="22" borderId="92" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="42" fillId="27" borderId="83" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="44" fillId="23" borderId="93" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="43" fillId="28" borderId="84" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="45" fillId="23" borderId="92" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="44" fillId="28" borderId="83" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="46" fillId="24" borderId="94" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="45" fillId="29" borderId="85" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="95" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="86" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="96" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="87" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="49" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="48" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="50" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="49" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="51" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="50" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="52" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="51" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="53" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="52" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="53" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="52" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="52" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="51" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="52" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="51" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="53" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="52" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="53" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="52" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="52" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="51" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="52" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="51" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="53" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="52" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="53" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="52" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="52" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="51" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="52" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="51" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="53" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="52" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="53" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="52" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="52" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="51" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="52" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="51" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="53" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="52" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="53" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="52" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="52" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="51" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="52" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="51" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="53" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="52" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="53" fillId="50" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="52" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="52" fillId="51" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="51" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="54" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="180" fontId="12" fillId="0" borderId="32" applyFill="0">
+    <xf numFmtId="0" fontId="53" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="180" fontId="11" fillId="0" borderId="32" applyFill="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="52" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="53" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="55" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="181" fontId="12" fillId="0" borderId="29">
+    <xf numFmtId="0" fontId="5" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="54" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="181" fontId="11" fillId="0" borderId="29">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="32" applyFill="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="32" applyFill="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="32" applyFill="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="32" applyFill="0">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="253">
+  <cellXfs count="238">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
@@ -2892,207 +3130,207 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="62"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="10" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="62"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="10" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="26" xfId="13" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="26" xfId="13" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="27" xfId="14" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="27" xfId="14" applyAlignment="1">
       <alignment horizontal="right" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="28" xfId="14" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="28" xfId="14" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" indent="1"/>
     </xf>
-    <xf numFmtId="181" fontId="12" fillId="0" borderId="29" xfId="54">
+    <xf numFmtId="181" fontId="11" fillId="0" borderId="29" xfId="54">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="62" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="62" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="32" xfId="55" applyFill="1">
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="32" xfId="55" applyFill="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="15" fillId="6" borderId="32" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="14" fillId="6" borderId="32" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="180" fontId="0" fillId="6" borderId="32" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="15" fillId="6" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="14" fillId="6" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="32" xfId="61" applyFill="1">
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="32" xfId="61" applyFill="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="32" xfId="55" applyFill="1">
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="32" xfId="55" applyFill="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="15" fillId="7" borderId="32" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="14" fillId="7" borderId="32" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="12" fillId="7" borderId="32" xfId="50" applyFill="1">
+    <xf numFmtId="180" fontId="11" fillId="7" borderId="32" xfId="50" applyFill="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="32" xfId="55" applyFill="1">
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="32" xfId="55" applyFill="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="15" fillId="8" borderId="32" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="14" fillId="8" borderId="32" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="180" fontId="0" fillId="8" borderId="32" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="15" fillId="8" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="14" fillId="8" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="32" xfId="61" applyFill="1">
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="32" xfId="61" applyFill="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="32" xfId="55" applyFill="1">
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="32" xfId="55" applyFill="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="15" fillId="9" borderId="32" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="14" fillId="9" borderId="32" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="12" fillId="9" borderId="32" xfId="50" applyFill="1">
+    <xf numFmtId="180" fontId="11" fillId="9" borderId="32" xfId="50" applyFill="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="32" xfId="55" applyFill="1">
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="32" xfId="55" applyFill="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="15" fillId="10" borderId="32" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="14" fillId="10" borderId="32" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="180" fontId="0" fillId="10" borderId="32" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="15" fillId="10" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="14" fillId="10" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="32" xfId="61" applyFill="1">
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="32" xfId="61" applyFill="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="32" xfId="55" applyFill="1">
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="32" xfId="55" applyFill="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="15" fillId="11" borderId="32" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="14" fillId="11" borderId="32" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="12" fillId="11" borderId="32" xfId="50" applyFill="1">
+    <xf numFmtId="180" fontId="11" fillId="11" borderId="32" xfId="50" applyFill="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="32" xfId="55" applyFill="1">
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="32" xfId="55" applyFill="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="15" fillId="12" borderId="32" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="14" fillId="12" borderId="32" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="180" fontId="0" fillId="12" borderId="32" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="15" fillId="12" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="14" fillId="12" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="32" xfId="61" applyFill="1">
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="32" xfId="61" applyFill="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="32" xfId="55" applyFill="1">
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="32" xfId="55" applyFill="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="15" fillId="13" borderId="32" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="14" fillId="13" borderId="32" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="12" fillId="13" borderId="32" xfId="50" applyFill="1">
+    <xf numFmtId="180" fontId="11" fillId="13" borderId="32" xfId="50" applyFill="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="32" xfId="61">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="32" xfId="61">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="32" xfId="55">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="32" xfId="55">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="15" fillId="0" borderId="32" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="14" fillId="0" borderId="32" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="12" fillId="0" borderId="32" xfId="50">
+    <xf numFmtId="180" fontId="11" fillId="0" borderId="32" xfId="50">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="15" fillId="14" borderId="32" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="14" fillId="14" borderId="32" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="17" fillId="14" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="16" fillId="14" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="15" fillId="14" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="14" fillId="14" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="182" fontId="0" fillId="15" borderId="33" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="182" fontId="0" fillId="15" borderId="31" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="183" fontId="20" fillId="15" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="183" fontId="19" fillId="15" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="183" fontId="20" fillId="15" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="183" fontId="19" fillId="15" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3104,414 +3342,378 @@
     <xf numFmtId="182" fontId="0" fillId="15" borderId="37" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="183" fontId="20" fillId="15" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="183" fontId="19" fillId="15" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="184" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="17" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="58" fontId="23" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="58" fontId="23" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="23" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="17" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="23" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="17" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="23" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="17" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="23" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="17" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="23" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="17" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="23" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="58" fontId="24" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="58" fontId="26" fillId="0" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="23" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="17" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="23" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="17" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="23" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="17" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="23" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="17" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="23" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="23" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="23" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="17" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="24" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="17" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="23" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="23" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="18" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="23" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="23" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="23" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="23" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="23" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="64" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="65" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="66" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="67" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="68" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="69" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="70" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="23" borderId="71" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="23" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="25" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="25" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="25" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="25" fillId="20" borderId="60" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="33" fillId="23" borderId="72" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="17" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="33" fillId="23" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="33" fillId="23" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="17" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="17" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="26" fillId="0" borderId="48" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="73" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="74" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="26" fillId="0" borderId="52" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="26" fillId="0" borderId="57" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="75" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="25" borderId="76" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="25" borderId="77" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="25" borderId="78" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="25" borderId="79" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="29" fillId="20" borderId="43" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="29" fillId="20" borderId="60" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="26" fillId="0" borderId="46" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="26" fillId="0" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="26" fillId="0" borderId="55" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="185" fontId="29" fillId="20" borderId="80" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="17" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="17" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="17" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="64" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="65" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="66" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="67" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="68" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="17" borderId="69" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="17" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="17" borderId="70" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="19" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="19" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="19" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="23" fillId="20" borderId="57" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="17" borderId="70" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="17" borderId="71" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="17" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="17" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="24" fillId="0" borderId="45" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="72" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="73" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="72" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="24" fillId="0" borderId="49" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="74" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="24" fillId="0" borderId="54" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="75" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="17" borderId="76" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="72" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="74" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="77" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="78" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="79" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="75" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="19" borderId="80" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="19" borderId="81" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="19" borderId="82" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="19" borderId="83" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="27" fillId="20" borderId="40" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="17" borderId="70" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="27" fillId="20" borderId="57" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="75" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="84" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="177" fontId="24" fillId="0" borderId="43" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="85" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="177" fontId="24" fillId="0" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="86" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="177" fontId="24" fillId="0" borderId="52" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="87" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="184" fontId="27" fillId="20" borderId="88" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="27" fillId="17" borderId="89" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="63">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3615,6 +3817,7 @@
       <color rgb="00DCCAF6"/>
       <color rgb="008961ED"/>
       <color rgb="00D1D1E7"/>
+      <color rgb="008DB4E2"/>
     </mruColors>
   </colors>
   <extLst>
@@ -3630,19 +3833,19 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>148590</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>206375</xdr:rowOff>
+      <xdr:colOff>635</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>635</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>549910</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>98425</xdr:rowOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>467360</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>67310</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1" descr="WBS"/>
+        <xdr:cNvPr id="3" name="Picture 2"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -3655,12 +3858,16 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="148590" y="415925"/>
-          <a:ext cx="15384145" cy="7159625"/>
+          <a:off x="635" y="635"/>
+          <a:ext cx="13049250" cy="7219950"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -3986,7 +4193,7 @@
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" createdVersion="1" refreshedVersion="4" refreshedDate="45174.9130778935" refreshedBy="Mary Alice Aparecida Guilherme" recordCount="50">
   <cacheSource type="worksheet">
-    <worksheetSource ref="B9:I56" sheet="WBS_Detalhado (ordem etapas)"/>
+    <worksheetSource ref="B9:I55" sheet="WBS Detalhado (ordem etapas)"/>
   </cacheSource>
   <cacheFields count="8">
     <cacheField name="Ref" numFmtId="0">
@@ -5421,8 +5628,8 @@
   </sheetPr>
   <dimension ref="A1:Y78"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AH18" sqref="AH18"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="AA18" sqref="AA18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75"/>
@@ -5433,430 +5640,430 @@
   <sheetData>
     <row r="1" ht="16.5" spans="2:17">
       <c r="B1" s="7"/>
-      <c r="Q1" s="250"/>
+      <c r="Q1" s="235"/>
     </row>
     <row r="2" ht="16.5" spans="2:17">
       <c r="B2" s="7"/>
-      <c r="Q2" s="250"/>
+      <c r="Q2" s="235"/>
     </row>
     <row r="3" ht="26.25" customHeight="1" spans="1:21">
-      <c r="A3" s="247"/>
-      <c r="B3" s="247"/>
-      <c r="C3" s="248"/>
-      <c r="D3" s="248"/>
-      <c r="E3" s="248"/>
-      <c r="F3" s="248"/>
-      <c r="G3" s="248"/>
-      <c r="H3" s="248"/>
-      <c r="I3" s="248"/>
-      <c r="J3" s="248"/>
-      <c r="K3" s="248"/>
-      <c r="L3" s="248"/>
-      <c r="M3" s="248"/>
-      <c r="N3" s="248"/>
-      <c r="O3" s="248"/>
-      <c r="P3" s="248"/>
-      <c r="Q3" s="248"/>
-      <c r="R3" s="248"/>
-      <c r="S3" s="248"/>
-      <c r="T3" s="248"/>
-      <c r="U3" s="248"/>
+      <c r="A3" s="232"/>
+      <c r="B3" s="232"/>
+      <c r="C3" s="233"/>
+      <c r="D3" s="233"/>
+      <c r="E3" s="233"/>
+      <c r="F3" s="233"/>
+      <c r="G3" s="233"/>
+      <c r="H3" s="233"/>
+      <c r="I3" s="233"/>
+      <c r="J3" s="233"/>
+      <c r="K3" s="233"/>
+      <c r="L3" s="233"/>
+      <c r="M3" s="233"/>
+      <c r="N3" s="233"/>
+      <c r="O3" s="233"/>
+      <c r="P3" s="233"/>
+      <c r="Q3" s="233"/>
+      <c r="R3" s="233"/>
+      <c r="S3" s="233"/>
+      <c r="T3" s="233"/>
+      <c r="U3" s="233"/>
     </row>
     <row r="4" ht="26.25" customHeight="1" spans="1:21">
-      <c r="A4" s="247"/>
-      <c r="B4" s="247"/>
-      <c r="C4" s="249"/>
-      <c r="D4" s="249"/>
-      <c r="E4" s="249"/>
-      <c r="F4" s="249"/>
-      <c r="G4" s="249"/>
-      <c r="H4" s="249"/>
-      <c r="I4" s="249"/>
-      <c r="J4" s="249"/>
-      <c r="K4" s="249"/>
-      <c r="L4" s="249"/>
-      <c r="M4" s="249"/>
-      <c r="N4" s="249"/>
-      <c r="O4" s="249"/>
-      <c r="P4" s="249"/>
-      <c r="Q4" s="249"/>
-      <c r="R4" s="249"/>
-      <c r="S4" s="249"/>
-      <c r="T4" s="249"/>
-      <c r="U4" s="249"/>
+      <c r="A4" s="232"/>
+      <c r="B4" s="232"/>
+      <c r="C4" s="234"/>
+      <c r="D4" s="234"/>
+      <c r="E4" s="234"/>
+      <c r="F4" s="234"/>
+      <c r="G4" s="234"/>
+      <c r="H4" s="234"/>
+      <c r="I4" s="234"/>
+      <c r="J4" s="234"/>
+      <c r="K4" s="234"/>
+      <c r="L4" s="234"/>
+      <c r="M4" s="234"/>
+      <c r="N4" s="234"/>
+      <c r="O4" s="234"/>
+      <c r="P4" s="234"/>
+      <c r="Q4" s="234"/>
+      <c r="R4" s="234"/>
+      <c r="S4" s="234"/>
+      <c r="T4" s="234"/>
+      <c r="U4" s="234"/>
     </row>
     <row r="16" ht="15" spans="2:24">
-      <c r="B16" s="250"/>
-      <c r="C16" s="250"/>
-      <c r="D16" s="250"/>
-      <c r="E16" s="250"/>
-      <c r="F16" s="250"/>
-      <c r="G16" s="250"/>
-      <c r="H16" s="250"/>
-      <c r="I16" s="250"/>
-      <c r="J16" s="250"/>
-      <c r="K16" s="250"/>
-      <c r="L16" s="250"/>
-      <c r="M16" s="250"/>
-      <c r="N16" s="250"/>
-      <c r="O16" s="250"/>
-      <c r="P16" s="250"/>
-      <c r="Q16" s="250"/>
-      <c r="R16" s="250"/>
-      <c r="S16" s="250"/>
-      <c r="T16" s="250"/>
-      <c r="U16" s="250"/>
-      <c r="V16" s="250"/>
-      <c r="W16" s="250"/>
-      <c r="X16" s="250"/>
+      <c r="B16" s="235"/>
+      <c r="C16" s="235"/>
+      <c r="D16" s="235"/>
+      <c r="E16" s="235"/>
+      <c r="F16" s="235"/>
+      <c r="G16" s="235"/>
+      <c r="H16" s="235"/>
+      <c r="I16" s="235"/>
+      <c r="J16" s="235"/>
+      <c r="K16" s="235"/>
+      <c r="L16" s="235"/>
+      <c r="M16" s="235"/>
+      <c r="N16" s="235"/>
+      <c r="O16" s="235"/>
+      <c r="P16" s="235"/>
+      <c r="Q16" s="235"/>
+      <c r="R16" s="235"/>
+      <c r="S16" s="235"/>
+      <c r="T16" s="235"/>
+      <c r="U16" s="235"/>
+      <c r="V16" s="235"/>
+      <c r="W16" s="235"/>
+      <c r="X16" s="235"/>
     </row>
     <row r="17" ht="15" spans="2:25">
-      <c r="B17" s="250"/>
-      <c r="C17" s="250"/>
-      <c r="D17" s="250"/>
-      <c r="E17" s="250"/>
-      <c r="F17" s="250"/>
-      <c r="G17" s="250"/>
-      <c r="H17" s="250"/>
-      <c r="I17" s="250"/>
-      <c r="J17" s="250"/>
-      <c r="K17" s="250"/>
-      <c r="L17" s="250"/>
-      <c r="M17" s="250"/>
-      <c r="N17" s="250"/>
-      <c r="O17" s="250"/>
-      <c r="P17" s="250"/>
-      <c r="Q17" s="250"/>
-      <c r="R17" s="250"/>
-      <c r="S17" s="250"/>
-      <c r="T17" s="250"/>
-      <c r="U17" s="250"/>
-      <c r="V17" s="250"/>
-      <c r="W17" s="250"/>
-      <c r="X17" s="250"/>
-      <c r="Y17" s="251"/>
+      <c r="B17" s="235"/>
+      <c r="C17" s="235"/>
+      <c r="D17" s="235"/>
+      <c r="E17" s="235"/>
+      <c r="F17" s="235"/>
+      <c r="G17" s="235"/>
+      <c r="H17" s="235"/>
+      <c r="I17" s="235"/>
+      <c r="J17" s="235"/>
+      <c r="K17" s="235"/>
+      <c r="L17" s="235"/>
+      <c r="M17" s="235"/>
+      <c r="N17" s="235"/>
+      <c r="O17" s="235"/>
+      <c r="P17" s="235"/>
+      <c r="Q17" s="235"/>
+      <c r="R17" s="235"/>
+      <c r="S17" s="235"/>
+      <c r="T17" s="235"/>
+      <c r="U17" s="235"/>
+      <c r="V17" s="235"/>
+      <c r="W17" s="235"/>
+      <c r="X17" s="235"/>
+      <c r="Y17" s="236"/>
     </row>
     <row r="18" ht="15" spans="2:25">
-      <c r="B18" s="250"/>
-      <c r="C18" s="250"/>
-      <c r="D18" s="250"/>
-      <c r="E18" s="250"/>
-      <c r="F18" s="250"/>
-      <c r="G18" s="250"/>
-      <c r="H18" s="250"/>
-      <c r="I18" s="250"/>
-      <c r="J18" s="250"/>
-      <c r="K18" s="250"/>
-      <c r="L18" s="250"/>
-      <c r="M18" s="250"/>
-      <c r="N18" s="250"/>
-      <c r="O18" s="250"/>
-      <c r="P18" s="250"/>
-      <c r="Q18" s="250"/>
-      <c r="R18" s="250"/>
-      <c r="S18" s="250"/>
-      <c r="T18" s="250"/>
-      <c r="U18" s="250"/>
-      <c r="V18" s="250"/>
-      <c r="W18" s="250"/>
-      <c r="X18" s="250"/>
-      <c r="Y18" s="251"/>
+      <c r="B18" s="235"/>
+      <c r="C18" s="235"/>
+      <c r="D18" s="235"/>
+      <c r="E18" s="235"/>
+      <c r="F18" s="235"/>
+      <c r="G18" s="235"/>
+      <c r="H18" s="235"/>
+      <c r="I18" s="235"/>
+      <c r="J18" s="235"/>
+      <c r="K18" s="235"/>
+      <c r="L18" s="235"/>
+      <c r="M18" s="235"/>
+      <c r="N18" s="235"/>
+      <c r="O18" s="235"/>
+      <c r="P18" s="235"/>
+      <c r="Q18" s="235"/>
+      <c r="R18" s="235"/>
+      <c r="S18" s="235"/>
+      <c r="T18" s="235"/>
+      <c r="U18" s="235"/>
+      <c r="V18" s="235"/>
+      <c r="W18" s="235"/>
+      <c r="X18" s="235"/>
+      <c r="Y18" s="236"/>
     </row>
     <row r="19" ht="15" spans="2:25">
-      <c r="B19" s="250"/>
-      <c r="C19" s="250"/>
-      <c r="D19" s="250"/>
-      <c r="E19" s="250"/>
-      <c r="F19" s="250"/>
-      <c r="G19" s="250"/>
-      <c r="H19" s="250"/>
-      <c r="I19" s="250"/>
-      <c r="J19" s="250"/>
-      <c r="K19" s="250"/>
-      <c r="L19" s="250"/>
-      <c r="M19" s="250"/>
-      <c r="N19" s="250"/>
-      <c r="O19" s="250"/>
-      <c r="P19" s="250"/>
-      <c r="Q19" s="250"/>
-      <c r="R19" s="250"/>
-      <c r="S19" s="250"/>
-      <c r="T19" s="250"/>
-      <c r="U19" s="250"/>
-      <c r="V19" s="250"/>
-      <c r="W19" s="250"/>
-      <c r="X19" s="250"/>
-      <c r="Y19" s="251"/>
+      <c r="B19" s="235"/>
+      <c r="C19" s="235"/>
+      <c r="D19" s="235"/>
+      <c r="E19" s="235"/>
+      <c r="F19" s="235"/>
+      <c r="G19" s="235"/>
+      <c r="H19" s="235"/>
+      <c r="I19" s="235"/>
+      <c r="J19" s="235"/>
+      <c r="K19" s="235"/>
+      <c r="L19" s="235"/>
+      <c r="M19" s="235"/>
+      <c r="N19" s="235"/>
+      <c r="O19" s="235"/>
+      <c r="P19" s="235"/>
+      <c r="Q19" s="235"/>
+      <c r="R19" s="235"/>
+      <c r="S19" s="235"/>
+      <c r="T19" s="235"/>
+      <c r="U19" s="235"/>
+      <c r="V19" s="235"/>
+      <c r="W19" s="235"/>
+      <c r="X19" s="235"/>
+      <c r="Y19" s="236"/>
     </row>
     <row r="20" ht="15" spans="2:25">
-      <c r="B20" s="250"/>
-      <c r="C20" s="250"/>
-      <c r="D20" s="250"/>
-      <c r="E20" s="250"/>
-      <c r="F20" s="250"/>
-      <c r="G20" s="250"/>
-      <c r="H20" s="250"/>
-      <c r="I20" s="250"/>
-      <c r="J20" s="250"/>
-      <c r="K20" s="250"/>
-      <c r="L20" s="250"/>
-      <c r="M20" s="250"/>
-      <c r="N20" s="250"/>
-      <c r="O20" s="250"/>
-      <c r="P20" s="250"/>
-      <c r="Q20" s="250"/>
-      <c r="R20" s="250"/>
-      <c r="S20" s="250"/>
-      <c r="T20" s="250"/>
-      <c r="U20" s="250"/>
-      <c r="V20" s="250"/>
-      <c r="W20" s="250"/>
-      <c r="X20" s="250"/>
-      <c r="Y20" s="251"/>
+      <c r="B20" s="235"/>
+      <c r="C20" s="235"/>
+      <c r="D20" s="235"/>
+      <c r="E20" s="235"/>
+      <c r="F20" s="235"/>
+      <c r="G20" s="235"/>
+      <c r="H20" s="235"/>
+      <c r="I20" s="235"/>
+      <c r="J20" s="235"/>
+      <c r="K20" s="235"/>
+      <c r="L20" s="235"/>
+      <c r="M20" s="235"/>
+      <c r="N20" s="235"/>
+      <c r="O20" s="235"/>
+      <c r="P20" s="235"/>
+      <c r="Q20" s="235"/>
+      <c r="R20" s="235"/>
+      <c r="S20" s="235"/>
+      <c r="T20" s="235"/>
+      <c r="U20" s="235"/>
+      <c r="V20" s="235"/>
+      <c r="W20" s="235"/>
+      <c r="X20" s="235"/>
+      <c r="Y20" s="236"/>
     </row>
     <row r="21" ht="15" spans="2:25">
-      <c r="B21" s="250"/>
-      <c r="C21" s="250"/>
-      <c r="D21" s="250"/>
-      <c r="E21" s="250"/>
-      <c r="F21" s="250"/>
-      <c r="G21" s="250"/>
-      <c r="H21" s="250"/>
-      <c r="I21" s="250"/>
-      <c r="J21" s="250"/>
-      <c r="K21" s="250"/>
-      <c r="L21" s="250"/>
-      <c r="M21" s="250"/>
-      <c r="N21" s="250"/>
-      <c r="O21" s="250"/>
-      <c r="P21" s="250"/>
-      <c r="Q21" s="250"/>
-      <c r="R21" s="250"/>
-      <c r="S21" s="250"/>
-      <c r="T21" s="250"/>
-      <c r="U21" s="250"/>
-      <c r="V21" s="250"/>
-      <c r="W21" s="250"/>
-      <c r="X21" s="250"/>
-      <c r="Y21" s="251"/>
+      <c r="B21" s="235"/>
+      <c r="C21" s="235"/>
+      <c r="D21" s="235"/>
+      <c r="E21" s="235"/>
+      <c r="F21" s="235"/>
+      <c r="G21" s="235"/>
+      <c r="H21" s="235"/>
+      <c r="I21" s="235"/>
+      <c r="J21" s="235"/>
+      <c r="K21" s="235"/>
+      <c r="L21" s="235"/>
+      <c r="M21" s="235"/>
+      <c r="N21" s="235"/>
+      <c r="O21" s="235"/>
+      <c r="P21" s="235"/>
+      <c r="Q21" s="235"/>
+      <c r="R21" s="235"/>
+      <c r="S21" s="235"/>
+      <c r="T21" s="235"/>
+      <c r="U21" s="235"/>
+      <c r="V21" s="235"/>
+      <c r="W21" s="235"/>
+      <c r="X21" s="235"/>
+      <c r="Y21" s="236"/>
     </row>
     <row r="22" ht="15" spans="2:25">
-      <c r="B22" s="250"/>
-      <c r="C22" s="250"/>
-      <c r="D22" s="250"/>
-      <c r="E22" s="250"/>
-      <c r="F22" s="250"/>
-      <c r="G22" s="250"/>
-      <c r="H22" s="250"/>
-      <c r="I22" s="250"/>
-      <c r="J22" s="250"/>
-      <c r="K22" s="250"/>
-      <c r="L22" s="250"/>
-      <c r="M22" s="250"/>
-      <c r="N22" s="250"/>
-      <c r="O22" s="250"/>
-      <c r="P22" s="250"/>
-      <c r="Q22" s="250"/>
-      <c r="R22" s="250"/>
-      <c r="S22" s="250"/>
-      <c r="T22" s="250"/>
-      <c r="U22" s="250"/>
-      <c r="V22" s="250"/>
-      <c r="W22" s="250"/>
-      <c r="X22" s="250"/>
-      <c r="Y22" s="251"/>
+      <c r="B22" s="235"/>
+      <c r="C22" s="235"/>
+      <c r="D22" s="235"/>
+      <c r="E22" s="235"/>
+      <c r="F22" s="235"/>
+      <c r="G22" s="235"/>
+      <c r="H22" s="235"/>
+      <c r="I22" s="235"/>
+      <c r="J22" s="235"/>
+      <c r="K22" s="235"/>
+      <c r="L22" s="235"/>
+      <c r="M22" s="235"/>
+      <c r="N22" s="235"/>
+      <c r="O22" s="235"/>
+      <c r="P22" s="235"/>
+      <c r="Q22" s="235"/>
+      <c r="R22" s="235"/>
+      <c r="S22" s="235"/>
+      <c r="T22" s="235"/>
+      <c r="U22" s="235"/>
+      <c r="V22" s="235"/>
+      <c r="W22" s="235"/>
+      <c r="X22" s="235"/>
+      <c r="Y22" s="236"/>
     </row>
     <row r="23" ht="15" spans="2:25">
-      <c r="B23" s="250"/>
-      <c r="C23" s="250"/>
-      <c r="D23" s="250"/>
-      <c r="E23" s="250"/>
-      <c r="F23" s="250"/>
-      <c r="G23" s="250"/>
-      <c r="H23" s="250"/>
-      <c r="I23" s="250"/>
-      <c r="J23" s="250"/>
-      <c r="K23" s="250"/>
-      <c r="L23" s="250"/>
-      <c r="M23" s="250"/>
-      <c r="N23" s="250"/>
-      <c r="O23" s="250"/>
-      <c r="P23" s="250"/>
-      <c r="Q23" s="250"/>
-      <c r="R23" s="250"/>
-      <c r="S23" s="250"/>
-      <c r="T23" s="250"/>
-      <c r="U23" s="250"/>
-      <c r="V23" s="250"/>
-      <c r="W23" s="250"/>
-      <c r="X23" s="250"/>
-      <c r="Y23" s="251"/>
+      <c r="B23" s="235"/>
+      <c r="C23" s="235"/>
+      <c r="D23" s="235"/>
+      <c r="E23" s="235"/>
+      <c r="F23" s="235"/>
+      <c r="G23" s="235"/>
+      <c r="H23" s="235"/>
+      <c r="I23" s="235"/>
+      <c r="J23" s="235"/>
+      <c r="K23" s="235"/>
+      <c r="L23" s="235"/>
+      <c r="M23" s="235"/>
+      <c r="N23" s="235"/>
+      <c r="O23" s="235"/>
+      <c r="P23" s="235"/>
+      <c r="Q23" s="235"/>
+      <c r="R23" s="235"/>
+      <c r="S23" s="235"/>
+      <c r="T23" s="235"/>
+      <c r="U23" s="235"/>
+      <c r="V23" s="235"/>
+      <c r="W23" s="235"/>
+      <c r="X23" s="235"/>
+      <c r="Y23" s="236"/>
     </row>
     <row r="24" ht="15" spans="2:25">
-      <c r="B24" s="250"/>
-      <c r="C24" s="250"/>
-      <c r="D24" s="250"/>
-      <c r="E24" s="250"/>
-      <c r="F24" s="250"/>
-      <c r="G24" s="250"/>
-      <c r="H24" s="250"/>
-      <c r="I24" s="250"/>
-      <c r="J24" s="250"/>
-      <c r="K24" s="250"/>
-      <c r="L24" s="250"/>
-      <c r="M24" s="250"/>
-      <c r="N24" s="250"/>
-      <c r="O24" s="250"/>
-      <c r="P24" s="250"/>
-      <c r="Q24" s="250"/>
-      <c r="R24" s="250"/>
-      <c r="S24" s="250"/>
-      <c r="T24" s="250"/>
-      <c r="U24" s="250"/>
-      <c r="V24" s="250"/>
-      <c r="W24" s="250"/>
-      <c r="X24" s="250"/>
-      <c r="Y24" s="251"/>
+      <c r="B24" s="235"/>
+      <c r="C24" s="235"/>
+      <c r="D24" s="235"/>
+      <c r="E24" s="235"/>
+      <c r="F24" s="235"/>
+      <c r="G24" s="235"/>
+      <c r="H24" s="235"/>
+      <c r="I24" s="235"/>
+      <c r="J24" s="235"/>
+      <c r="K24" s="235"/>
+      <c r="L24" s="235"/>
+      <c r="M24" s="235"/>
+      <c r="N24" s="235"/>
+      <c r="O24" s="235"/>
+      <c r="P24" s="235"/>
+      <c r="Q24" s="235"/>
+      <c r="R24" s="235"/>
+      <c r="S24" s="235"/>
+      <c r="T24" s="235"/>
+      <c r="U24" s="235"/>
+      <c r="V24" s="235"/>
+      <c r="W24" s="235"/>
+      <c r="X24" s="235"/>
+      <c r="Y24" s="236"/>
     </row>
     <row r="25" ht="15" spans="2:25">
-      <c r="B25" s="250"/>
-      <c r="C25" s="250"/>
-      <c r="D25" s="250"/>
-      <c r="E25" s="250"/>
-      <c r="F25" s="250"/>
-      <c r="G25" s="250"/>
-      <c r="H25" s="250"/>
-      <c r="I25" s="250"/>
-      <c r="J25" s="250"/>
-      <c r="K25" s="250"/>
-      <c r="L25" s="250"/>
-      <c r="M25" s="250"/>
-      <c r="N25" s="250"/>
-      <c r="O25" s="250"/>
-      <c r="P25" s="250"/>
-      <c r="Q25" s="250"/>
-      <c r="R25" s="250"/>
-      <c r="S25" s="250"/>
-      <c r="T25" s="250"/>
-      <c r="U25" s="250"/>
-      <c r="V25" s="250"/>
-      <c r="W25" s="250"/>
-      <c r="X25" s="250"/>
-      <c r="Y25" s="251"/>
+      <c r="B25" s="235"/>
+      <c r="C25" s="235"/>
+      <c r="D25" s="235"/>
+      <c r="E25" s="235"/>
+      <c r="F25" s="235"/>
+      <c r="G25" s="235"/>
+      <c r="H25" s="235"/>
+      <c r="I25" s="235"/>
+      <c r="J25" s="235"/>
+      <c r="K25" s="235"/>
+      <c r="L25" s="235"/>
+      <c r="M25" s="235"/>
+      <c r="N25" s="235"/>
+      <c r="O25" s="235"/>
+      <c r="P25" s="235"/>
+      <c r="Q25" s="235"/>
+      <c r="R25" s="235"/>
+      <c r="S25" s="235"/>
+      <c r="T25" s="235"/>
+      <c r="U25" s="235"/>
+      <c r="V25" s="235"/>
+      <c r="W25" s="235"/>
+      <c r="X25" s="235"/>
+      <c r="Y25" s="236"/>
     </row>
     <row r="26" ht="15" spans="2:25">
-      <c r="B26" s="250"/>
-      <c r="C26" s="250"/>
-      <c r="D26" s="250"/>
-      <c r="E26" s="250"/>
-      <c r="F26" s="250"/>
-      <c r="G26" s="250"/>
-      <c r="H26" s="250"/>
-      <c r="I26" s="250"/>
-      <c r="J26" s="250"/>
-      <c r="K26" s="250"/>
-      <c r="L26" s="250"/>
-      <c r="M26" s="250"/>
-      <c r="N26" s="250"/>
-      <c r="O26" s="250"/>
-      <c r="P26" s="250"/>
-      <c r="Q26" s="250"/>
-      <c r="R26" s="250"/>
-      <c r="S26" s="250"/>
-      <c r="T26" s="250"/>
-      <c r="U26" s="250"/>
-      <c r="V26" s="250"/>
-      <c r="W26" s="250"/>
-      <c r="X26" s="250"/>
-      <c r="Y26" s="251"/>
+      <c r="B26" s="235"/>
+      <c r="C26" s="235"/>
+      <c r="D26" s="235"/>
+      <c r="E26" s="235"/>
+      <c r="F26" s="235"/>
+      <c r="G26" s="235"/>
+      <c r="H26" s="235"/>
+      <c r="I26" s="235"/>
+      <c r="J26" s="235"/>
+      <c r="K26" s="235"/>
+      <c r="L26" s="235"/>
+      <c r="M26" s="235"/>
+      <c r="N26" s="235"/>
+      <c r="O26" s="235"/>
+      <c r="P26" s="235"/>
+      <c r="Q26" s="235"/>
+      <c r="R26" s="235"/>
+      <c r="S26" s="235"/>
+      <c r="T26" s="235"/>
+      <c r="U26" s="235"/>
+      <c r="V26" s="235"/>
+      <c r="W26" s="235"/>
+      <c r="X26" s="235"/>
+      <c r="Y26" s="236"/>
     </row>
     <row r="27" ht="15" spans="2:25">
-      <c r="B27" s="250"/>
-      <c r="C27" s="250"/>
-      <c r="D27" s="250"/>
-      <c r="E27" s="250"/>
-      <c r="F27" s="250"/>
-      <c r="G27" s="250"/>
-      <c r="H27" s="250"/>
-      <c r="I27" s="250"/>
-      <c r="J27" s="250"/>
-      <c r="K27" s="250"/>
-      <c r="L27" s="250"/>
-      <c r="M27" s="250"/>
-      <c r="N27" s="250"/>
-      <c r="O27" s="250"/>
-      <c r="P27" s="250"/>
-      <c r="Q27" s="250"/>
-      <c r="R27" s="250"/>
-      <c r="S27" s="250"/>
-      <c r="T27" s="250"/>
-      <c r="U27" s="250"/>
-      <c r="V27" s="250"/>
-      <c r="W27" s="250"/>
-      <c r="X27" s="250"/>
-      <c r="Y27" s="251"/>
+      <c r="B27" s="235"/>
+      <c r="C27" s="235"/>
+      <c r="D27" s="235"/>
+      <c r="E27" s="235"/>
+      <c r="F27" s="235"/>
+      <c r="G27" s="235"/>
+      <c r="H27" s="235"/>
+      <c r="I27" s="235"/>
+      <c r="J27" s="235"/>
+      <c r="K27" s="235"/>
+      <c r="L27" s="235"/>
+      <c r="M27" s="235"/>
+      <c r="N27" s="235"/>
+      <c r="O27" s="235"/>
+      <c r="P27" s="235"/>
+      <c r="Q27" s="235"/>
+      <c r="R27" s="235"/>
+      <c r="S27" s="235"/>
+      <c r="T27" s="235"/>
+      <c r="U27" s="235"/>
+      <c r="V27" s="235"/>
+      <c r="W27" s="235"/>
+      <c r="X27" s="235"/>
+      <c r="Y27" s="236"/>
     </row>
     <row r="28" ht="15" spans="2:25">
-      <c r="B28" s="250"/>
-      <c r="C28" s="250"/>
-      <c r="D28" s="250"/>
-      <c r="E28" s="250"/>
-      <c r="F28" s="250"/>
-      <c r="G28" s="250"/>
-      <c r="H28" s="250"/>
-      <c r="I28" s="250"/>
-      <c r="J28" s="250"/>
-      <c r="K28" s="250"/>
-      <c r="L28" s="250"/>
-      <c r="M28" s="250"/>
-      <c r="N28" s="250"/>
-      <c r="O28" s="250"/>
-      <c r="P28" s="250"/>
-      <c r="Q28" s="250"/>
-      <c r="R28" s="250"/>
-      <c r="S28" s="250"/>
-      <c r="T28" s="250"/>
-      <c r="U28" s="250"/>
-      <c r="V28" s="250"/>
-      <c r="W28" s="250"/>
-      <c r="X28" s="250"/>
-      <c r="Y28" s="251"/>
+      <c r="B28" s="235"/>
+      <c r="C28" s="235"/>
+      <c r="D28" s="235"/>
+      <c r="E28" s="235"/>
+      <c r="F28" s="235"/>
+      <c r="G28" s="235"/>
+      <c r="H28" s="235"/>
+      <c r="I28" s="235"/>
+      <c r="J28" s="235"/>
+      <c r="K28" s="235"/>
+      <c r="L28" s="235"/>
+      <c r="M28" s="235"/>
+      <c r="N28" s="235"/>
+      <c r="O28" s="235"/>
+      <c r="P28" s="235"/>
+      <c r="Q28" s="235"/>
+      <c r="R28" s="235"/>
+      <c r="S28" s="235"/>
+      <c r="T28" s="235"/>
+      <c r="U28" s="235"/>
+      <c r="V28" s="235"/>
+      <c r="W28" s="235"/>
+      <c r="X28" s="235"/>
+      <c r="Y28" s="236"/>
     </row>
     <row r="29" ht="15" spans="2:25">
-      <c r="B29" s="250"/>
-      <c r="C29" s="250"/>
-      <c r="D29" s="250"/>
-      <c r="E29" s="250"/>
-      <c r="F29" s="250"/>
-      <c r="G29" s="250"/>
-      <c r="H29" s="250"/>
-      <c r="I29" s="250"/>
-      <c r="J29" s="250"/>
-      <c r="K29" s="250"/>
-      <c r="L29" s="250"/>
-      <c r="M29" s="250"/>
-      <c r="N29" s="250"/>
-      <c r="O29" s="250"/>
-      <c r="P29" s="250"/>
-      <c r="Q29" s="250"/>
-      <c r="R29" s="250"/>
-      <c r="S29" s="250"/>
-      <c r="T29" s="250"/>
-      <c r="U29" s="250"/>
-      <c r="V29" s="250"/>
-      <c r="W29" s="250"/>
-      <c r="X29" s="250"/>
-      <c r="Y29" s="251"/>
+      <c r="B29" s="235"/>
+      <c r="C29" s="235"/>
+      <c r="D29" s="235"/>
+      <c r="E29" s="235"/>
+      <c r="F29" s="235"/>
+      <c r="G29" s="235"/>
+      <c r="H29" s="235"/>
+      <c r="I29" s="235"/>
+      <c r="J29" s="235"/>
+      <c r="K29" s="235"/>
+      <c r="L29" s="235"/>
+      <c r="M29" s="235"/>
+      <c r="N29" s="235"/>
+      <c r="O29" s="235"/>
+      <c r="P29" s="235"/>
+      <c r="Q29" s="235"/>
+      <c r="R29" s="235"/>
+      <c r="S29" s="235"/>
+      <c r="T29" s="235"/>
+      <c r="U29" s="235"/>
+      <c r="V29" s="235"/>
+      <c r="W29" s="235"/>
+      <c r="X29" s="235"/>
+      <c r="Y29" s="236"/>
     </row>
     <row r="74" spans="2:4">
-      <c r="B74" s="252"/>
-      <c r="C74" s="252"/>
-      <c r="D74" s="252"/>
+      <c r="B74" s="237"/>
+      <c r="C74" s="237"/>
+      <c r="D74" s="237"/>
     </row>
     <row r="75" spans="2:4">
-      <c r="B75" s="252"/>
-      <c r="C75" s="252"/>
-      <c r="D75" s="252"/>
+      <c r="B75" s="237"/>
+      <c r="C75" s="237"/>
+      <c r="D75" s="237"/>
     </row>
     <row r="76" spans="2:2">
       <c r="B76" s="4"/>
@@ -5888,1579 +6095,1493 @@
     <outlinePr summaryBelow="0"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:P85"/>
+  <dimension ref="A2:O84"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="9" topLeftCell="A13" activePane="bottomLeft" state="frozenSplit"/>
+    <sheetView showGridLines="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane ySplit="9" topLeftCell="A10" activePane="bottomLeft" state="frozenSplit"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="I62" sqref="I62"/>
+      <selection pane="bottomLeft" activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="3.42857142857143" customWidth="1"/>
-    <col min="2" max="2" width="8.71428571428571" style="113" customWidth="1"/>
-    <col min="3" max="3" width="94.7142857142857" style="114" customWidth="1"/>
-    <col min="4" max="4" width="17" style="113" customWidth="1"/>
+    <col min="2" max="2" width="8.71428571428571" style="133" customWidth="1"/>
+    <col min="3" max="3" width="96.3142857142857" style="134" customWidth="1"/>
+    <col min="4" max="4" width="17" style="133" customWidth="1"/>
     <col min="5" max="5" width="15.4285714285714" style="5" customWidth="1"/>
     <col min="6" max="6" width="14.4285714285714" style="5" customWidth="1"/>
-    <col min="7" max="7" width="21.7142857142857" style="115" customWidth="1"/>
+    <col min="7" max="7" width="21.7142857142857" style="135" customWidth="1"/>
     <col min="8" max="8" width="13.4285714285714" style="5" customWidth="1"/>
-    <col min="9" max="9" width="16.2857142857143" style="5" customWidth="1"/>
-    <col min="10" max="10" width="12.5714285714286" customWidth="1"/>
-    <col min="13" max="13" width="8.71428571428571" customWidth="1"/>
-    <col min="14" max="14" width="46.1428571428571" customWidth="1"/>
-    <col min="15" max="15" width="56.4285714285714" customWidth="1"/>
-    <col min="16" max="16" width="16" customWidth="1"/>
+    <col min="9" max="9" width="21.4190476190476" style="5" customWidth="1"/>
+    <col min="12" max="12" width="8.71428571428571" customWidth="1"/>
+    <col min="13" max="13" width="46.1428571428571" customWidth="1"/>
+    <col min="14" max="14" width="56.4285714285714" customWidth="1"/>
+    <col min="15" max="15" width="16" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="3:3">
-      <c r="C2" s="116"/>
+      <c r="C2" s="136"/>
     </row>
     <row r="3" ht="18" spans="3:3">
-      <c r="C3" s="117" t="s">
+      <c r="C3" s="137"/>
+    </row>
+    <row r="7" ht="16.5" spans="2:2">
+      <c r="B7" s="138" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="7" ht="16.5" spans="2:2">
-      <c r="B7" s="118" t="s">
+    <row r="8" ht="13.5"/>
+    <row r="9" s="1" customFormat="1" ht="32.25" spans="2:15">
+      <c r="B9" s="139" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" ht="13.5"/>
-    <row r="9" s="1" customFormat="1" ht="32.25" spans="2:16">
-      <c r="B9" s="119" t="s">
+      <c r="C9" s="140" t="s">
         <v>2</v>
       </c>
-      <c r="C9" s="120" t="s">
+      <c r="D9" s="141" t="s">
         <v>3</v>
       </c>
-      <c r="D9" s="121" t="s">
+      <c r="E9" s="142" t="s">
         <v>4</v>
       </c>
-      <c r="E9" s="122" t="s">
+      <c r="F9" s="143" t="s">
         <v>5</v>
       </c>
-      <c r="F9" s="123" t="s">
+      <c r="G9" s="143" t="s">
         <v>6</v>
       </c>
-      <c r="G9" s="123" t="s">
+      <c r="H9" s="143" t="s">
         <v>7</v>
       </c>
-      <c r="H9" s="123" t="s">
+      <c r="I9" s="143" t="s">
         <v>8</v>
       </c>
-      <c r="I9" s="123" t="s">
+      <c r="L9" s="205" t="s">
         <v>9</v>
       </c>
-      <c r="J9" s="202" t="s">
+      <c r="M9" s="206"/>
+      <c r="N9" s="206"/>
+      <c r="O9" s="207"/>
+    </row>
+    <row r="10" s="3" customFormat="1" ht="31.9" customHeight="1" spans="2:15">
+      <c r="B10" s="139">
+        <v>1</v>
+      </c>
+      <c r="C10" s="144" t="s">
         <v>10</v>
       </c>
-      <c r="M9" s="203" t="s">
+      <c r="D10" s="141"/>
+      <c r="E10" s="142"/>
+      <c r="F10" s="143"/>
+      <c r="G10" s="143"/>
+      <c r="H10" s="143"/>
+      <c r="I10" s="208">
+        <f>SUM(I11:I13)</f>
+        <v>12400</v>
+      </c>
+      <c r="L10" s="209"/>
+      <c r="M10" s="210" t="s">
         <v>11</v>
       </c>
-      <c r="N9" s="204"/>
-      <c r="O9" s="204"/>
-      <c r="P9" s="205"/>
-    </row>
-    <row r="10" s="3" customFormat="1" ht="31.9" customHeight="1" spans="2:16">
-      <c r="B10" s="119">
+      <c r="N10" s="210" t="s">
+        <v>3</v>
+      </c>
+      <c r="O10" s="211" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" s="3" customFormat="1" ht="22.5" customHeight="1" spans="2:15">
+      <c r="B11" s="145" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" s="146" t="s">
+        <v>13</v>
+      </c>
+      <c r="D11" s="238" t="s">
+        <v>14</v>
+      </c>
+      <c r="E11" s="148">
+        <v>2</v>
+      </c>
+      <c r="F11" s="149" t="s">
+        <v>15</v>
+      </c>
+      <c r="G11" s="150" t="s">
+        <v>16</v>
+      </c>
+      <c r="H11" s="151" t="s">
+        <v>17</v>
+      </c>
+      <c r="I11" s="212">
+        <v>4000</v>
+      </c>
+      <c r="L11" s="213">
         <v>1</v>
       </c>
-      <c r="C10" s="124" t="s">
+      <c r="M11" s="214" t="s">
+        <v>10</v>
+      </c>
+      <c r="N11" s="214" t="s">
+        <v>14</v>
+      </c>
+      <c r="O11" s="215">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" s="3" customFormat="1" ht="27.75" customHeight="1" spans="2:15">
+      <c r="B12" s="152" t="s">
+        <v>18</v>
+      </c>
+      <c r="C12" s="153" t="s">
+        <v>19</v>
+      </c>
+      <c r="D12" s="154" t="s">
         <v>12</v>
       </c>
-      <c r="D10" s="121"/>
-      <c r="E10" s="122"/>
-      <c r="F10" s="123"/>
-      <c r="G10" s="123"/>
-      <c r="H10" s="123"/>
-      <c r="I10" s="206">
-        <f>SUM(I11:I13)</f>
-        <v>7700</v>
-      </c>
-      <c r="J10" s="207"/>
-      <c r="M10" s="208"/>
-      <c r="N10" s="209" t="s">
-        <v>13</v>
-      </c>
-      <c r="O10" s="209" t="s">
+      <c r="E12" s="155">
+        <v>2</v>
+      </c>
+      <c r="F12" s="149" t="s">
+        <v>15</v>
+      </c>
+      <c r="G12" s="156" t="s">
+        <v>16</v>
+      </c>
+      <c r="H12" s="157" t="s">
+        <v>17</v>
+      </c>
+      <c r="I12" s="216">
+        <v>4400</v>
+      </c>
+      <c r="L12" s="213">
+        <v>2</v>
+      </c>
+      <c r="M12" s="214" t="s">
+        <v>20</v>
+      </c>
+      <c r="N12" s="214" t="s">
+        <v>10</v>
+      </c>
+      <c r="O12" s="215">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" s="3" customFormat="1" ht="28.5" customHeight="1" spans="2:15">
+      <c r="B13" s="158" t="s">
+        <v>21</v>
+      </c>
+      <c r="C13" s="159" t="s">
+        <v>22</v>
+      </c>
+      <c r="D13" s="160" t="s">
+        <v>18</v>
+      </c>
+      <c r="E13" s="161">
+        <v>2</v>
+      </c>
+      <c r="F13" s="149" t="s">
+        <v>15</v>
+      </c>
+      <c r="G13" s="162" t="s">
+        <v>16</v>
+      </c>
+      <c r="H13" s="163" t="s">
+        <v>17</v>
+      </c>
+      <c r="I13" s="217">
+        <v>4000</v>
+      </c>
+      <c r="L13" s="213">
+        <v>3</v>
+      </c>
+      <c r="M13" s="214" t="s">
+        <v>23</v>
+      </c>
+      <c r="N13" s="214" t="s">
+        <v>10</v>
+      </c>
+      <c r="O13" s="215">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" s="3" customFormat="1" ht="18.75" spans="2:15">
+      <c r="B14" s="164">
+        <v>2</v>
+      </c>
+      <c r="C14" s="165" t="s">
+        <v>20</v>
+      </c>
+      <c r="D14" s="166"/>
+      <c r="E14" s="167"/>
+      <c r="F14" s="168"/>
+      <c r="G14" s="168"/>
+      <c r="H14" s="168"/>
+      <c r="I14" s="208">
+        <f>SUM(I15:I21)</f>
+        <v>15000</v>
+      </c>
+      <c r="L14" s="213">
         <v>4</v>
       </c>
-      <c r="P10" s="210" t="s">
+      <c r="M14" s="214" t="s">
+        <v>24</v>
+      </c>
+      <c r="N14" s="214" t="s">
+        <v>25</v>
+      </c>
+      <c r="O14" s="215">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="15" s="4" customFormat="1" ht="37.5" customHeight="1" spans="2:15">
+      <c r="B15" s="145" t="s">
+        <v>26</v>
+      </c>
+      <c r="C15" s="146" t="s">
+        <v>27</v>
+      </c>
+      <c r="D15" s="147" t="s">
+        <v>18</v>
+      </c>
+      <c r="E15" s="169">
+        <v>2</v>
+      </c>
+      <c r="F15" s="151" t="s">
+        <v>15</v>
+      </c>
+      <c r="G15" s="156" t="s">
+        <v>16</v>
+      </c>
+      <c r="H15" s="151" t="s">
+        <v>17</v>
+      </c>
+      <c r="I15" s="212">
+        <v>3000</v>
+      </c>
+      <c r="L15" s="213">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" s="3" customFormat="1" ht="22.5" customHeight="1" spans="2:16">
-      <c r="B11" s="125" t="s">
-        <v>14</v>
-      </c>
-      <c r="C11" s="126" t="s">
+      <c r="M15" s="214" t="s">
+        <v>28</v>
+      </c>
+      <c r="N15" s="214" t="s">
+        <v>24</v>
+      </c>
+      <c r="O15" s="215">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" s="4" customFormat="1" ht="33" customHeight="1" spans="2:15">
+      <c r="B16" s="152" t="s">
+        <v>29</v>
+      </c>
+      <c r="C16" s="170" t="s">
+        <v>30</v>
+      </c>
+      <c r="D16" s="154" t="s">
+        <v>26</v>
+      </c>
+      <c r="E16" s="171">
+        <v>2</v>
+      </c>
+      <c r="F16" s="151" t="s">
         <v>15</v>
       </c>
-      <c r="D11" s="127"/>
-      <c r="E11" s="128">
+      <c r="G16" s="156" t="s">
+        <v>16</v>
+      </c>
+      <c r="H16" s="157" t="s">
+        <v>17</v>
+      </c>
+      <c r="I16" s="212">
+        <v>2000</v>
+      </c>
+      <c r="L16" s="213">
+        <v>6</v>
+      </c>
+      <c r="M16" s="218" t="s">
+        <v>31</v>
+      </c>
+      <c r="N16" s="219" t="s">
+        <v>28</v>
+      </c>
+      <c r="O16" s="220">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17" s="4" customFormat="1" ht="28.5" customHeight="1" spans="2:15">
+      <c r="B17" s="152" t="s">
+        <v>32</v>
+      </c>
+      <c r="C17" s="170" t="s">
+        <v>33</v>
+      </c>
+      <c r="D17" s="154" t="s">
+        <v>29</v>
+      </c>
+      <c r="E17" s="171">
         <v>2</v>
       </c>
-      <c r="F11" s="129" t="s">
+      <c r="F17" s="151" t="s">
+        <v>15</v>
+      </c>
+      <c r="G17" s="156" t="s">
         <v>16</v>
       </c>
-      <c r="G11" s="130" t="s">
+      <c r="H17" s="157" t="s">
         <v>17</v>
       </c>
-      <c r="H11" s="131" t="s">
-        <v>18</v>
-      </c>
-      <c r="I11" s="211">
-        <v>2500</v>
-      </c>
-      <c r="J11" s="212"/>
-      <c r="M11" s="213">
+      <c r="I17" s="212">
+        <v>2000</v>
+      </c>
+      <c r="L17" s="221">
+        <v>7</v>
+      </c>
+      <c r="M17" s="219" t="s">
+        <v>34</v>
+      </c>
+      <c r="N17" s="219" t="s">
+        <v>35</v>
+      </c>
+      <c r="O17" s="215">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18" s="4" customFormat="1" ht="39" customHeight="1" spans="2:15">
+      <c r="B18" s="152" t="s">
+        <v>36</v>
+      </c>
+      <c r="C18" s="170" t="s">
+        <v>37</v>
+      </c>
+      <c r="D18" s="154" t="s">
+        <v>32</v>
+      </c>
+      <c r="E18" s="171">
         <v>1</v>
       </c>
-      <c r="N11" s="214" t="s">
-        <v>12</v>
-      </c>
-      <c r="O11" s="214" t="s">
-        <v>19</v>
-      </c>
-      <c r="P11" s="215">
+      <c r="F18" s="157" t="s">
+        <v>38</v>
+      </c>
+      <c r="G18" s="156" t="s">
+        <v>16</v>
+      </c>
+      <c r="H18" s="157" t="s">
+        <v>17</v>
+      </c>
+      <c r="I18" s="212">
+        <v>2000</v>
+      </c>
+      <c r="L18" s="213">
+        <v>8</v>
+      </c>
+      <c r="M18" s="214" t="s">
+        <v>39</v>
+      </c>
+      <c r="N18" s="214" t="s">
+        <v>34</v>
+      </c>
+      <c r="O18" s="215">
         <v>6</v>
       </c>
     </row>
-    <row r="12" s="3" customFormat="1" ht="27.75" customHeight="1" spans="2:16">
-      <c r="B12" s="132" t="s">
-        <v>20</v>
-      </c>
-      <c r="C12" s="133" t="s">
+    <row r="19" s="4" customFormat="1" ht="34.9" customHeight="1" spans="2:15">
+      <c r="B19" s="152" t="s">
+        <v>40</v>
+      </c>
+      <c r="C19" s="170" t="s">
+        <v>41</v>
+      </c>
+      <c r="D19" s="154" t="s">
+        <v>32</v>
+      </c>
+      <c r="E19" s="171">
+        <v>1</v>
+      </c>
+      <c r="F19" s="157" t="s">
+        <v>38</v>
+      </c>
+      <c r="G19" s="156" t="s">
+        <v>16</v>
+      </c>
+      <c r="H19" s="157" t="s">
+        <v>17</v>
+      </c>
+      <c r="I19" s="212">
+        <v>2000</v>
+      </c>
+      <c r="L19" s="213">
+        <v>9</v>
+      </c>
+      <c r="M19" s="218" t="s">
+        <v>42</v>
+      </c>
+      <c r="N19" s="214" t="s">
+        <v>39</v>
+      </c>
+      <c r="O19" s="215">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20" s="4" customFormat="1" ht="28.5" customHeight="1" spans="2:15">
+      <c r="B20" s="152" t="s">
+        <v>43</v>
+      </c>
+      <c r="C20" s="146" t="s">
+        <v>44</v>
+      </c>
+      <c r="D20" s="154" t="s">
+        <v>40</v>
+      </c>
+      <c r="E20" s="155">
+        <v>2</v>
+      </c>
+      <c r="F20" s="172" t="s">
+        <v>15</v>
+      </c>
+      <c r="G20" s="156" t="s">
+        <v>16</v>
+      </c>
+      <c r="H20" s="157" t="s">
+        <v>17</v>
+      </c>
+      <c r="I20" s="212">
+        <v>2000</v>
+      </c>
+      <c r="L20" s="222"/>
+      <c r="M20" s="223"/>
+      <c r="N20" s="224"/>
+      <c r="O20" s="225"/>
+    </row>
+    <row r="21" s="4" customFormat="1" ht="28.5" customHeight="1" spans="2:9">
+      <c r="B21" s="158" t="s">
+        <v>45</v>
+      </c>
+      <c r="C21" s="173" t="s">
+        <v>46</v>
+      </c>
+      <c r="D21" s="160" t="s">
+        <v>40</v>
+      </c>
+      <c r="E21" s="174">
+        <v>1</v>
+      </c>
+      <c r="F21" s="163" t="s">
+        <v>38</v>
+      </c>
+      <c r="G21" s="156" t="s">
+        <v>16</v>
+      </c>
+      <c r="H21" s="163" t="s">
+        <v>17</v>
+      </c>
+      <c r="I21" s="212">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="22" s="3" customFormat="1" ht="24" customHeight="1" spans="2:9">
+      <c r="B22" s="164">
+        <v>3</v>
+      </c>
+      <c r="C22" s="165" t="s">
+        <v>23</v>
+      </c>
+      <c r="D22" s="166"/>
+      <c r="E22" s="175"/>
+      <c r="F22" s="176"/>
+      <c r="G22" s="176"/>
+      <c r="H22" s="176"/>
+      <c r="I22" s="226">
+        <f>SUM(I23:I28)</f>
+        <v>42000</v>
+      </c>
+    </row>
+    <row r="23" s="4" customFormat="1" ht="28.5" customHeight="1" spans="1:9">
+      <c r="A23" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="B23" s="145" t="s">
+        <v>48</v>
+      </c>
+      <c r="C23" s="177" t="s">
+        <v>49</v>
+      </c>
+      <c r="D23" s="147" t="s">
         <v>21</v>
       </c>
-      <c r="D12" s="134" t="s">
-        <v>14</v>
-      </c>
-      <c r="E12" s="135">
+      <c r="E23" s="169">
+        <v>1</v>
+      </c>
+      <c r="F23" s="151" t="s">
+        <v>38</v>
+      </c>
+      <c r="G23" s="156" t="s">
+        <v>50</v>
+      </c>
+      <c r="H23" s="151" t="s">
+        <v>17</v>
+      </c>
+      <c r="I23" s="212">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="24" s="4" customFormat="1" ht="28.5" customHeight="1" spans="2:9">
+      <c r="B24" s="152" t="s">
+        <v>51</v>
+      </c>
+      <c r="C24" s="177" t="s">
+        <v>52</v>
+      </c>
+      <c r="D24" s="154" t="s">
+        <v>48</v>
+      </c>
+      <c r="E24" s="171">
+        <v>1</v>
+      </c>
+      <c r="F24" s="151" t="s">
+        <v>38</v>
+      </c>
+      <c r="G24" s="156" t="s">
+        <v>50</v>
+      </c>
+      <c r="H24" s="157" t="s">
+        <v>17</v>
+      </c>
+      <c r="I24" s="212">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="25" s="4" customFormat="1" ht="28.5" customHeight="1" spans="2:9">
+      <c r="B25" s="152" t="s">
+        <v>53</v>
+      </c>
+      <c r="C25" s="170" t="s">
+        <v>54</v>
+      </c>
+      <c r="D25" s="154" t="s">
+        <v>51</v>
+      </c>
+      <c r="E25" s="171">
+        <v>1</v>
+      </c>
+      <c r="F25" s="151" t="s">
+        <v>38</v>
+      </c>
+      <c r="G25" s="156" t="s">
+        <v>50</v>
+      </c>
+      <c r="H25" s="157" t="s">
+        <v>17</v>
+      </c>
+      <c r="I25" s="212">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="26" s="4" customFormat="1" ht="28.5" customHeight="1" spans="1:9">
+      <c r="A26" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="B26" s="152" t="s">
+        <v>55</v>
+      </c>
+      <c r="C26" s="170" t="s">
+        <v>56</v>
+      </c>
+      <c r="D26" s="178" t="s">
+        <v>53</v>
+      </c>
+      <c r="E26" s="171">
+        <v>1</v>
+      </c>
+      <c r="F26" s="151" t="s">
+        <v>38</v>
+      </c>
+      <c r="G26" s="156" t="s">
+        <v>50</v>
+      </c>
+      <c r="H26" s="157" t="s">
+        <v>17</v>
+      </c>
+      <c r="I26" s="212">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="27" s="4" customFormat="1" ht="28.5" customHeight="1" spans="2:9">
+      <c r="B27" s="152" t="s">
+        <v>57</v>
+      </c>
+      <c r="C27" s="170" t="s">
+        <v>58</v>
+      </c>
+      <c r="D27" s="154" t="s">
+        <v>55</v>
+      </c>
+      <c r="E27" s="171">
         <v>2</v>
       </c>
-      <c r="F12" s="129" t="s">
-        <v>16</v>
-      </c>
-      <c r="G12" s="136" t="s">
+      <c r="F27" s="157" t="s">
+        <v>15</v>
+      </c>
+      <c r="G27" s="156" t="s">
+        <v>50</v>
+      </c>
+      <c r="H27" s="157" t="s">
         <v>17</v>
       </c>
-      <c r="H12" s="137" t="s">
-        <v>18</v>
-      </c>
-      <c r="I12" s="216">
-        <v>2000</v>
-      </c>
-      <c r="J12" s="217"/>
-      <c r="M12" s="213">
+      <c r="I27" s="212">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="28" s="4" customFormat="1" ht="28.5" customHeight="1" spans="2:15">
+      <c r="B28" s="158" t="s">
+        <v>59</v>
+      </c>
+      <c r="C28" s="173" t="s">
+        <v>60</v>
+      </c>
+      <c r="D28" s="160" t="s">
+        <v>55</v>
+      </c>
+      <c r="E28" s="174">
         <v>2</v>
       </c>
-      <c r="N12" s="214" t="s">
-        <v>22</v>
-      </c>
-      <c r="O12" s="214" t="s">
-        <v>12</v>
-      </c>
-      <c r="P12" s="215">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="13" s="3" customFormat="1" ht="28.5" customHeight="1" spans="2:16">
-      <c r="B13" s="138" t="s">
-        <v>23</v>
-      </c>
-      <c r="C13" s="139" t="s">
-        <v>24</v>
-      </c>
-      <c r="D13" s="140" t="s">
-        <v>20</v>
-      </c>
-      <c r="E13" s="141">
-        <v>2</v>
-      </c>
-      <c r="F13" s="129" t="s">
-        <v>16</v>
-      </c>
-      <c r="G13" s="142" t="s">
+      <c r="F28" s="157" t="s">
+        <v>15</v>
+      </c>
+      <c r="G28" s="156" t="s">
+        <v>50</v>
+      </c>
+      <c r="H28" s="163" t="s">
         <v>17</v>
       </c>
-      <c r="H13" s="143" t="s">
-        <v>18</v>
-      </c>
-      <c r="I13" s="218">
-        <v>3200</v>
-      </c>
-      <c r="J13" s="219"/>
-      <c r="M13" s="213">
-        <v>3</v>
-      </c>
-      <c r="N13" s="214" t="s">
-        <v>25</v>
-      </c>
-      <c r="O13" s="214" t="s">
-        <v>12</v>
-      </c>
-      <c r="P13" s="215">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="14" s="3" customFormat="1" ht="18.75" spans="2:16">
-      <c r="B14" s="144">
-        <v>2</v>
-      </c>
-      <c r="C14" s="145" t="s">
-        <v>22</v>
-      </c>
-      <c r="D14" s="146"/>
-      <c r="E14" s="147"/>
-      <c r="F14" s="148"/>
-      <c r="G14" s="148"/>
-      <c r="H14" s="148"/>
-      <c r="I14" s="206">
-        <f>SUM(I15:I21)</f>
-        <v>17000</v>
-      </c>
-      <c r="J14" s="220"/>
-      <c r="M14" s="213">
-        <v>4</v>
-      </c>
-      <c r="N14" s="214" t="s">
-        <v>26</v>
-      </c>
-      <c r="O14" s="214" t="s">
-        <v>27</v>
-      </c>
-      <c r="P14" s="215">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="15" s="4" customFormat="1" ht="37.5" customHeight="1" spans="2:16">
-      <c r="B15" s="125" t="s">
-        <v>28</v>
-      </c>
-      <c r="C15" s="126" t="s">
-        <v>29</v>
-      </c>
-      <c r="D15" s="127" t="s">
-        <v>20</v>
-      </c>
-      <c r="E15" s="149">
-        <v>2</v>
-      </c>
-      <c r="F15" s="131" t="s">
-        <v>16</v>
-      </c>
-      <c r="G15" s="150" t="s">
-        <v>17</v>
-      </c>
-      <c r="H15" s="131" t="s">
-        <v>18</v>
-      </c>
-      <c r="I15" s="211">
-        <v>2000</v>
-      </c>
-      <c r="J15" s="221"/>
-      <c r="M15" s="213">
-        <v>6</v>
-      </c>
-      <c r="N15" s="222" t="s">
-        <v>30</v>
-      </c>
-      <c r="O15" s="222" t="s">
-        <v>31</v>
-      </c>
-      <c r="P15" s="215">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="16" s="4" customFormat="1" ht="33" customHeight="1" spans="2:16">
-      <c r="B16" s="132" t="s">
-        <v>32</v>
-      </c>
-      <c r="C16" s="151" t="s">
-        <v>33</v>
-      </c>
-      <c r="D16" s="134" t="s">
-        <v>28</v>
-      </c>
-      <c r="E16" s="152">
-        <v>2</v>
-      </c>
-      <c r="F16" s="131" t="s">
-        <v>16</v>
-      </c>
-      <c r="G16" s="142" t="s">
-        <v>17</v>
-      </c>
-      <c r="H16" s="137" t="s">
-        <v>18</v>
-      </c>
-      <c r="I16" s="216">
-        <v>2500</v>
-      </c>
-      <c r="J16" s="223"/>
-      <c r="M16" s="224">
-        <v>7</v>
-      </c>
-      <c r="N16" s="225" t="s">
-        <v>34</v>
-      </c>
-      <c r="O16" s="225" t="s">
-        <v>30</v>
-      </c>
-      <c r="P16" s="226">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="17" s="4" customFormat="1" ht="28.5" customHeight="1" spans="2:16">
-      <c r="B17" s="132" t="s">
-        <v>35</v>
-      </c>
-      <c r="C17" s="151" t="s">
-        <v>36</v>
-      </c>
-      <c r="D17" s="134" t="s">
-        <v>32</v>
-      </c>
-      <c r="E17" s="152">
-        <v>2</v>
-      </c>
-      <c r="F17" s="131" t="s">
-        <v>16</v>
-      </c>
-      <c r="G17" s="142" t="s">
-        <v>17</v>
-      </c>
-      <c r="H17" s="137" t="s">
-        <v>18</v>
-      </c>
-      <c r="I17" s="216">
-        <v>2500</v>
-      </c>
-      <c r="J17" s="223"/>
-      <c r="M17" s="213">
-        <v>8</v>
-      </c>
-      <c r="N17" s="214" t="s">
-        <v>37</v>
-      </c>
-      <c r="O17" s="225" t="s">
-        <v>34</v>
-      </c>
-      <c r="P17" s="215">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="18" s="4" customFormat="1" ht="39" customHeight="1" spans="2:16">
-      <c r="B18" s="132" t="s">
-        <v>38</v>
-      </c>
-      <c r="C18" s="151" t="s">
-        <v>39</v>
-      </c>
-      <c r="D18" s="134" t="s">
-        <v>35</v>
-      </c>
-      <c r="E18" s="152">
-        <v>1</v>
-      </c>
-      <c r="F18" s="137" t="s">
-        <v>40</v>
-      </c>
-      <c r="G18" s="142" t="s">
-        <v>17</v>
-      </c>
-      <c r="H18" s="137" t="s">
-        <v>18</v>
-      </c>
-      <c r="I18" s="216">
-        <v>2500</v>
-      </c>
-      <c r="J18" s="223"/>
-      <c r="M18" s="213">
-        <v>9</v>
-      </c>
-      <c r="N18" s="214" t="s">
-        <v>41</v>
-      </c>
-      <c r="O18" s="214" t="s">
-        <v>37</v>
-      </c>
-      <c r="P18" s="215">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="19" s="4" customFormat="1" ht="34.9" customHeight="1" spans="2:16">
-      <c r="B19" s="132" t="s">
-        <v>42</v>
-      </c>
-      <c r="C19" s="151" t="s">
-        <v>43</v>
-      </c>
-      <c r="D19" s="134" t="s">
-        <v>35</v>
-      </c>
-      <c r="E19" s="152">
-        <v>1</v>
-      </c>
-      <c r="F19" s="137" t="s">
-        <v>40</v>
-      </c>
-      <c r="G19" s="142" t="s">
-        <v>17</v>
-      </c>
-      <c r="H19" s="137" t="s">
-        <v>18</v>
-      </c>
-      <c r="I19" s="216">
-        <v>2500</v>
-      </c>
-      <c r="J19" s="223"/>
-      <c r="M19" s="213">
-        <v>10</v>
-      </c>
-      <c r="N19" s="214" t="s">
-        <v>44</v>
-      </c>
-      <c r="O19" s="214" t="s">
-        <v>45</v>
-      </c>
-      <c r="P19" s="215">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="20" s="4" customFormat="1" ht="28.5" customHeight="1" spans="2:16">
-      <c r="B20" s="132" t="s">
-        <v>46</v>
-      </c>
-      <c r="C20" s="151" t="s">
-        <v>47</v>
-      </c>
-      <c r="D20" s="134" t="s">
-        <v>42</v>
-      </c>
-      <c r="E20" s="135">
-        <v>2</v>
-      </c>
-      <c r="F20" s="153" t="s">
-        <v>16</v>
-      </c>
-      <c r="G20" s="142" t="s">
-        <v>17</v>
-      </c>
-      <c r="H20" s="137" t="s">
-        <v>18</v>
-      </c>
-      <c r="I20" s="216">
-        <v>2500</v>
-      </c>
-      <c r="J20" s="223"/>
-      <c r="M20" s="227">
-        <v>11</v>
-      </c>
-      <c r="N20" s="222" t="s">
-        <v>48</v>
-      </c>
-      <c r="O20" s="214" t="s">
-        <v>44</v>
-      </c>
-      <c r="P20" s="228">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="21" s="4" customFormat="1" ht="28.5" customHeight="1" spans="2:16">
-      <c r="B21" s="138" t="s">
-        <v>49</v>
-      </c>
-      <c r="C21" s="154" t="s">
-        <v>50</v>
-      </c>
-      <c r="D21" s="140" t="s">
-        <v>42</v>
-      </c>
-      <c r="E21" s="155">
-        <v>1</v>
-      </c>
-      <c r="F21" s="143" t="s">
-        <v>40</v>
-      </c>
-      <c r="G21" s="142" t="s">
-        <v>17</v>
-      </c>
-      <c r="H21" s="143" t="s">
-        <v>18</v>
-      </c>
-      <c r="I21" s="216">
-        <v>2500</v>
-      </c>
-      <c r="J21" s="229"/>
-      <c r="M21" s="230"/>
-      <c r="N21" s="231"/>
-      <c r="O21" s="232"/>
-      <c r="P21" s="233"/>
-    </row>
-    <row r="22" s="3" customFormat="1" ht="24" customHeight="1" spans="2:10">
-      <c r="B22" s="144">
-        <v>3</v>
-      </c>
-      <c r="C22" s="145" t="s">
-        <v>25</v>
-      </c>
-      <c r="D22" s="146"/>
-      <c r="E22" s="156"/>
-      <c r="F22" s="157"/>
-      <c r="G22" s="157"/>
-      <c r="H22" s="157"/>
-      <c r="I22" s="234">
-        <f>SUM(I23:I28)</f>
-        <v>13200</v>
-      </c>
-      <c r="J22" s="235"/>
-    </row>
-    <row r="23" s="4" customFormat="1" ht="28.5" customHeight="1" spans="1:10">
-      <c r="A23" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="B23" s="125" t="s">
-        <v>52</v>
-      </c>
-      <c r="C23" s="158" t="s">
-        <v>53</v>
-      </c>
-      <c r="D23" s="127" t="s">
-        <v>23</v>
-      </c>
-      <c r="E23" s="149">
-        <v>1</v>
-      </c>
-      <c r="F23" s="131" t="s">
-        <v>40</v>
-      </c>
-      <c r="G23" s="131" t="s">
-        <v>54</v>
-      </c>
-      <c r="H23" s="131" t="s">
-        <v>18</v>
-      </c>
-      <c r="I23" s="211">
-        <v>2000</v>
-      </c>
-      <c r="J23" s="221"/>
-    </row>
-    <row r="24" s="4" customFormat="1" ht="28.5" customHeight="1" spans="2:10">
-      <c r="B24" s="132" t="s">
-        <v>55</v>
-      </c>
-      <c r="C24" s="151" t="s">
-        <v>56</v>
-      </c>
-      <c r="D24" s="134" t="s">
-        <v>52</v>
-      </c>
-      <c r="E24" s="152">
-        <v>1</v>
-      </c>
-      <c r="F24" s="131" t="s">
-        <v>40</v>
-      </c>
-      <c r="G24" s="137" t="s">
-        <v>54</v>
-      </c>
-      <c r="H24" s="137" t="s">
-        <v>18</v>
-      </c>
-      <c r="I24" s="216">
-        <v>2250</v>
-      </c>
-      <c r="J24" s="223"/>
-    </row>
-    <row r="25" s="4" customFormat="1" ht="28.5" customHeight="1" spans="2:10">
-      <c r="B25" s="132" t="s">
-        <v>57</v>
-      </c>
-      <c r="C25" s="151" t="s">
-        <v>58</v>
-      </c>
-      <c r="D25" s="134" t="s">
-        <v>55</v>
-      </c>
-      <c r="E25" s="152">
-        <v>1</v>
-      </c>
-      <c r="F25" s="131" t="s">
-        <v>40</v>
-      </c>
-      <c r="G25" s="137" t="s">
-        <v>54</v>
-      </c>
-      <c r="H25" s="137" t="s">
-        <v>18</v>
-      </c>
-      <c r="I25" s="216">
-        <v>2200</v>
-      </c>
-      <c r="J25" s="223"/>
-    </row>
-    <row r="26" s="4" customFormat="1" ht="28.5" customHeight="1" spans="1:10">
-      <c r="A26" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="B26" s="132" t="s">
-        <v>59</v>
-      </c>
-      <c r="C26" s="151" t="s">
-        <v>60</v>
-      </c>
-      <c r="D26" s="159" t="s">
-        <v>57</v>
-      </c>
-      <c r="E26" s="152">
-        <v>1</v>
-      </c>
-      <c r="F26" s="131" t="s">
-        <v>40</v>
-      </c>
-      <c r="G26" s="137" t="s">
-        <v>54</v>
-      </c>
-      <c r="H26" s="137" t="s">
-        <v>18</v>
-      </c>
-      <c r="I26" s="216">
-        <v>2250</v>
-      </c>
-      <c r="J26" s="223"/>
-    </row>
-    <row r="27" s="4" customFormat="1" ht="28.5" customHeight="1" spans="2:10">
-      <c r="B27" s="132" t="s">
-        <v>61</v>
-      </c>
-      <c r="C27" s="151" t="s">
-        <v>62</v>
-      </c>
-      <c r="D27" s="134" t="s">
-        <v>59</v>
-      </c>
-      <c r="E27" s="152">
-        <v>2</v>
-      </c>
-      <c r="F27" s="137" t="s">
-        <v>16</v>
-      </c>
-      <c r="G27" s="137" t="s">
-        <v>54</v>
-      </c>
-      <c r="H27" s="137" t="s">
-        <v>18</v>
-      </c>
-      <c r="I27" s="216">
-        <v>2250</v>
-      </c>
-      <c r="J27" s="223"/>
-    </row>
-    <row r="28" s="4" customFormat="1" ht="28.5" customHeight="1" spans="2:16">
-      <c r="B28" s="138" t="s">
-        <v>63</v>
-      </c>
-      <c r="C28" s="154" t="s">
-        <v>64</v>
-      </c>
-      <c r="D28" s="140" t="s">
-        <v>59</v>
-      </c>
-      <c r="E28" s="155">
-        <v>2</v>
-      </c>
-      <c r="F28" s="137" t="s">
-        <v>16</v>
-      </c>
-      <c r="G28" s="143" t="s">
-        <v>54</v>
-      </c>
-      <c r="H28" s="143" t="s">
-        <v>18</v>
-      </c>
-      <c r="I28" s="216">
-        <v>2250</v>
-      </c>
-      <c r="J28" s="229"/>
+      <c r="I28" s="212">
+        <v>15000</v>
+      </c>
+      <c r="L28" s="3"/>
       <c r="M28" s="3"/>
       <c r="N28" s="3"/>
       <c r="O28" s="3"/>
-      <c r="P28" s="3"/>
-    </row>
-    <row r="29" s="3" customFormat="1" ht="15.75" customHeight="1" spans="2:16">
-      <c r="B29" s="144">
+    </row>
+    <row r="29" s="3" customFormat="1" ht="15.75" customHeight="1" spans="2:15">
+      <c r="B29" s="164">
         <v>4</v>
       </c>
-      <c r="C29" s="145" t="s">
-        <v>26</v>
-      </c>
-      <c r="D29" s="146"/>
-      <c r="E29" s="147"/>
-      <c r="F29" s="148"/>
-      <c r="G29" s="148"/>
-      <c r="H29" s="148"/>
-      <c r="I29" s="236">
+      <c r="C29" s="165" t="s">
+        <v>24</v>
+      </c>
+      <c r="D29" s="166"/>
+      <c r="E29" s="167"/>
+      <c r="F29" s="168"/>
+      <c r="G29" s="168"/>
+      <c r="H29" s="168"/>
+      <c r="I29" s="227">
         <f>SUM(I30:I36)</f>
-        <v>32000</v>
-      </c>
-      <c r="J29" s="220"/>
+        <v>120000</v>
+      </c>
+      <c r="L29" s="4"/>
       <c r="M29" s="4"/>
       <c r="N29" s="4"/>
       <c r="O29" s="4"/>
-      <c r="P29" s="4"/>
-    </row>
-    <row r="30" s="4" customFormat="1" ht="28.5" customHeight="1" spans="2:10">
-      <c r="B30" s="125" t="s">
+    </row>
+    <row r="30" s="4" customFormat="1" ht="28.5" customHeight="1" spans="2:9">
+      <c r="B30" s="145" t="s">
+        <v>61</v>
+      </c>
+      <c r="C30" s="170" t="s">
+        <v>62</v>
+      </c>
+      <c r="D30" s="147" t="s">
+        <v>59</v>
+      </c>
+      <c r="E30" s="169">
+        <v>2</v>
+      </c>
+      <c r="F30" s="151" t="s">
+        <v>15</v>
+      </c>
+      <c r="G30" s="156" t="s">
+        <v>63</v>
+      </c>
+      <c r="H30" s="151" t="s">
+        <v>17</v>
+      </c>
+      <c r="I30" s="212">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="31" s="4" customFormat="1" ht="28.5" customHeight="1" spans="2:9">
+      <c r="B31" s="152" t="s">
+        <v>64</v>
+      </c>
+      <c r="C31" s="170" t="s">
         <v>65</v>
       </c>
-      <c r="C30" s="158" t="s">
+      <c r="D31" s="154" t="s">
         <v>66</v>
       </c>
-      <c r="D30" s="127" t="s">
+      <c r="E31" s="155">
+        <v>1</v>
+      </c>
+      <c r="F31" s="172" t="s">
+        <v>38</v>
+      </c>
+      <c r="G31" s="156" t="s">
         <v>63</v>
       </c>
-      <c r="E30" s="149">
+      <c r="H31" s="172" t="s">
+        <v>17</v>
+      </c>
+      <c r="I31" s="212">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="32" s="4" customFormat="1" ht="28.5" customHeight="1" spans="2:9">
+      <c r="B32" s="152" t="s">
+        <v>67</v>
+      </c>
+      <c r="C32" s="170" t="s">
+        <v>68</v>
+      </c>
+      <c r="D32" s="154" t="s">
+        <v>64</v>
+      </c>
+      <c r="E32" s="155">
         <v>2</v>
       </c>
-      <c r="F30" s="131" t="s">
-        <v>16</v>
-      </c>
-      <c r="G30" s="160" t="s">
-        <v>67</v>
-      </c>
-      <c r="H30" s="131" t="s">
-        <v>18</v>
-      </c>
-      <c r="I30" s="211">
-        <v>6000</v>
-      </c>
-      <c r="J30" s="221"/>
-    </row>
-    <row r="31" s="4" customFormat="1" ht="28.5" customHeight="1" spans="2:10">
-      <c r="B31" s="132" t="s">
-        <v>68</v>
-      </c>
-      <c r="C31" s="151" t="s">
+      <c r="F32" s="172" t="s">
+        <v>15</v>
+      </c>
+      <c r="G32" s="156" t="s">
+        <v>63</v>
+      </c>
+      <c r="H32" s="172" t="s">
+        <v>17</v>
+      </c>
+      <c r="I32" s="212">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="33" s="4" customFormat="1" ht="28.5" customHeight="1" spans="2:9">
+      <c r="B33" s="152" t="s">
         <v>69</v>
       </c>
-      <c r="D31" s="134" t="s">
+      <c r="C33" s="170" t="s">
         <v>70</v>
       </c>
-      <c r="E31" s="135">
+      <c r="D33" s="154" t="s">
+        <v>61</v>
+      </c>
+      <c r="E33" s="155">
         <v>1</v>
       </c>
-      <c r="F31" s="153" t="s">
-        <v>40</v>
-      </c>
-      <c r="G31" s="161" t="s">
-        <v>67</v>
-      </c>
-      <c r="H31" s="153" t="s">
-        <v>18</v>
-      </c>
-      <c r="I31" s="216">
-        <v>4000</v>
-      </c>
-      <c r="J31" s="223"/>
-    </row>
-    <row r="32" s="4" customFormat="1" ht="28.5" customHeight="1" spans="2:10">
-      <c r="B32" s="132" t="s">
+      <c r="F33" s="172" t="s">
+        <v>38</v>
+      </c>
+      <c r="G33" s="156" t="s">
+        <v>63</v>
+      </c>
+      <c r="H33" s="172" t="s">
+        <v>17</v>
+      </c>
+      <c r="I33" s="212">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="34" s="4" customFormat="1" ht="28.5" customHeight="1" spans="2:9">
+      <c r="B34" s="152" t="s">
         <v>71</v>
       </c>
-      <c r="C32" s="151" t="s">
+      <c r="C34" s="170" t="s">
         <v>72</v>
       </c>
-      <c r="D32" s="134" t="s">
-        <v>68</v>
-      </c>
-      <c r="E32" s="135">
+      <c r="D34" s="154" t="s">
+        <v>69</v>
+      </c>
+      <c r="E34" s="155">
         <v>2</v>
       </c>
-      <c r="F32" s="153" t="s">
-        <v>16</v>
-      </c>
-      <c r="G32" s="161" t="s">
-        <v>67</v>
-      </c>
-      <c r="H32" s="153" t="s">
-        <v>18</v>
-      </c>
-      <c r="I32" s="216">
-        <v>4500</v>
-      </c>
-      <c r="J32" s="223"/>
-    </row>
-    <row r="33" s="4" customFormat="1" ht="28.5" customHeight="1" spans="2:10">
-      <c r="B33" s="132" t="s">
+      <c r="F34" s="172" t="s">
+        <v>15</v>
+      </c>
+      <c r="G34" s="156" t="s">
+        <v>63</v>
+      </c>
+      <c r="H34" s="172" t="s">
+        <v>17</v>
+      </c>
+      <c r="I34" s="212">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="35" s="4" customFormat="1" ht="16.5" customHeight="1" spans="2:9">
+      <c r="B35" s="152" t="s">
         <v>73</v>
       </c>
-      <c r="C33" s="151" t="s">
+      <c r="C35" s="170" t="s">
         <v>74</v>
       </c>
-      <c r="D33" s="134" t="s">
-        <v>65</v>
-      </c>
-      <c r="E33" s="135">
+      <c r="D35" s="154" t="s">
+        <v>71</v>
+      </c>
+      <c r="E35" s="155">
         <v>1</v>
       </c>
-      <c r="F33" s="153" t="s">
-        <v>40</v>
-      </c>
-      <c r="G33" s="161" t="s">
-        <v>67</v>
-      </c>
-      <c r="H33" s="153" t="s">
-        <v>18</v>
-      </c>
-      <c r="I33" s="216">
-        <v>4000</v>
-      </c>
-      <c r="J33" s="223"/>
-    </row>
-    <row r="34" s="4" customFormat="1" ht="28.5" customHeight="1" spans="2:10">
-      <c r="B34" s="132" t="s">
+      <c r="F35" s="172" t="s">
+        <v>38</v>
+      </c>
+      <c r="G35" s="156" t="s">
+        <v>63</v>
+      </c>
+      <c r="H35" s="172" t="s">
+        <v>17</v>
+      </c>
+      <c r="I35" s="212">
+        <v>25000</v>
+      </c>
+    </row>
+    <row r="36" s="4" customFormat="1" ht="28.5" customHeight="1" spans="2:15">
+      <c r="B36" s="158" t="s">
         <v>75</v>
       </c>
-      <c r="C34" s="151" t="s">
+      <c r="C36" s="173" t="s">
         <v>76</v>
       </c>
-      <c r="D34" s="134" t="s">
+      <c r="D36" s="160" t="s">
         <v>73</v>
       </c>
-      <c r="E34" s="135">
+      <c r="E36" s="161">
         <v>2</v>
       </c>
-      <c r="F34" s="153" t="s">
-        <v>16</v>
-      </c>
-      <c r="G34" s="161" t="s">
-        <v>67</v>
-      </c>
-      <c r="H34" s="153" t="s">
-        <v>18</v>
-      </c>
-      <c r="I34" s="216">
-        <v>4000</v>
-      </c>
-      <c r="J34" s="223"/>
-    </row>
-    <row r="35" s="4" customFormat="1" ht="16.5" customHeight="1" spans="2:10">
-      <c r="B35" s="132" t="s">
-        <v>77</v>
-      </c>
-      <c r="C35" s="151" t="s">
-        <v>78</v>
-      </c>
-      <c r="D35" s="134" t="s">
-        <v>75</v>
-      </c>
-      <c r="E35" s="135">
-        <v>1</v>
-      </c>
-      <c r="F35" s="153" t="s">
-        <v>40</v>
-      </c>
-      <c r="G35" s="161" t="s">
-        <v>67</v>
-      </c>
-      <c r="H35" s="153" t="s">
-        <v>18</v>
-      </c>
-      <c r="I35" s="216">
-        <v>4000</v>
-      </c>
-      <c r="J35" s="223"/>
-    </row>
-    <row r="36" s="4" customFormat="1" ht="28.5" customHeight="1" spans="2:16">
-      <c r="B36" s="138" t="s">
-        <v>79</v>
-      </c>
-      <c r="C36" s="154" t="s">
-        <v>80</v>
-      </c>
-      <c r="D36" s="140" t="s">
-        <v>77</v>
-      </c>
-      <c r="E36" s="141">
-        <v>2</v>
-      </c>
-      <c r="F36" s="162" t="s">
-        <v>16</v>
-      </c>
-      <c r="G36" s="163" t="s">
-        <v>67</v>
-      </c>
-      <c r="H36" s="162" t="s">
-        <v>18</v>
-      </c>
-      <c r="I36" s="218">
-        <v>5500</v>
-      </c>
-      <c r="J36" s="229"/>
+      <c r="F36" s="179" t="s">
+        <v>15</v>
+      </c>
+      <c r="G36" s="156" t="s">
+        <v>63</v>
+      </c>
+      <c r="H36" s="179" t="s">
+        <v>17</v>
+      </c>
+      <c r="I36" s="212">
+        <v>20000</v>
+      </c>
+      <c r="L36" s="3"/>
       <c r="M36" s="3"/>
       <c r="N36" s="3"/>
       <c r="O36" s="3"/>
-      <c r="P36" s="3"/>
-    </row>
-    <row r="37" s="3" customFormat="1" ht="28.5" customHeight="1" spans="2:16">
-      <c r="B37" s="144">
+    </row>
+    <row r="37" s="3" customFormat="1" ht="28.5" customHeight="1" spans="2:15">
+      <c r="B37" s="164">
         <v>5</v>
       </c>
-      <c r="C37" s="145" t="s">
-        <v>30</v>
-      </c>
-      <c r="D37" s="146"/>
-      <c r="E37" s="156"/>
-      <c r="F37" s="157"/>
-      <c r="G37" s="157"/>
-      <c r="H37" s="157"/>
-      <c r="I37" s="236">
+      <c r="C37" s="165" t="s">
+        <v>28</v>
+      </c>
+      <c r="D37" s="166"/>
+      <c r="E37" s="175"/>
+      <c r="F37" s="176"/>
+      <c r="G37" s="176"/>
+      <c r="H37" s="176"/>
+      <c r="I37" s="227">
         <f>SUM(I38:I40)</f>
-        <v>11600</v>
-      </c>
-      <c r="J37" s="235"/>
+        <v>80000</v>
+      </c>
+      <c r="L37" s="4"/>
       <c r="M37" s="4"/>
       <c r="N37" s="4"/>
       <c r="O37" s="4"/>
-      <c r="P37" s="4"/>
-    </row>
-    <row r="38" s="4" customFormat="1" ht="28.5" customHeight="1" spans="2:10">
-      <c r="B38" s="125" t="s">
+    </row>
+    <row r="38" s="4" customFormat="1" ht="28.5" customHeight="1" spans="2:9">
+      <c r="B38" s="145" t="s">
+        <v>77</v>
+      </c>
+      <c r="C38" s="177" t="s">
+        <v>78</v>
+      </c>
+      <c r="D38" s="147" t="s">
+        <v>75</v>
+      </c>
+      <c r="E38" s="148">
+        <v>1</v>
+      </c>
+      <c r="F38" s="180" t="s">
+        <v>38</v>
+      </c>
+      <c r="G38" s="156" t="s">
+        <v>63</v>
+      </c>
+      <c r="H38" s="180" t="s">
+        <v>17</v>
+      </c>
+      <c r="I38" s="212">
+        <v>25000</v>
+      </c>
+    </row>
+    <row r="39" s="4" customFormat="1" ht="21" customHeight="1" spans="2:9">
+      <c r="B39" s="152" t="s">
+        <v>79</v>
+      </c>
+      <c r="C39" s="170" t="s">
+        <v>80</v>
+      </c>
+      <c r="D39" s="154" t="s">
+        <v>77</v>
+      </c>
+      <c r="E39" s="155">
+        <v>1</v>
+      </c>
+      <c r="F39" s="180" t="s">
+        <v>38</v>
+      </c>
+      <c r="G39" s="156" t="s">
+        <v>63</v>
+      </c>
+      <c r="H39" s="172" t="s">
+        <v>17</v>
+      </c>
+      <c r="I39" s="212">
+        <v>25000</v>
+      </c>
+    </row>
+    <row r="40" s="4" customFormat="1" ht="28.5" customHeight="1" spans="2:9">
+      <c r="B40" s="158" t="s">
         <v>81</v>
       </c>
-      <c r="C38" s="158" t="s">
+      <c r="C40" s="173" t="s">
         <v>82</v>
       </c>
-      <c r="D38" s="127" t="s">
+      <c r="D40" s="160" t="s">
         <v>79</v>
       </c>
-      <c r="E38" s="128">
+      <c r="E40" s="161">
         <v>1</v>
       </c>
-      <c r="F38" s="164" t="s">
-        <v>40</v>
-      </c>
-      <c r="G38" s="165" t="s">
+      <c r="F40" s="181" t="s">
+        <v>38</v>
+      </c>
+      <c r="G40" s="156" t="s">
+        <v>63</v>
+      </c>
+      <c r="H40" s="179" t="s">
+        <v>17</v>
+      </c>
+      <c r="I40" s="212">
+        <v>30000</v>
+      </c>
+    </row>
+    <row r="41" s="4" customFormat="1" ht="28.5" customHeight="1" spans="2:9">
+      <c r="B41" s="164">
+        <v>6</v>
+      </c>
+      <c r="C41" s="165" t="s">
+        <v>31</v>
+      </c>
+      <c r="D41" s="166"/>
+      <c r="E41" s="175"/>
+      <c r="F41" s="182"/>
+      <c r="G41" s="176"/>
+      <c r="H41" s="176"/>
+      <c r="I41" s="226">
+        <f>SUM(I42:I45)</f>
+        <v>57600</v>
+      </c>
+    </row>
+    <row r="42" s="4" customFormat="1" ht="21" customHeight="1" spans="2:9">
+      <c r="B42" s="145" t="s">
         <v>83</v>
       </c>
-      <c r="H38" s="164" t="s">
-        <v>18</v>
-      </c>
-      <c r="I38" s="211">
-        <v>7500</v>
-      </c>
-      <c r="J38" s="212"/>
-    </row>
-    <row r="39" s="4" customFormat="1" ht="21" customHeight="1" spans="2:10">
-      <c r="B39" s="132" t="s">
+      <c r="C42" s="170" t="s">
         <v>84</v>
       </c>
-      <c r="C39" s="151" t="s">
+      <c r="D42" s="147" t="s">
+        <v>81</v>
+      </c>
+      <c r="E42" s="148">
+        <v>2</v>
+      </c>
+      <c r="F42" s="180" t="s">
+        <v>15</v>
+      </c>
+      <c r="G42" s="156" t="s">
         <v>85</v>
       </c>
-      <c r="D39" s="134" t="s">
-        <v>81</v>
-      </c>
-      <c r="E39" s="135">
-        <v>1</v>
-      </c>
-      <c r="F39" s="164" t="s">
-        <v>40</v>
-      </c>
-      <c r="G39" s="165" t="s">
+      <c r="H42" s="172" t="s">
+        <v>17</v>
+      </c>
+      <c r="I42" s="212">
+        <v>14400</v>
+      </c>
+    </row>
+    <row r="43" s="4" customFormat="1" ht="24" customHeight="1" spans="2:9">
+      <c r="B43" s="152" t="s">
+        <v>86</v>
+      </c>
+      <c r="C43" s="177" t="s">
+        <v>87</v>
+      </c>
+      <c r="D43" s="154" t="s">
         <v>83</v>
       </c>
-      <c r="H39" s="153" t="s">
-        <v>18</v>
-      </c>
-      <c r="I39" s="216">
-        <v>2600</v>
-      </c>
-      <c r="J39" s="217"/>
-    </row>
-    <row r="40" s="4" customFormat="1" ht="28.5" customHeight="1" spans="2:10">
-      <c r="B40" s="138" t="s">
+      <c r="E43" s="155">
+        <v>2</v>
+      </c>
+      <c r="F43" s="172" t="s">
+        <v>15</v>
+      </c>
+      <c r="G43" s="156" t="s">
+        <v>85</v>
+      </c>
+      <c r="H43" s="172" t="s">
+        <v>17</v>
+      </c>
+      <c r="I43" s="212">
+        <v>14400</v>
+      </c>
+    </row>
+    <row r="44" s="4" customFormat="1" ht="24" customHeight="1" spans="2:9">
+      <c r="B44" s="158" t="s">
+        <v>88</v>
+      </c>
+      <c r="C44" s="173" t="s">
+        <v>89</v>
+      </c>
+      <c r="D44" s="160" t="s">
         <v>86</v>
       </c>
-      <c r="C40" s="154" t="s">
-        <v>87</v>
-      </c>
-      <c r="D40" s="140" t="s">
-        <v>84</v>
-      </c>
-      <c r="E40" s="141">
-        <v>1</v>
-      </c>
-      <c r="F40" s="166" t="s">
-        <v>40</v>
-      </c>
-      <c r="G40" s="167" t="s">
-        <v>83</v>
-      </c>
-      <c r="H40" s="162" t="s">
-        <v>18</v>
-      </c>
-      <c r="I40" s="218">
-        <v>1500</v>
-      </c>
-      <c r="J40" s="219"/>
-    </row>
-    <row r="41" s="4" customFormat="1" ht="28.5" customHeight="1" spans="2:10">
-      <c r="B41" s="144">
-        <v>6</v>
-      </c>
-      <c r="C41" s="145" t="s">
+      <c r="E44" s="155">
+        <v>2</v>
+      </c>
+      <c r="F44" s="172" t="s">
+        <v>15</v>
+      </c>
+      <c r="G44" s="156" t="s">
+        <v>85</v>
+      </c>
+      <c r="H44" s="172" t="s">
+        <v>17</v>
+      </c>
+      <c r="I44" s="212">
+        <v>14400</v>
+      </c>
+    </row>
+    <row r="45" s="4" customFormat="1" ht="28.5" customHeight="1" spans="2:9">
+      <c r="B45" s="158" t="s">
+        <v>90</v>
+      </c>
+      <c r="C45" s="170" t="s">
+        <v>91</v>
+      </c>
+      <c r="D45" s="160" t="s">
+        <v>88</v>
+      </c>
+      <c r="E45" s="161">
+        <v>2</v>
+      </c>
+      <c r="F45" s="179" t="s">
+        <v>15</v>
+      </c>
+      <c r="G45" s="156" t="s">
+        <v>85</v>
+      </c>
+      <c r="H45" s="179" t="s">
+        <v>17</v>
+      </c>
+      <c r="I45" s="212">
+        <v>14400</v>
+      </c>
+    </row>
+    <row r="46" s="4" customFormat="1" ht="28.5" customHeight="1" spans="2:9">
+      <c r="B46" s="164">
+        <v>7</v>
+      </c>
+      <c r="C46" s="165" t="s">
         <v>34</v>
       </c>
-      <c r="D41" s="146"/>
-      <c r="E41" s="156"/>
-      <c r="F41" s="168"/>
-      <c r="G41" s="157"/>
-      <c r="H41" s="157"/>
-      <c r="I41" s="234">
-        <f>SUM(I42:I44)</f>
-        <v>18600</v>
-      </c>
-      <c r="J41" s="235"/>
-    </row>
-    <row r="42" s="4" customFormat="1" ht="21" customHeight="1" spans="2:10">
-      <c r="B42" s="125" t="s">
+      <c r="D46" s="166"/>
+      <c r="E46" s="175"/>
+      <c r="F46" s="182"/>
+      <c r="G46" s="176"/>
+      <c r="H46" s="176"/>
+      <c r="I46" s="226">
+        <f>SUM(I47:I51)</f>
+        <v>80000</v>
+      </c>
+    </row>
+    <row r="47" s="4" customFormat="1" ht="28.5" customHeight="1" spans="2:9">
+      <c r="B47" s="145" t="s">
+        <v>92</v>
+      </c>
+      <c r="C47" s="183" t="s">
+        <v>93</v>
+      </c>
+      <c r="D47" s="147" t="s">
         <v>88</v>
       </c>
-      <c r="C42" s="169" t="s">
-        <v>89</v>
-      </c>
-      <c r="D42" s="127" t="s">
-        <v>86</v>
-      </c>
-      <c r="E42" s="128">
+      <c r="E47" s="148">
         <v>2</v>
       </c>
-      <c r="F42" s="164" t="s">
-        <v>16</v>
-      </c>
-      <c r="G42" s="165" t="s">
-        <v>90</v>
-      </c>
-      <c r="H42" s="170" t="s">
-        <v>18</v>
-      </c>
-      <c r="I42" s="211">
-        <v>7500</v>
-      </c>
-      <c r="J42" s="212"/>
-    </row>
-    <row r="43" s="4" customFormat="1" ht="24" customHeight="1" spans="2:10">
-      <c r="B43" s="132" t="s">
-        <v>91</v>
-      </c>
-      <c r="C43" s="151" t="s">
+      <c r="F47" s="180" t="s">
+        <v>15</v>
+      </c>
+      <c r="G47" s="156" t="s">
+        <v>94</v>
+      </c>
+      <c r="H47" s="180" t="s">
+        <v>17</v>
+      </c>
+      <c r="I47" s="212">
+        <v>16000</v>
+      </c>
+    </row>
+    <row r="48" s="4" customFormat="1" ht="20.25" customHeight="1" spans="2:9">
+      <c r="B48" s="152" t="s">
+        <v>95</v>
+      </c>
+      <c r="C48" s="170" t="s">
+        <v>96</v>
+      </c>
+      <c r="D48" s="154" t="s">
         <v>92</v>
       </c>
-      <c r="D43" s="134" t="s">
-        <v>88</v>
-      </c>
-      <c r="E43" s="135">
+      <c r="E48" s="155">
         <v>2</v>
       </c>
-      <c r="F43" s="153" t="s">
-        <v>16</v>
-      </c>
-      <c r="G43" s="161" t="s">
-        <v>93</v>
-      </c>
-      <c r="H43" s="153" t="s">
-        <v>18</v>
-      </c>
-      <c r="I43" s="216">
-        <v>6600</v>
-      </c>
-      <c r="J43" s="217"/>
-    </row>
-    <row r="44" s="4" customFormat="1" ht="28.5" customHeight="1" spans="2:10">
-      <c r="B44" s="138" t="s">
+      <c r="F48" s="172" t="s">
+        <v>15</v>
+      </c>
+      <c r="G48" s="156" t="s">
         <v>94</v>
       </c>
-      <c r="C44" s="154" t="s">
+      <c r="H48" s="172" t="s">
+        <v>17</v>
+      </c>
+      <c r="I48" s="212">
+        <v>16000</v>
+      </c>
+    </row>
+    <row r="49" s="4" customFormat="1" ht="22.5" customHeight="1" spans="1:9">
+      <c r="A49" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="B49" s="158" t="s">
+        <v>98</v>
+      </c>
+      <c r="C49" s="183" t="s">
+        <v>99</v>
+      </c>
+      <c r="D49" s="147" t="s">
         <v>95</v>
       </c>
-      <c r="D44" s="140" t="s">
-        <v>91</v>
-      </c>
-      <c r="E44" s="141">
+      <c r="E49" s="161">
         <v>2</v>
       </c>
-      <c r="F44" s="162" t="s">
-        <v>16</v>
-      </c>
-      <c r="G44" s="163" t="s">
-        <v>93</v>
-      </c>
-      <c r="H44" s="162" t="s">
-        <v>18</v>
-      </c>
-      <c r="I44" s="218">
-        <v>4500</v>
-      </c>
-      <c r="J44" s="219"/>
-    </row>
-    <row r="45" s="4" customFormat="1" ht="28.5" customHeight="1" spans="2:10">
-      <c r="B45" s="144">
-        <v>7</v>
-      </c>
-      <c r="C45" s="171" t="s">
-        <v>37</v>
-      </c>
-      <c r="D45" s="146"/>
-      <c r="E45" s="156"/>
-      <c r="F45" s="168"/>
-      <c r="G45" s="157"/>
-      <c r="H45" s="157"/>
-      <c r="I45" s="234">
-        <f>SUM(I46:I48)</f>
-        <v>11000</v>
-      </c>
-      <c r="J45" s="235"/>
-    </row>
-    <row r="46" s="4" customFormat="1" ht="28.5" customHeight="1" spans="2:10">
-      <c r="B46" s="125" t="s">
-        <v>96</v>
-      </c>
-      <c r="C46" s="158" t="s">
-        <v>97</v>
-      </c>
-      <c r="D46" s="127" t="s">
+      <c r="F49" s="179" t="s">
+        <v>15</v>
+      </c>
+      <c r="G49" s="156" t="s">
         <v>94</v>
       </c>
-      <c r="E46" s="128">
+      <c r="H49" s="179" t="s">
+        <v>17</v>
+      </c>
+      <c r="I49" s="212">
+        <v>16000</v>
+      </c>
+    </row>
+    <row r="50" s="4" customFormat="1" ht="22.5" customHeight="1" spans="2:9">
+      <c r="B50" s="158" t="s">
+        <v>100</v>
+      </c>
+      <c r="C50" s="183" t="s">
+        <v>101</v>
+      </c>
+      <c r="D50" s="147" t="s">
+        <v>98</v>
+      </c>
+      <c r="E50" s="161">
         <v>2</v>
       </c>
-      <c r="F46" s="164" t="s">
-        <v>16</v>
-      </c>
-      <c r="G46" s="164" t="s">
+      <c r="F50" s="179" t="s">
+        <v>15</v>
+      </c>
+      <c r="G50" s="156" t="s">
+        <v>94</v>
+      </c>
+      <c r="H50" s="179" t="s">
+        <v>17</v>
+      </c>
+      <c r="I50" s="212">
+        <v>16000</v>
+      </c>
+    </row>
+    <row r="51" s="4" customFormat="1" ht="22.5" customHeight="1" spans="2:9">
+      <c r="B51" s="158" t="s">
+        <v>102</v>
+      </c>
+      <c r="C51" s="183" t="s">
+        <v>103</v>
+      </c>
+      <c r="D51" s="147" t="s">
+        <v>100</v>
+      </c>
+      <c r="E51" s="161">
+        <v>2</v>
+      </c>
+      <c r="F51" s="179" t="s">
+        <v>15</v>
+      </c>
+      <c r="G51" s="156" t="s">
+        <v>94</v>
+      </c>
+      <c r="H51" s="179" t="s">
+        <v>17</v>
+      </c>
+      <c r="I51" s="212">
+        <v>16000</v>
+      </c>
+    </row>
+    <row r="52" s="4" customFormat="1" ht="28.5" customHeight="1" spans="2:9">
+      <c r="B52" s="164">
+        <v>8</v>
+      </c>
+      <c r="C52" s="184" t="s">
+        <v>39</v>
+      </c>
+      <c r="D52" s="166"/>
+      <c r="E52" s="185"/>
+      <c r="F52" s="182"/>
+      <c r="G52" s="182"/>
+      <c r="H52" s="176"/>
+      <c r="I52" s="226">
+        <f>SUM(I53:I55)</f>
+        <v>35000</v>
+      </c>
+    </row>
+    <row r="53" s="4" customFormat="1" ht="28.5" customHeight="1" spans="2:9">
+      <c r="B53" s="145" t="s">
+        <v>104</v>
+      </c>
+      <c r="C53" s="173" t="s">
+        <v>105</v>
+      </c>
+      <c r="D53" s="147" t="s">
         <v>98</v>
       </c>
-      <c r="H46" s="164" t="s">
-        <v>18</v>
-      </c>
-      <c r="I46" s="211">
+      <c r="E53" s="148">
+        <v>2</v>
+      </c>
+      <c r="F53" s="180" t="s">
+        <v>15</v>
+      </c>
+      <c r="G53" s="156" t="s">
+        <v>106</v>
+      </c>
+      <c r="H53" s="180" t="s">
+        <v>17</v>
+      </c>
+      <c r="I53" s="212">
+        <v>30000</v>
+      </c>
+    </row>
+    <row r="54" s="4" customFormat="1" ht="28.5" customHeight="1" spans="2:9">
+      <c r="B54" s="152" t="s">
+        <v>107</v>
+      </c>
+      <c r="C54" s="170" t="s">
+        <v>103</v>
+      </c>
+      <c r="D54" s="154">
+        <v>2</v>
+      </c>
+      <c r="E54" s="155">
+        <v>2</v>
+      </c>
+      <c r="F54" s="172" t="s">
+        <v>15</v>
+      </c>
+      <c r="G54" s="156" t="s">
+        <v>106</v>
+      </c>
+      <c r="H54" s="172" t="s">
+        <v>17</v>
+      </c>
+      <c r="I54" s="216">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="55" s="4" customFormat="1" ht="28.5" customHeight="1" spans="2:9">
+      <c r="B55" s="158" t="s">
+        <v>108</v>
+      </c>
+      <c r="C55" s="173" t="s">
+        <v>109</v>
+      </c>
+      <c r="D55" s="160" t="s">
+        <v>107</v>
+      </c>
+      <c r="E55" s="161">
+        <v>2</v>
+      </c>
+      <c r="F55" s="179" t="s">
+        <v>15</v>
+      </c>
+      <c r="G55" s="156" t="s">
+        <v>106</v>
+      </c>
+      <c r="H55" s="179" t="s">
+        <v>17</v>
+      </c>
+      <c r="I55" s="217">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="56" s="4" customFormat="1" ht="28.5" customHeight="1" spans="2:9">
+      <c r="B56" s="186">
+        <v>9</v>
+      </c>
+      <c r="C56" s="184" t="s">
+        <v>42</v>
+      </c>
+      <c r="D56" s="187"/>
+      <c r="E56" s="188"/>
+      <c r="F56" s="189"/>
+      <c r="G56" s="182"/>
+      <c r="H56" s="189"/>
+      <c r="I56" s="226">
+        <f>SUM(I57:I59)</f>
+        <v>58000</v>
+      </c>
+    </row>
+    <row r="57" s="4" customFormat="1" ht="28.5" customHeight="1" spans="2:9">
+      <c r="B57" s="190" t="s">
+        <v>110</v>
+      </c>
+      <c r="C57" s="191" t="s">
+        <v>111</v>
+      </c>
+      <c r="D57" s="192" t="s">
+        <v>107</v>
+      </c>
+      <c r="E57" s="193">
+        <v>2</v>
+      </c>
+      <c r="F57" s="147" t="s">
+        <v>15</v>
+      </c>
+      <c r="G57" s="156" t="s">
+        <v>94</v>
+      </c>
+      <c r="H57" s="179" t="s">
+        <v>17</v>
+      </c>
+      <c r="I57" s="228">
         <v>5000</v>
       </c>
-      <c r="J46" s="212"/>
-    </row>
-    <row r="47" s="4" customFormat="1" ht="20.25" customHeight="1" spans="2:10">
-      <c r="B47" s="132" t="s">
-        <v>99</v>
-      </c>
-      <c r="C47" s="151" t="s">
-        <v>100</v>
-      </c>
-      <c r="D47" s="134" t="s">
-        <v>96</v>
-      </c>
-      <c r="E47" s="135">
+    </row>
+    <row r="58" s="4" customFormat="1" ht="28.5" customHeight="1" spans="2:15">
+      <c r="B58" s="194" t="s">
+        <v>112</v>
+      </c>
+      <c r="C58" s="195" t="s">
+        <v>113</v>
+      </c>
+      <c r="D58" s="196" t="s">
+        <v>110</v>
+      </c>
+      <c r="E58" s="197">
         <v>2</v>
       </c>
-      <c r="F47" s="153" t="s">
-        <v>16</v>
-      </c>
-      <c r="G47" s="153" t="s">
-        <v>98</v>
-      </c>
-      <c r="H47" s="153" t="s">
-        <v>18</v>
-      </c>
-      <c r="I47" s="216">
-        <v>4000</v>
-      </c>
-      <c r="J47" s="217"/>
-    </row>
-    <row r="48" s="4" customFormat="1" ht="22.5" customHeight="1" spans="1:10">
-      <c r="A48" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="B48" s="138" t="s">
-        <v>102</v>
-      </c>
-      <c r="C48" s="154" t="s">
-        <v>103</v>
-      </c>
-      <c r="D48" s="140" t="s">
-        <v>99</v>
-      </c>
-      <c r="E48" s="141">
+      <c r="F58" s="154" t="s">
+        <v>15</v>
+      </c>
+      <c r="G58" s="156" t="s">
+        <v>94</v>
+      </c>
+      <c r="H58" s="179" t="s">
+        <v>17</v>
+      </c>
+      <c r="I58" s="229">
+        <v>13000</v>
+      </c>
+      <c r="L58"/>
+      <c r="M58"/>
+      <c r="N58"/>
+      <c r="O58"/>
+    </row>
+    <row r="59" ht="28.5" customHeight="1" spans="2:9">
+      <c r="B59" s="198" t="s">
+        <v>114</v>
+      </c>
+      <c r="C59" s="199" t="s">
+        <v>115</v>
+      </c>
+      <c r="D59" s="196" t="s">
+        <v>116</v>
+      </c>
+      <c r="E59" s="200">
         <v>2</v>
       </c>
-      <c r="F48" s="162" t="s">
-        <v>16</v>
-      </c>
-      <c r="G48" s="162" t="s">
-        <v>98</v>
-      </c>
-      <c r="H48" s="162" t="s">
-        <v>18</v>
-      </c>
-      <c r="I48" s="218">
-        <v>2000</v>
-      </c>
-      <c r="J48" s="219"/>
-    </row>
-    <row r="49" s="4" customFormat="1" ht="28.5" customHeight="1" spans="2:10">
-      <c r="B49" s="144">
-        <v>8</v>
-      </c>
-      <c r="C49" s="171" t="s">
-        <v>104</v>
-      </c>
-      <c r="D49" s="146"/>
-      <c r="E49" s="172"/>
-      <c r="F49" s="168"/>
-      <c r="G49" s="157"/>
-      <c r="H49" s="157"/>
-      <c r="I49" s="234">
-        <f>SUM(I50:I52)</f>
-        <v>15000</v>
-      </c>
-      <c r="J49" s="235"/>
-    </row>
-    <row r="50" s="4" customFormat="1" ht="28.5" customHeight="1" spans="2:10">
-      <c r="B50" s="125" t="s">
-        <v>105</v>
-      </c>
-      <c r="C50" s="158" t="s">
-        <v>106</v>
-      </c>
-      <c r="D50" s="127" t="s">
-        <v>102</v>
-      </c>
-      <c r="E50" s="128">
-        <v>2</v>
-      </c>
-      <c r="F50" s="164" t="s">
-        <v>16</v>
-      </c>
-      <c r="G50" s="164" t="s">
-        <v>98</v>
-      </c>
-      <c r="H50" s="164" t="s">
-        <v>18</v>
-      </c>
-      <c r="I50" s="211">
-        <v>3500</v>
-      </c>
-      <c r="J50" s="212"/>
-    </row>
-    <row r="51" s="4" customFormat="1" ht="28.5" customHeight="1" spans="2:10">
-      <c r="B51" s="132" t="s">
-        <v>107</v>
-      </c>
-      <c r="C51" s="151" t="s">
-        <v>108</v>
-      </c>
-      <c r="D51" s="134" t="s">
-        <v>105</v>
-      </c>
-      <c r="E51" s="135">
-        <v>2</v>
-      </c>
-      <c r="F51" s="153" t="s">
-        <v>16</v>
-      </c>
-      <c r="G51" s="153" t="s">
-        <v>98</v>
-      </c>
-      <c r="H51" s="153" t="s">
-        <v>18</v>
-      </c>
-      <c r="I51" s="216">
-        <v>2500</v>
-      </c>
-      <c r="J51" s="217"/>
-    </row>
-    <row r="52" s="4" customFormat="1" ht="28.5" customHeight="1" spans="2:10">
-      <c r="B52" s="138" t="s">
-        <v>109</v>
-      </c>
-      <c r="C52" s="154" t="s">
-        <v>110</v>
-      </c>
-      <c r="D52" s="140" t="s">
-        <v>107</v>
-      </c>
-      <c r="E52" s="141">
-        <v>2</v>
-      </c>
-      <c r="F52" s="162" t="s">
-        <v>16</v>
-      </c>
-      <c r="G52" s="162" t="s">
-        <v>98</v>
-      </c>
-      <c r="H52" s="162" t="s">
-        <v>18</v>
-      </c>
-      <c r="I52" s="218">
-        <v>9000</v>
-      </c>
-      <c r="J52" s="219"/>
-    </row>
-    <row r="53" s="4" customFormat="1" ht="28.5" customHeight="1" spans="2:10">
-      <c r="B53" s="144">
-        <v>9</v>
-      </c>
-      <c r="C53" s="171" t="s">
-        <v>44</v>
-      </c>
-      <c r="D53" s="146"/>
-      <c r="E53" s="156"/>
-      <c r="F53" s="168"/>
-      <c r="G53" s="157"/>
-      <c r="H53" s="157"/>
-      <c r="I53" s="234">
-        <f>SUM(I54:I56)</f>
-        <v>8900</v>
-      </c>
-      <c r="J53" s="235"/>
-    </row>
-    <row r="54" s="4" customFormat="1" ht="28.5" customHeight="1" spans="2:10">
-      <c r="B54" s="173" t="s">
-        <v>111</v>
-      </c>
-      <c r="C54" s="158" t="s">
-        <v>112</v>
-      </c>
-      <c r="D54" s="174" t="s">
-        <v>109</v>
-      </c>
-      <c r="E54" s="128">
-        <v>2</v>
-      </c>
-      <c r="F54" s="164" t="s">
-        <v>16</v>
-      </c>
-      <c r="G54" s="164" t="s">
-        <v>113</v>
-      </c>
-      <c r="H54" s="164" t="s">
-        <v>18</v>
-      </c>
-      <c r="I54" s="211">
-        <v>4000</v>
-      </c>
-      <c r="J54" s="212"/>
-    </row>
-    <row r="55" s="4" customFormat="1" ht="28.5" customHeight="1" spans="2:10">
-      <c r="B55" s="175" t="s">
-        <v>114</v>
-      </c>
-      <c r="C55" s="151" t="s">
-        <v>115</v>
-      </c>
-      <c r="D55" s="176" t="s">
-        <v>111</v>
-      </c>
-      <c r="E55" s="135">
-        <v>2</v>
-      </c>
-      <c r="F55" s="153" t="s">
-        <v>16</v>
-      </c>
-      <c r="G55" s="153" t="s">
-        <v>93</v>
-      </c>
-      <c r="H55" s="153" t="s">
-        <v>18</v>
-      </c>
-      <c r="I55" s="216">
-        <v>2600</v>
-      </c>
-      <c r="J55" s="217"/>
-    </row>
-    <row r="56" s="4" customFormat="1" ht="28.5" customHeight="1" spans="2:10">
-      <c r="B56" s="177" t="s">
-        <v>116</v>
-      </c>
-      <c r="C56" s="154" t="s">
+      <c r="F59" s="160" t="s">
+        <v>15</v>
+      </c>
+      <c r="G59" s="156" t="s">
+        <v>94</v>
+      </c>
+      <c r="H59" s="179" t="s">
+        <v>17</v>
+      </c>
+      <c r="I59" s="230">
+        <v>40000</v>
+      </c>
+    </row>
+    <row r="60" ht="18" customHeight="1" spans="2:9">
+      <c r="B60" s="201"/>
+      <c r="C60" s="202"/>
+      <c r="D60" s="203" t="s">
         <v>117</v>
       </c>
-      <c r="D56" s="178" t="s">
-        <v>114</v>
-      </c>
-      <c r="E56" s="141">
-        <v>2</v>
-      </c>
-      <c r="F56" s="162" t="s">
-        <v>16</v>
-      </c>
-      <c r="G56" s="179" t="s">
-        <v>93</v>
-      </c>
-      <c r="H56" s="162" t="s">
-        <v>18</v>
-      </c>
-      <c r="I56" s="218">
-        <v>2300</v>
-      </c>
-      <c r="J56" s="237"/>
-    </row>
-    <row r="57" s="4" customFormat="1" ht="28.5" customHeight="1" spans="2:10">
-      <c r="B57" s="180">
-        <v>11</v>
-      </c>
-      <c r="C57" s="171" t="s">
-        <v>48</v>
-      </c>
-      <c r="D57" s="181"/>
-      <c r="E57" s="182"/>
-      <c r="F57" s="183"/>
-      <c r="G57" s="184"/>
-      <c r="H57" s="183"/>
-      <c r="I57" s="234">
-        <f>SUM(I58:I60)</f>
-        <v>15000</v>
-      </c>
-      <c r="J57" s="238"/>
-    </row>
-    <row r="58" s="4" customFormat="1" ht="28.5" customHeight="1" spans="2:10">
-      <c r="B58" s="185" t="s">
-        <v>118</v>
-      </c>
-      <c r="C58" s="186" t="s">
-        <v>119</v>
-      </c>
-      <c r="D58" s="187" t="s">
-        <v>114</v>
-      </c>
-      <c r="E58" s="188">
-        <v>2</v>
-      </c>
-      <c r="F58" s="127" t="s">
-        <v>16</v>
-      </c>
-      <c r="G58" s="189" t="s">
-        <v>98</v>
-      </c>
-      <c r="H58" s="162" t="s">
-        <v>18</v>
-      </c>
-      <c r="I58" s="239">
-        <v>3700</v>
-      </c>
-      <c r="J58" s="240"/>
-    </row>
-    <row r="59" s="4" customFormat="1" ht="28.5" customHeight="1" spans="2:16">
-      <c r="B59" s="190" t="s">
-        <v>120</v>
-      </c>
-      <c r="C59" s="191" t="s">
-        <v>121</v>
-      </c>
-      <c r="D59" s="192" t="s">
-        <v>118</v>
-      </c>
-      <c r="E59" s="193">
-        <v>2</v>
-      </c>
-      <c r="F59" s="134" t="s">
-        <v>16</v>
-      </c>
-      <c r="G59" s="189" t="s">
-        <v>98</v>
-      </c>
-      <c r="H59" s="162" t="s">
-        <v>18</v>
-      </c>
-      <c r="I59" s="241">
-        <v>8500</v>
-      </c>
-      <c r="J59" s="242"/>
-      <c r="M59"/>
-      <c r="N59"/>
-      <c r="O59"/>
-      <c r="P59"/>
-    </row>
-    <row r="60" ht="28.5" customHeight="1" spans="2:10">
-      <c r="B60" s="194" t="s">
-        <v>122</v>
-      </c>
-      <c r="C60" s="195" t="s">
-        <v>123</v>
-      </c>
-      <c r="D60" s="178" t="s">
-        <v>120</v>
-      </c>
-      <c r="E60" s="196">
-        <v>2</v>
-      </c>
-      <c r="F60" s="140" t="s">
-        <v>16</v>
-      </c>
-      <c r="G60" s="197" t="s">
-        <v>98</v>
-      </c>
-      <c r="H60" s="162" t="s">
-        <v>18</v>
-      </c>
-      <c r="I60" s="243">
-        <v>2800</v>
-      </c>
-      <c r="J60" s="244"/>
-    </row>
-    <row r="61" ht="18" customHeight="1" spans="2:10">
-      <c r="B61" s="198"/>
-      <c r="C61" s="199"/>
-      <c r="D61" s="200" t="s">
-        <v>124</v>
-      </c>
-      <c r="E61" s="201"/>
-      <c r="F61" s="201"/>
-      <c r="G61" s="201"/>
-      <c r="H61" s="201"/>
-      <c r="I61" s="245">
-        <f>SUM(I14+I22+I29+I10+I41+I45+I49+I53+I57+I37)</f>
-        <v>150000</v>
-      </c>
-      <c r="J61" s="246"/>
-    </row>
-    <row r="62" ht="21" customHeight="1"/>
-    <row r="63" ht="17.25" customHeight="1"/>
-    <row r="64" ht="24" customHeight="1" spans="13:16">
-      <c r="M64" s="3"/>
-      <c r="N64" s="3"/>
-      <c r="O64" s="3"/>
-      <c r="P64" s="3"/>
-    </row>
-    <row r="65" s="3" customFormat="1" spans="2:16">
-      <c r="B65" s="113"/>
-      <c r="C65" s="114"/>
-      <c r="D65" s="113"/>
-      <c r="E65" s="5"/>
-      <c r="F65" s="5"/>
-      <c r="G65" s="115"/>
-      <c r="H65" s="5"/>
-      <c r="I65" s="5"/>
-      <c r="J65"/>
-      <c r="M65"/>
-      <c r="N65"/>
-      <c r="O65"/>
-      <c r="P65"/>
-    </row>
+      <c r="E60" s="204"/>
+      <c r="F60" s="204"/>
+      <c r="G60" s="204"/>
+      <c r="H60" s="204"/>
+      <c r="I60" s="231">
+        <f>SUM(I14+I22+I29+I10+I41+I46+I52+I56+I37)</f>
+        <v>500000</v>
+      </c>
+    </row>
+    <row r="61" ht="21" customHeight="1"/>
+    <row r="62" ht="17.25" customHeight="1"/>
+    <row r="63" ht="24" customHeight="1" spans="12:15">
+      <c r="L63" s="3"/>
+      <c r="M63" s="3"/>
+      <c r="N63" s="3"/>
+      <c r="O63" s="3"/>
+    </row>
+    <row r="64" s="3" customFormat="1" spans="2:15">
+      <c r="B64" s="133"/>
+      <c r="C64" s="134"/>
+      <c r="D64" s="133"/>
+      <c r="E64" s="5"/>
+      <c r="F64" s="5"/>
+      <c r="G64" s="135"/>
+      <c r="H64" s="5"/>
+      <c r="I64" s="5"/>
+      <c r="L64"/>
+      <c r="M64"/>
+      <c r="N64"/>
+      <c r="O64"/>
+    </row>
+    <row r="76" ht="15" customHeight="1"/>
     <row r="77" ht="15" customHeight="1"/>
     <row r="78" ht="15" customHeight="1"/>
-    <row r="79" ht="15" customHeight="1"/>
-    <row r="83" ht="19.5" customHeight="1"/>
-    <row r="84" ht="34.5" customHeight="1"/>
-    <row r="85" ht="18.75" customHeight="1"/>
+    <row r="82" ht="19.5" customHeight="1"/>
+    <row r="83" ht="34.5" customHeight="1"/>
+    <row r="84" ht="18.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="M9:P9"/>
-    <mergeCell ref="N21:O21"/>
-    <mergeCell ref="D61:H61"/>
+    <mergeCell ref="L9:O9"/>
+    <mergeCell ref="M20:N20"/>
+    <mergeCell ref="D60:H60"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.393700787401575" right="0.196850393700787" top="0.393700787401575" bottom="0.196850393700787" header="0.511811023622047" footer="0.511811023622047"/>
@@ -7472,6 +7593,633 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:B13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="1"/>
+  <cols>
+    <col min="1" max="1" width="19" style="113" customWidth="1"/>
+    <col min="2" max="2" width="41.2857142857143" style="113" customWidth="1"/>
+    <col min="3" max="16384" width="9" style="113"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="113" customFormat="1" ht="18.75" spans="1:2">
+      <c r="A1" s="125" t="s">
+        <v>118</v>
+      </c>
+      <c r="B1" s="125"/>
+    </row>
+    <row r="2" s="113" customFormat="1" ht="15.75" spans="1:2">
+      <c r="A2" s="126" t="s">
+        <v>119</v>
+      </c>
+      <c r="B2" s="127" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="3" s="113" customFormat="1" ht="15.75" spans="1:2">
+      <c r="A3" s="126" t="s">
+        <v>121</v>
+      </c>
+      <c r="B3" s="127" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="4" s="113" customFormat="1" ht="15.75" spans="1:2">
+      <c r="A4" s="126" t="s">
+        <v>123</v>
+      </c>
+      <c r="B4" s="127" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="5" s="113" customFormat="1" spans="1:2">
+      <c r="A5" s="128" t="s">
+        <v>125</v>
+      </c>
+      <c r="B5" s="129">
+        <v>45572</v>
+      </c>
+    </row>
+    <row r="6" s="113" customFormat="1" ht="18.75" spans="1:2">
+      <c r="A6" s="125" t="s">
+        <v>126</v>
+      </c>
+      <c r="B6" s="125"/>
+    </row>
+    <row r="7" s="113" customFormat="1" ht="15.75" spans="1:2">
+      <c r="A7" s="126" t="s">
+        <v>127</v>
+      </c>
+      <c r="B7" s="127" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="8" s="113" customFormat="1" ht="38.25" customHeight="1" spans="1:2">
+      <c r="A8" s="130">
+        <v>45519</v>
+      </c>
+      <c r="B8" s="127" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="9" s="113" customFormat="1" ht="30.75" spans="1:2">
+      <c r="A9" s="130">
+        <v>45536</v>
+      </c>
+      <c r="B9" s="127" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="10" s="113" customFormat="1" ht="30.75" spans="1:2">
+      <c r="A10" s="130">
+        <v>45550</v>
+      </c>
+      <c r="B10" s="127" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="11" s="113" customFormat="1" ht="30.75" spans="1:2">
+      <c r="A11" s="130">
+        <v>45560</v>
+      </c>
+      <c r="B11" s="127" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="12" s="113" customFormat="1" ht="30.75" spans="1:2">
+      <c r="A12" s="130">
+        <v>45572</v>
+      </c>
+      <c r="B12" s="127" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="13" s="113" customFormat="1" spans="1:2">
+      <c r="A13" s="131"/>
+      <c r="B13" s="132"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A6:B6"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:M7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="6"/>
+  <cols>
+    <col min="1" max="1" width="4.14285714285714" style="113" customWidth="1"/>
+    <col min="2" max="2" width="27.1428571428571" style="113" customWidth="1"/>
+    <col min="3" max="3" width="12.1428571428571" style="113" customWidth="1"/>
+    <col min="4" max="4" width="36.2857142857143" style="113" customWidth="1"/>
+    <col min="5" max="5" width="22" style="113" customWidth="1"/>
+    <col min="6" max="6" width="23" style="113" customWidth="1"/>
+    <col min="7" max="7" width="22.5714285714286" style="113" customWidth="1"/>
+    <col min="8" max="8" width="12.4285714285714" style="113" customWidth="1"/>
+    <col min="9" max="9" width="26.2857142857143" style="113" customWidth="1"/>
+    <col min="10" max="10" width="26" style="113" customWidth="1"/>
+    <col min="11" max="11" width="14.2857142857143" style="113" customWidth="1"/>
+    <col min="12" max="12" width="11.8571428571429" style="113" customWidth="1"/>
+    <col min="13" max="16384" width="9" style="113"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="113" customFormat="1" ht="59.25" customHeight="1" spans="1:13">
+      <c r="A1" s="119" t="s">
+        <v>134</v>
+      </c>
+      <c r="B1" s="119" t="s">
+        <v>135</v>
+      </c>
+      <c r="C1" s="119" t="s">
+        <v>136</v>
+      </c>
+      <c r="D1" s="119" t="s">
+        <v>137</v>
+      </c>
+      <c r="E1" s="119" t="s">
+        <v>138</v>
+      </c>
+      <c r="F1" s="119" t="s">
+        <v>139</v>
+      </c>
+      <c r="G1" s="119" t="s">
+        <v>140</v>
+      </c>
+      <c r="H1" s="119" t="s">
+        <v>141</v>
+      </c>
+      <c r="I1" s="119" t="s">
+        <v>142</v>
+      </c>
+      <c r="J1" s="119" t="s">
+        <v>143</v>
+      </c>
+      <c r="K1" s="119" t="s">
+        <v>144</v>
+      </c>
+      <c r="L1" s="119" t="s">
+        <v>145</v>
+      </c>
+      <c r="M1" s="121"/>
+    </row>
+    <row r="2" s="113" customFormat="1" ht="86.25" customHeight="1" spans="1:12">
+      <c r="A2" s="120" t="s">
+        <v>146</v>
+      </c>
+      <c r="B2" s="116" t="s">
+        <v>147</v>
+      </c>
+      <c r="C2" s="116" t="s">
+        <v>148</v>
+      </c>
+      <c r="D2" s="116" t="s">
+        <v>149</v>
+      </c>
+      <c r="E2" s="116" t="s">
+        <v>150</v>
+      </c>
+      <c r="F2" s="116" t="s">
+        <v>151</v>
+      </c>
+      <c r="G2" s="116" t="s">
+        <v>152</v>
+      </c>
+      <c r="H2" s="116" t="s">
+        <v>153</v>
+      </c>
+      <c r="I2" s="116" t="s">
+        <v>154</v>
+      </c>
+      <c r="J2" s="116" t="s">
+        <v>155</v>
+      </c>
+      <c r="K2" s="116" t="s">
+        <v>156</v>
+      </c>
+      <c r="L2" s="122">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="3" s="113" customFormat="1" ht="69.75" customHeight="1" spans="1:12">
+      <c r="A3" s="120" t="s">
+        <v>157</v>
+      </c>
+      <c r="B3" s="116" t="s">
+        <v>158</v>
+      </c>
+      <c r="C3" s="116" t="s">
+        <v>148</v>
+      </c>
+      <c r="D3" s="116" t="s">
+        <v>159</v>
+      </c>
+      <c r="E3" s="116" t="s">
+        <v>160</v>
+      </c>
+      <c r="F3" s="116" t="s">
+        <v>161</v>
+      </c>
+      <c r="G3" s="116" t="s">
+        <v>162</v>
+      </c>
+      <c r="H3" s="116" t="s">
+        <v>153</v>
+      </c>
+      <c r="I3" s="116" t="s">
+        <v>163</v>
+      </c>
+      <c r="J3" s="116" t="s">
+        <v>164</v>
+      </c>
+      <c r="K3" s="116" t="s">
+        <v>165</v>
+      </c>
+      <c r="L3" s="123">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="4" s="113" customFormat="1" ht="76.5" customHeight="1" spans="1:12">
+      <c r="A4" s="120" t="s">
+        <v>166</v>
+      </c>
+      <c r="B4" s="116" t="s">
+        <v>167</v>
+      </c>
+      <c r="C4" s="116" t="s">
+        <v>168</v>
+      </c>
+      <c r="D4" s="116" t="s">
+        <v>169</v>
+      </c>
+      <c r="E4" s="116" t="s">
+        <v>170</v>
+      </c>
+      <c r="F4" s="116" t="s">
+        <v>171</v>
+      </c>
+      <c r="G4" s="116" t="s">
+        <v>162</v>
+      </c>
+      <c r="H4" s="116" t="s">
+        <v>153</v>
+      </c>
+      <c r="I4" s="116" t="s">
+        <v>172</v>
+      </c>
+      <c r="J4" s="116" t="s">
+        <v>173</v>
+      </c>
+      <c r="K4" s="116" t="s">
+        <v>174</v>
+      </c>
+      <c r="L4" s="123">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="5" s="113" customFormat="1" ht="66.75" customHeight="1" spans="1:12">
+      <c r="A5" s="120" t="s">
+        <v>175</v>
+      </c>
+      <c r="B5" s="116" t="s">
+        <v>176</v>
+      </c>
+      <c r="C5" s="116" t="s">
+        <v>168</v>
+      </c>
+      <c r="D5" s="116" t="s">
+        <v>177</v>
+      </c>
+      <c r="E5" s="116" t="s">
+        <v>178</v>
+      </c>
+      <c r="F5" s="116" t="s">
+        <v>179</v>
+      </c>
+      <c r="G5" s="116" t="s">
+        <v>180</v>
+      </c>
+      <c r="H5" s="116" t="s">
+        <v>153</v>
+      </c>
+      <c r="I5" s="116" t="s">
+        <v>181</v>
+      </c>
+      <c r="J5" s="116" t="s">
+        <v>182</v>
+      </c>
+      <c r="K5" s="116" t="s">
+        <v>183</v>
+      </c>
+      <c r="L5" s="122">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="6" s="113" customFormat="1" ht="60.75" customHeight="1" spans="1:12">
+      <c r="A6" s="120" t="s">
+        <v>184</v>
+      </c>
+      <c r="B6" s="116" t="s">
+        <v>185</v>
+      </c>
+      <c r="C6" s="116" t="s">
+        <v>186</v>
+      </c>
+      <c r="D6" s="116" t="s">
+        <v>187</v>
+      </c>
+      <c r="E6" s="116" t="s">
+        <v>188</v>
+      </c>
+      <c r="F6" s="116" t="s">
+        <v>189</v>
+      </c>
+      <c r="G6" s="116" t="s">
+        <v>190</v>
+      </c>
+      <c r="H6" s="116" t="s">
+        <v>191</v>
+      </c>
+      <c r="I6" s="116" t="s">
+        <v>192</v>
+      </c>
+      <c r="J6" s="116" t="s">
+        <v>193</v>
+      </c>
+      <c r="K6" s="116" t="s">
+        <v>194</v>
+      </c>
+      <c r="L6" s="124">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="7" s="113" customFormat="1" ht="77.25" customHeight="1" spans="1:12">
+      <c r="A7" s="120" t="s">
+        <v>195</v>
+      </c>
+      <c r="B7" s="116" t="s">
+        <v>196</v>
+      </c>
+      <c r="C7" s="116" t="s">
+        <v>148</v>
+      </c>
+      <c r="D7" s="116" t="s">
+        <v>197</v>
+      </c>
+      <c r="E7" s="116" t="s">
+        <v>198</v>
+      </c>
+      <c r="F7" s="116" t="s">
+        <v>199</v>
+      </c>
+      <c r="G7" s="116" t="s">
+        <v>152</v>
+      </c>
+      <c r="H7" s="116" t="s">
+        <v>200</v>
+      </c>
+      <c r="I7" s="116" t="s">
+        <v>201</v>
+      </c>
+      <c r="J7" s="116" t="s">
+        <v>202</v>
+      </c>
+      <c r="K7" s="116" t="s">
+        <v>203</v>
+      </c>
+      <c r="L7" s="124">
+        <v>0.12</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:K5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="4"/>
+  <cols>
+    <col min="1" max="1" width="4.14285714285714" style="113" customWidth="1"/>
+    <col min="2" max="2" width="21.8571428571429" style="113" customWidth="1"/>
+    <col min="3" max="3" width="25.1428571428571" style="113" customWidth="1"/>
+    <col min="4" max="4" width="28.2857142857143" style="113" customWidth="1"/>
+    <col min="5" max="5" width="16.2857142857143" style="113" customWidth="1"/>
+    <col min="6" max="6" width="10.5714285714286" style="113" customWidth="1"/>
+    <col min="7" max="7" width="10.8571428571429" style="113" customWidth="1"/>
+    <col min="8" max="8" width="15.2857142857143" style="113" customWidth="1"/>
+    <col min="9" max="9" width="14.5714285714286" style="113" customWidth="1"/>
+    <col min="10" max="10" width="27.2857142857143" style="113" customWidth="1"/>
+    <col min="11" max="11" width="29.1428571428571" style="113" customWidth="1"/>
+    <col min="12" max="16384" width="9" style="113"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="113" customFormat="1" ht="47.25" customHeight="1" spans="1:11">
+      <c r="A1" s="114" t="s">
+        <v>134</v>
+      </c>
+      <c r="B1" s="114" t="s">
+        <v>204</v>
+      </c>
+      <c r="C1" s="114" t="s">
+        <v>205</v>
+      </c>
+      <c r="D1" s="114" t="s">
+        <v>206</v>
+      </c>
+      <c r="E1" s="114" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" s="114" t="s">
+        <v>144</v>
+      </c>
+      <c r="G1" s="114" t="s">
+        <v>207</v>
+      </c>
+      <c r="H1" s="114" t="s">
+        <v>208</v>
+      </c>
+      <c r="I1" s="114" t="s">
+        <v>209</v>
+      </c>
+      <c r="J1" s="114" t="s">
+        <v>142</v>
+      </c>
+      <c r="K1" s="114" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="2" s="113" customFormat="1" ht="84" customHeight="1" spans="1:11">
+      <c r="A2" s="115" t="s">
+        <v>146</v>
+      </c>
+      <c r="B2" s="116" t="s">
+        <v>210</v>
+      </c>
+      <c r="C2" s="116" t="s">
+        <v>211</v>
+      </c>
+      <c r="D2" s="116" t="s">
+        <v>212</v>
+      </c>
+      <c r="E2" s="116" t="s">
+        <v>213</v>
+      </c>
+      <c r="F2" s="116" t="s">
+        <v>214</v>
+      </c>
+      <c r="G2" s="117">
+        <v>30000</v>
+      </c>
+      <c r="H2" s="118" t="s">
+        <v>215</v>
+      </c>
+      <c r="I2" s="118" t="s">
+        <v>216</v>
+      </c>
+      <c r="J2" s="116" t="s">
+        <v>217</v>
+      </c>
+      <c r="K2" s="116" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="3" s="113" customFormat="1" ht="96" customHeight="1" spans="1:11">
+      <c r="A3" s="115" t="s">
+        <v>157</v>
+      </c>
+      <c r="B3" s="116" t="s">
+        <v>219</v>
+      </c>
+      <c r="C3" s="116" t="s">
+        <v>220</v>
+      </c>
+      <c r="D3" s="116" t="s">
+        <v>221</v>
+      </c>
+      <c r="E3" s="116" t="s">
+        <v>213</v>
+      </c>
+      <c r="F3" s="116" t="s">
+        <v>222</v>
+      </c>
+      <c r="G3" s="117">
+        <v>15000</v>
+      </c>
+      <c r="H3" s="118" t="s">
+        <v>223</v>
+      </c>
+      <c r="I3" s="118" t="s">
+        <v>216</v>
+      </c>
+      <c r="J3" s="116" t="s">
+        <v>224</v>
+      </c>
+      <c r="K3" s="116" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="4" s="113" customFormat="1" ht="81.75" customHeight="1" spans="1:11">
+      <c r="A4" s="115" t="s">
+        <v>166</v>
+      </c>
+      <c r="B4" s="116" t="s">
+        <v>226</v>
+      </c>
+      <c r="C4" s="116" t="s">
+        <v>227</v>
+      </c>
+      <c r="D4" s="116" t="s">
+        <v>228</v>
+      </c>
+      <c r="E4" s="116" t="s">
+        <v>213</v>
+      </c>
+      <c r="F4" s="116" t="s">
+        <v>229</v>
+      </c>
+      <c r="G4" s="117">
+        <v>25000</v>
+      </c>
+      <c r="H4" s="118" t="s">
+        <v>230</v>
+      </c>
+      <c r="I4" s="118" t="s">
+        <v>216</v>
+      </c>
+      <c r="J4" s="116" t="s">
+        <v>231</v>
+      </c>
+      <c r="K4" s="116" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="5" s="113" customFormat="1" ht="71.25" customHeight="1" spans="1:11">
+      <c r="A5" s="115" t="s">
+        <v>175</v>
+      </c>
+      <c r="B5" s="116" t="s">
+        <v>233</v>
+      </c>
+      <c r="C5" s="116" t="s">
+        <v>234</v>
+      </c>
+      <c r="D5" s="116" t="s">
+        <v>235</v>
+      </c>
+      <c r="E5" s="116" t="s">
+        <v>152</v>
+      </c>
+      <c r="F5" s="116" t="s">
+        <v>236</v>
+      </c>
+      <c r="G5" s="117">
+        <v>35000</v>
+      </c>
+      <c r="H5" s="118" t="s">
+        <v>237</v>
+      </c>
+      <c r="I5" s="118" t="s">
+        <v>216</v>
+      </c>
+      <c r="J5" s="116" t="s">
+        <v>238</v>
+      </c>
+      <c r="K5" s="116" t="s">
+        <v>239</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr>
     <tabColor theme="5"/>
@@ -7497,7 +8245,7 @@
   <sheetData>
     <row r="3" ht="25.5" customHeight="1" spans="5:8">
       <c r="E3" s="38" t="s">
-        <v>125</v>
+        <v>240</v>
       </c>
       <c r="F3" s="39"/>
       <c r="G3" s="40"/>
@@ -7505,13 +8253,13 @@
     </row>
     <row r="5" ht="34.5" customHeight="1" spans="1:8">
       <c r="A5" s="37" t="s">
-        <v>126</v>
+        <v>241</v>
       </c>
       <c r="D5" s="42" t="s">
-        <v>127</v>
+        <v>242</v>
       </c>
       <c r="E5" s="43" t="s">
-        <v>128</v>
+        <v>243</v>
       </c>
       <c r="F5" s="44"/>
       <c r="G5" s="45">
@@ -7521,12 +8269,12 @@
     </row>
     <row r="6" ht="30" customHeight="1" spans="1:66">
       <c r="A6" s="46" t="s">
-        <v>129</v>
+        <v>244</v>
       </c>
       <c r="B6" s="46"/>
       <c r="C6" s="46"/>
       <c r="E6" s="43" t="s">
-        <v>130</v>
+        <v>245</v>
       </c>
       <c r="F6" s="44"/>
       <c r="G6" s="47">
@@ -7615,7 +8363,7 @@
     </row>
     <row r="7" customHeight="1" spans="1:66">
       <c r="A7" s="46" t="s">
-        <v>131</v>
+        <v>246</v>
       </c>
       <c r="B7" s="46"/>
       <c r="C7" s="46"/>
@@ -7852,28 +8600,28 @@
     </row>
     <row r="8" ht="30" customHeight="1" spans="1:66">
       <c r="A8" s="46" t="s">
-        <v>132</v>
+        <v>247</v>
       </c>
       <c r="B8" s="46"/>
       <c r="C8" s="46"/>
       <c r="D8" s="49" t="s">
-        <v>133</v>
+        <v>248</v>
       </c>
       <c r="E8" s="50" t="s">
-        <v>134</v>
+        <v>249</v>
       </c>
       <c r="F8" s="50" t="s">
-        <v>135</v>
+        <v>250</v>
       </c>
       <c r="G8" s="50" t="s">
-        <v>136</v>
+        <v>251</v>
       </c>
       <c r="H8" s="50" t="s">
-        <v>137</v>
+        <v>252</v>
       </c>
       <c r="I8" s="50"/>
       <c r="J8" s="50" t="s">
-        <v>138</v>
+        <v>253</v>
       </c>
       <c r="K8" s="104" t="str">
         <f t="shared" ref="K8:BN8" si="2">LEFT(TEXT(K7,"ddd"),1)</f>
@@ -8102,7 +8850,7 @@
     </row>
     <row r="9" ht="30" hidden="1" customHeight="1" spans="1:66">
       <c r="A9" s="37" t="s">
-        <v>139</v>
+        <v>254</v>
       </c>
       <c r="E9" s="51"/>
       <c r="G9"/>
@@ -8169,12 +8917,12 @@
     </row>
     <row r="10" s="1" customFormat="1" ht="30" customHeight="1" spans="1:66">
       <c r="A10" s="46" t="s">
-        <v>140</v>
+        <v>255</v>
       </c>
       <c r="B10" s="46"/>
       <c r="C10" s="46"/>
       <c r="D10" s="52" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E10" s="53"/>
       <c r="F10" s="54"/>
@@ -8244,12 +8992,12 @@
     </row>
     <row r="11" s="1" customFormat="1" ht="30" customHeight="1" spans="1:66">
       <c r="A11" s="46" t="s">
-        <v>141</v>
+        <v>256</v>
       </c>
       <c r="B11" s="46"/>
       <c r="C11" s="46"/>
       <c r="D11" s="57" t="s">
-        <v>142</v>
+        <v>257</v>
       </c>
       <c r="E11" s="58"/>
       <c r="F11" s="59"/>
@@ -8325,12 +9073,12 @@
     </row>
     <row r="12" s="1" customFormat="1" ht="30" customHeight="1" spans="1:66">
       <c r="A12" s="46" t="s">
-        <v>143</v>
+        <v>258</v>
       </c>
       <c r="B12" s="46"/>
       <c r="C12" s="46"/>
       <c r="D12" s="57" t="s">
-        <v>144</v>
+        <v>259</v>
       </c>
       <c r="E12" s="58"/>
       <c r="F12" s="59"/>
@@ -8403,7 +9151,7 @@
       <c r="B13" s="37"/>
       <c r="C13" s="37"/>
       <c r="D13" s="57" t="s">
-        <v>145</v>
+        <v>260</v>
       </c>
       <c r="E13" s="58"/>
       <c r="F13" s="59"/>
@@ -8476,7 +9224,7 @@
       <c r="B14" s="37"/>
       <c r="C14" s="37"/>
       <c r="D14" s="57" t="s">
-        <v>146</v>
+        <v>261</v>
       </c>
       <c r="E14" s="58"/>
       <c r="F14" s="59"/>
@@ -8549,7 +9297,7 @@
       <c r="B15" s="37"/>
       <c r="C15" s="37"/>
       <c r="D15" s="57" t="s">
-        <v>147</v>
+        <v>262</v>
       </c>
       <c r="E15" s="58"/>
       <c r="F15" s="59"/>
@@ -8619,12 +9367,12 @@
     </row>
     <row r="16" s="1" customFormat="1" ht="30" customHeight="1" spans="1:66">
       <c r="A16" s="46" t="s">
-        <v>148</v>
+        <v>263</v>
       </c>
       <c r="B16" s="46"/>
       <c r="C16" s="46"/>
       <c r="D16" s="61" t="s">
-        <v>149</v>
+        <v>264</v>
       </c>
       <c r="E16" s="62"/>
       <c r="F16" s="63"/>
@@ -8697,7 +9445,7 @@
       <c r="B17" s="46"/>
       <c r="C17" s="46"/>
       <c r="D17" s="66" t="s">
-        <v>150</v>
+        <v>265</v>
       </c>
       <c r="E17" s="67"/>
       <c r="F17" s="68"/>
@@ -8770,7 +9518,7 @@
       <c r="B18" s="37"/>
       <c r="C18" s="37"/>
       <c r="D18" s="66" t="s">
-        <v>144</v>
+        <v>259</v>
       </c>
       <c r="E18" s="67"/>
       <c r="F18" s="68"/>
@@ -8843,7 +9591,7 @@
       <c r="B19" s="37"/>
       <c r="C19" s="37"/>
       <c r="D19" s="66" t="s">
-        <v>145</v>
+        <v>260</v>
       </c>
       <c r="E19" s="67"/>
       <c r="F19" s="68"/>
@@ -8916,7 +9664,7 @@
       <c r="B20" s="37"/>
       <c r="C20" s="37"/>
       <c r="D20" s="66" t="s">
-        <v>146</v>
+        <v>261</v>
       </c>
       <c r="E20" s="67"/>
       <c r="F20" s="68"/>
@@ -8989,7 +9737,7 @@
       <c r="B21" s="37"/>
       <c r="C21" s="37"/>
       <c r="D21" s="66" t="s">
-        <v>147</v>
+        <v>262</v>
       </c>
       <c r="E21" s="67"/>
       <c r="F21" s="68"/>
@@ -9059,12 +9807,12 @@
     </row>
     <row r="22" s="1" customFormat="1" ht="30" customHeight="1" spans="1:66">
       <c r="A22" s="37" t="s">
-        <v>151</v>
+        <v>266</v>
       </c>
       <c r="B22" s="37"/>
       <c r="C22" s="37"/>
       <c r="D22" s="70" t="s">
-        <v>152</v>
+        <v>267</v>
       </c>
       <c r="E22" s="71"/>
       <c r="F22" s="72"/>
@@ -9137,7 +9885,7 @@
       <c r="B23" s="37"/>
       <c r="C23" s="37"/>
       <c r="D23" s="75" t="s">
-        <v>150</v>
+        <v>265</v>
       </c>
       <c r="E23" s="76"/>
       <c r="F23" s="77"/>
@@ -9210,7 +9958,7 @@
       <c r="B24" s="37"/>
       <c r="C24" s="37"/>
       <c r="D24" s="75" t="s">
-        <v>144</v>
+        <v>259</v>
       </c>
       <c r="E24" s="76"/>
       <c r="F24" s="77"/>
@@ -9283,7 +10031,7 @@
       <c r="B25" s="37"/>
       <c r="C25" s="37"/>
       <c r="D25" s="75" t="s">
-        <v>145</v>
+        <v>260</v>
       </c>
       <c r="E25" s="76"/>
       <c r="F25" s="77"/>
@@ -9356,7 +10104,7 @@
       <c r="B26" s="37"/>
       <c r="C26" s="37"/>
       <c r="D26" s="75" t="s">
-        <v>146</v>
+        <v>261</v>
       </c>
       <c r="E26" s="76"/>
       <c r="F26" s="77"/>
@@ -9429,7 +10177,7 @@
       <c r="B27" s="37"/>
       <c r="C27" s="37"/>
       <c r="D27" s="75" t="s">
-        <v>147</v>
+        <v>262</v>
       </c>
       <c r="E27" s="76"/>
       <c r="F27" s="77"/>
@@ -9499,12 +10247,12 @@
     </row>
     <row r="28" s="1" customFormat="1" ht="30" customHeight="1" spans="1:66">
       <c r="A28" s="37" t="s">
-        <v>151</v>
+        <v>266</v>
       </c>
       <c r="B28" s="37"/>
       <c r="C28" s="37"/>
       <c r="D28" s="79" t="s">
-        <v>153</v>
+        <v>268</v>
       </c>
       <c r="E28" s="80"/>
       <c r="F28" s="81"/>
@@ -9577,15 +10325,15 @@
       <c r="B29" s="37"/>
       <c r="C29" s="37"/>
       <c r="D29" s="84" t="s">
-        <v>150</v>
+        <v>265</v>
       </c>
       <c r="E29" s="85"/>
       <c r="F29" s="86"/>
       <c r="G29" s="87" t="s">
-        <v>154</v>
+        <v>269</v>
       </c>
       <c r="H29" s="87" t="s">
-        <v>154</v>
+        <v>269</v>
       </c>
       <c r="I29" s="106"/>
       <c r="J29" s="106" t="e">
@@ -9654,15 +10402,15 @@
       <c r="B30" s="37"/>
       <c r="C30" s="37"/>
       <c r="D30" s="84" t="s">
-        <v>144</v>
+        <v>259</v>
       </c>
       <c r="E30" s="85"/>
       <c r="F30" s="86"/>
       <c r="G30" s="87" t="s">
-        <v>154</v>
+        <v>269</v>
       </c>
       <c r="H30" s="87" t="s">
-        <v>154</v>
+        <v>269</v>
       </c>
       <c r="I30" s="106"/>
       <c r="J30" s="106" t="e">
@@ -9731,15 +10479,15 @@
       <c r="B31" s="37"/>
       <c r="C31" s="37"/>
       <c r="D31" s="84" t="s">
-        <v>145</v>
+        <v>260</v>
       </c>
       <c r="E31" s="85"/>
       <c r="F31" s="86"/>
       <c r="G31" s="87" t="s">
-        <v>154</v>
+        <v>269</v>
       </c>
       <c r="H31" s="87" t="s">
-        <v>154</v>
+        <v>269</v>
       </c>
       <c r="I31" s="106"/>
       <c r="J31" s="106" t="e">
@@ -9808,15 +10556,15 @@
       <c r="B32" s="37"/>
       <c r="C32" s="37"/>
       <c r="D32" s="84" t="s">
-        <v>146</v>
+        <v>261</v>
       </c>
       <c r="E32" s="85"/>
       <c r="F32" s="86"/>
       <c r="G32" s="87" t="s">
-        <v>154</v>
+        <v>269</v>
       </c>
       <c r="H32" s="87" t="s">
-        <v>154</v>
+        <v>269</v>
       </c>
       <c r="I32" s="106"/>
       <c r="J32" s="106" t="str">
@@ -9885,15 +10633,15 @@
       <c r="B33" s="37"/>
       <c r="C33" s="37"/>
       <c r="D33" s="84" t="s">
-        <v>147</v>
+        <v>262</v>
       </c>
       <c r="E33" s="85"/>
       <c r="F33" s="86"/>
       <c r="G33" s="87" t="s">
-        <v>154</v>
+        <v>269</v>
       </c>
       <c r="H33" s="87" t="s">
-        <v>154</v>
+        <v>269</v>
       </c>
       <c r="I33" s="106"/>
       <c r="J33" s="106" t="str">
@@ -9959,7 +10707,7 @@
     </row>
     <row r="34" s="1" customFormat="1" ht="30" customHeight="1" spans="1:66">
       <c r="A34" s="37" t="s">
-        <v>155</v>
+        <v>270</v>
       </c>
       <c r="B34" s="37"/>
       <c r="C34" s="37"/>
@@ -10032,12 +10780,12 @@
     </row>
     <row r="35" s="1" customFormat="1" ht="30" customHeight="1" spans="1:66">
       <c r="A35" s="46" t="s">
-        <v>156</v>
+        <v>271</v>
       </c>
       <c r="B35" s="46"/>
       <c r="C35" s="46"/>
       <c r="D35" s="92" t="s">
-        <v>157</v>
+        <v>272</v>
       </c>
       <c r="E35" s="93"/>
       <c r="F35" s="94"/>
@@ -10138,7 +10886,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{caa2efd3-55bc-43fd-9601-fd73aeb65a01}</x14:id>
+          <x14:id>{c529113a-afab-45f1-94af-35ed8f3074ee}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -10168,7 +10916,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{caa2efd3-55bc-43fd-9601-fd73aeb65a01}">
+          <x14:cfRule type="dataBar" id="{c529113a-afab-45f1-94af-35ed8f3074ee}">
             <x14:dataBar minLength="0" maxLength="100" negativeBarColorSameAsPositive="1" axisPosition="none">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -10187,7 +10935,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A3:E55"/>
@@ -10212,7 +10960,7 @@
   <sheetData>
     <row r="3" spans="1:5">
       <c r="A3" s="30" t="s">
-        <v>158</v>
+        <v>273</v>
       </c>
       <c r="B3" s="31"/>
       <c r="C3" s="31"/>
@@ -10221,33 +10969,33 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="30" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B4" s="30" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C4" s="30" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D4" s="30" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E4" s="32" t="s">
-        <v>159</v>
+        <v>274</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="30" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B5" s="30" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C5" s="30" t="s">
-        <v>142</v>
+        <v>257</v>
       </c>
       <c r="D5" s="30" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E5" s="32">
         <v>1000</v>
@@ -10257,10 +11005,10 @@
       <c r="A6" s="33"/>
       <c r="B6" s="33"/>
       <c r="C6" s="30" t="s">
-        <v>160</v>
+        <v>275</v>
       </c>
       <c r="D6" s="30" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E6" s="32">
         <v>1000</v>
@@ -10270,10 +11018,10 @@
       <c r="A7" s="33"/>
       <c r="B7" s="33"/>
       <c r="C7" s="30" t="s">
-        <v>161</v>
+        <v>276</v>
       </c>
       <c r="D7" s="30" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E7" s="32">
         <v>2000</v>
@@ -10281,16 +11029,16 @@
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="30" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B8" s="30" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="C8" s="30" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D8" s="30" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="E8" s="32">
         <v>2000</v>
@@ -10299,13 +11047,13 @@
     <row r="9" spans="1:5">
       <c r="A9" s="33"/>
       <c r="B9" s="30" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C9" s="30" t="s">
-        <v>162</v>
+        <v>277</v>
       </c>
       <c r="D9" s="30" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="E9" s="32">
         <v>700</v>
@@ -10314,10 +11062,10 @@
     <row r="10" spans="1:5">
       <c r="A10" s="33"/>
       <c r="B10" s="30" t="s">
-        <v>163</v>
+        <v>278</v>
       </c>
       <c r="C10" s="30" t="s">
-        <v>22</v>
+        <v>279</v>
       </c>
       <c r="D10" s="30">
         <v>2</v>
@@ -10326,16 +11074,16 @@
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="30" t="s">
-        <v>164</v>
+        <v>280</v>
       </c>
       <c r="B11" s="30" t="s">
-        <v>113</v>
+        <v>281</v>
       </c>
       <c r="C11" s="30" t="s">
-        <v>165</v>
+        <v>282</v>
       </c>
       <c r="D11" s="30" t="s">
-        <v>164</v>
+        <v>280</v>
       </c>
       <c r="E11" s="32">
         <v>4000</v>
@@ -10343,16 +11091,16 @@
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="30" t="s">
-        <v>120</v>
+        <v>283</v>
       </c>
       <c r="B12" s="30" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="C12" s="30" t="s">
-        <v>166</v>
+        <v>284</v>
       </c>
       <c r="D12" s="30" t="s">
-        <v>120</v>
+        <v>283</v>
       </c>
       <c r="E12" s="32">
         <v>1000</v>
@@ -10360,16 +11108,16 @@
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="30" t="s">
-        <v>122</v>
+        <v>285</v>
       </c>
       <c r="B13" s="30" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="C13" s="30" t="s">
-        <v>167</v>
+        <v>286</v>
       </c>
       <c r="D13" s="30" t="s">
-        <v>122</v>
+        <v>285</v>
       </c>
       <c r="E13" s="32">
         <v>1000</v>
@@ -10377,16 +11125,16 @@
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="30" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B14" s="30" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C14" s="30" t="s">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="D14" s="30" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E14" s="32">
         <v>2000</v>
@@ -10394,16 +11142,16 @@
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="30" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B15" s="30" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C15" s="30" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="D15" s="30" t="s">
-        <v>168</v>
+        <v>287</v>
       </c>
       <c r="E15" s="32">
         <v>400</v>
@@ -10413,10 +11161,10 @@
       <c r="A16" s="33"/>
       <c r="B16" s="33"/>
       <c r="C16" s="30" t="s">
-        <v>169</v>
+        <v>288</v>
       </c>
       <c r="D16" s="30" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="E16" s="32">
         <v>500</v>
@@ -10426,10 +11174,10 @@
       <c r="A17" s="33"/>
       <c r="B17" s="33"/>
       <c r="C17" s="30" t="s">
-        <v>31</v>
+        <v>289</v>
       </c>
       <c r="D17" s="30" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="E17" s="32">
         <v>200</v>
@@ -10439,10 +11187,10 @@
       <c r="A18" s="33"/>
       <c r="B18" s="33"/>
       <c r="C18" s="30" t="s">
-        <v>170</v>
+        <v>290</v>
       </c>
       <c r="D18" s="30" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E18" s="32">
         <v>800</v>
@@ -10452,10 +11200,10 @@
       <c r="A19" s="33"/>
       <c r="B19" s="33"/>
       <c r="C19" s="30" t="s">
-        <v>171</v>
+        <v>291</v>
       </c>
       <c r="D19" s="30" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E19" s="32">
         <v>1000</v>
@@ -10463,13 +11211,13 @@
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="30" t="s">
-        <v>168</v>
+        <v>287</v>
       </c>
       <c r="B20" s="30" t="s">
-        <v>163</v>
+        <v>278</v>
       </c>
       <c r="C20" s="30" t="s">
-        <v>25</v>
+        <v>292</v>
       </c>
       <c r="D20" s="30">
         <v>3</v>
@@ -10478,16 +11226,16 @@
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="30" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="B21" s="30" t="s">
+        <v>50</v>
+      </c>
+      <c r="C21" s="30" t="s">
         <v>54</v>
       </c>
-      <c r="C21" s="30" t="s">
-        <v>56</v>
-      </c>
       <c r="D21" s="30" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="E21" s="32">
         <v>500</v>
@@ -10495,16 +11243,16 @@
     </row>
     <row r="22" spans="1:5">
       <c r="A22" s="30" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="B22" s="30" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="C22" s="30" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D22" s="30" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="E22" s="32">
         <v>500</v>
@@ -10512,16 +11260,16 @@
     </row>
     <row r="23" spans="1:5">
       <c r="A23" s="30" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="B23" s="30" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="C23" s="30" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D23" s="30" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="E23" s="32">
         <v>1000</v>
@@ -10529,16 +11277,16 @@
     </row>
     <row r="24" spans="1:5">
       <c r="A24" s="30" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="B24" s="30" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="C24" s="30" t="s">
-        <v>62</v>
+        <v>293</v>
       </c>
       <c r="D24" s="30" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="E24" s="32">
         <v>500</v>
@@ -10546,13 +11294,13 @@
     </row>
     <row r="25" spans="1:5">
       <c r="A25" s="30" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="B25" s="30" t="s">
-        <v>163</v>
+        <v>278</v>
       </c>
       <c r="C25" s="30" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D25" s="30">
         <v>4</v>
@@ -10561,16 +11309,16 @@
     </row>
     <row r="26" spans="1:5">
       <c r="A26" s="30" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="B26" s="30" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="C26" s="30" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="D26" s="30" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="E26" s="32">
         <v>700</v>
@@ -10578,16 +11326,16 @@
     </row>
     <row r="27" spans="1:5">
       <c r="A27" s="30" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="B27" s="30" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C27" s="30" t="s">
-        <v>66</v>
+        <v>294</v>
       </c>
       <c r="D27" s="30" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="E27" s="32">
         <v>500</v>
@@ -10595,16 +11343,16 @@
     </row>
     <row r="28" spans="1:5">
       <c r="A28" s="30" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="B28" s="30" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C28" s="30" t="s">
-        <v>69</v>
+        <v>295</v>
       </c>
       <c r="D28" s="30" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="E28" s="32">
         <v>5000</v>
@@ -10612,16 +11360,16 @@
     </row>
     <row r="29" spans="1:5">
       <c r="A29" s="30" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="B29" s="30" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C29" s="30" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="D29" s="30" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="E29" s="32">
         <v>700</v>
@@ -10629,16 +11377,16 @@
     </row>
     <row r="30" spans="1:5">
       <c r="A30" s="30" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="B30" s="30" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C30" s="30" t="s">
-        <v>172</v>
+        <v>296</v>
       </c>
       <c r="D30" s="30" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="E30" s="32">
         <v>500</v>
@@ -10646,16 +11394,16 @@
     </row>
     <row r="31" spans="1:5">
       <c r="A31" s="30" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="B31" s="30" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C31" s="30" t="s">
-        <v>173</v>
+        <v>297</v>
       </c>
       <c r="D31" s="30" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="E31" s="32">
         <v>300</v>
@@ -10663,16 +11411,16 @@
     </row>
     <row r="32" spans="1:5">
       <c r="A32" s="30" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="B32" s="30" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C32" s="30" t="s">
-        <v>174</v>
+        <v>298</v>
       </c>
       <c r="D32" s="30" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="E32" s="32">
         <v>1000</v>
@@ -10680,16 +11428,16 @@
     </row>
     <row r="33" spans="1:5">
       <c r="A33" s="30" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="B33" s="30" t="s">
-        <v>175</v>
+        <v>299</v>
       </c>
       <c r="C33" s="30" t="s">
-        <v>176</v>
+        <v>300</v>
       </c>
       <c r="D33" s="30" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="E33" s="32">
         <v>3000</v>
@@ -10697,16 +11445,16 @@
     </row>
     <row r="34" spans="1:5">
       <c r="A34" s="30" t="s">
-        <v>177</v>
+        <v>301</v>
       </c>
       <c r="B34" s="30" t="s">
-        <v>175</v>
+        <v>299</v>
       </c>
       <c r="C34" s="30" t="s">
-        <v>178</v>
+        <v>302</v>
       </c>
       <c r="D34" s="30" t="s">
-        <v>177</v>
+        <v>301</v>
       </c>
       <c r="E34" s="32">
         <v>1000</v>
@@ -10714,16 +11462,16 @@
     </row>
     <row r="35" spans="1:5">
       <c r="A35" s="30" t="s">
-        <v>179</v>
+        <v>303</v>
       </c>
       <c r="B35" s="30" t="s">
-        <v>175</v>
+        <v>299</v>
       </c>
       <c r="C35" s="30" t="s">
-        <v>180</v>
+        <v>304</v>
       </c>
       <c r="D35" s="30" t="s">
-        <v>179</v>
+        <v>303</v>
       </c>
       <c r="E35" s="32">
         <v>1000</v>
@@ -10731,16 +11479,16 @@
     </row>
     <row r="36" spans="1:5">
       <c r="A36" s="30" t="s">
-        <v>181</v>
+        <v>305</v>
       </c>
       <c r="B36" s="30" t="s">
-        <v>83</v>
+        <v>106</v>
       </c>
       <c r="C36" s="30" t="s">
-        <v>182</v>
+        <v>306</v>
       </c>
       <c r="D36" s="30" t="s">
-        <v>181</v>
+        <v>305</v>
       </c>
       <c r="E36" s="32">
         <v>30000</v>
@@ -10748,16 +11496,16 @@
     </row>
     <row r="37" spans="1:5">
       <c r="A37" s="30" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="B37" s="30" t="s">
-        <v>183</v>
+        <v>307</v>
       </c>
       <c r="C37" s="30" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="D37" s="30" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="E37" s="32">
         <v>700</v>
@@ -10765,16 +11513,16 @@
     </row>
     <row r="38" spans="1:5">
       <c r="A38" s="30" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="B38" s="30" t="s">
-        <v>175</v>
+        <v>299</v>
       </c>
       <c r="C38" s="30" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="D38" s="30" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="E38" s="32">
         <v>500</v>
@@ -10782,16 +11530,16 @@
     </row>
     <row r="39" spans="1:5">
       <c r="A39" s="30" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="B39" s="30" t="s">
-        <v>90</v>
+        <v>308</v>
       </c>
       <c r="C39" s="30" t="s">
-        <v>184</v>
+        <v>309</v>
       </c>
       <c r="D39" s="30" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="E39" s="32">
         <v>15000</v>
@@ -10799,16 +11547,16 @@
     </row>
     <row r="40" spans="1:5">
       <c r="A40" s="30" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="B40" s="30" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="C40" s="30" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="D40" s="30" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="E40" s="32">
         <v>10000</v>
@@ -10816,16 +11564,16 @@
     </row>
     <row r="41" spans="1:5">
       <c r="A41" s="30" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="B41" s="30" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="C41" s="30" t="s">
-        <v>185</v>
+        <v>310</v>
       </c>
       <c r="D41" s="30" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="E41" s="32">
         <v>10000</v>
@@ -10833,16 +11581,16 @@
     </row>
     <row r="42" spans="1:5">
       <c r="A42" s="30" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B42" s="30" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="C42" s="30" t="s">
-        <v>186</v>
+        <v>311</v>
       </c>
       <c r="D42" s="30" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E42" s="32">
         <v>5000</v>
@@ -10853,10 +11601,10 @@
         <v>107</v>
       </c>
       <c r="B43" s="30" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="C43" s="30" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="D43" s="30" t="s">
         <v>107</v>
@@ -10867,16 +11615,16 @@
     </row>
     <row r="44" spans="1:5">
       <c r="A44" s="30" t="s">
+        <v>108</v>
+      </c>
+      <c r="B44" s="30" t="s">
+        <v>94</v>
+      </c>
+      <c r="C44" s="30" t="s">
         <v>109</v>
       </c>
-      <c r="B44" s="30" t="s">
-        <v>98</v>
-      </c>
-      <c r="C44" s="30" t="s">
-        <v>103</v>
-      </c>
       <c r="D44" s="30" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E44" s="32">
         <v>1000</v>
@@ -10884,16 +11632,16 @@
     </row>
     <row r="45" spans="1:5">
       <c r="A45" s="30" t="s">
-        <v>111</v>
+        <v>312</v>
       </c>
       <c r="B45" s="30" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="C45" s="30" t="s">
-        <v>187</v>
+        <v>313</v>
       </c>
       <c r="D45" s="30" t="s">
-        <v>111</v>
+        <v>312</v>
       </c>
       <c r="E45" s="32">
         <v>10000</v>
@@ -10901,16 +11649,16 @@
     </row>
     <row r="46" spans="1:5">
       <c r="A46" s="30" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B46" s="30" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="C46" s="30" t="s">
-        <v>188</v>
+        <v>314</v>
       </c>
       <c r="D46" s="30" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E46" s="32">
         <v>20000</v>
@@ -10918,16 +11666,16 @@
     </row>
     <row r="47" spans="1:5">
       <c r="A47" s="30" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B47" s="30" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="C47" s="30" t="s">
-        <v>110</v>
+        <v>89</v>
       </c>
       <c r="D47" s="30" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="E47" s="32">
         <v>10000</v>
@@ -10935,13 +11683,13 @@
     </row>
     <row r="48" spans="1:5">
       <c r="A48" s="30" t="s">
-        <v>163</v>
+        <v>278</v>
       </c>
       <c r="B48" s="30" t="s">
-        <v>163</v>
+        <v>278</v>
       </c>
       <c r="C48" s="30" t="s">
-        <v>44</v>
+        <v>315</v>
       </c>
       <c r="D48" s="30">
         <v>10</v>
@@ -10952,7 +11700,7 @@
       <c r="A49" s="33"/>
       <c r="B49" s="33"/>
       <c r="C49" s="30" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D49" s="30">
         <v>1</v>
@@ -10963,7 +11711,7 @@
       <c r="A50" s="33"/>
       <c r="B50" s="33"/>
       <c r="C50" s="30" t="s">
-        <v>31</v>
+        <v>289</v>
       </c>
       <c r="D50" s="30">
         <v>5</v>
@@ -10974,7 +11722,7 @@
       <c r="A51" s="33"/>
       <c r="B51" s="33"/>
       <c r="C51" s="30" t="s">
-        <v>189</v>
+        <v>316</v>
       </c>
       <c r="D51" s="30">
         <v>7</v>
@@ -10985,7 +11733,7 @@
       <c r="A52" s="33"/>
       <c r="B52" s="33"/>
       <c r="C52" s="30" t="s">
-        <v>45</v>
+        <v>317</v>
       </c>
       <c r="D52" s="30">
         <v>9</v>
@@ -10996,7 +11744,7 @@
       <c r="A53" s="33"/>
       <c r="B53" s="33"/>
       <c r="C53" s="30" t="s">
-        <v>190</v>
+        <v>318</v>
       </c>
       <c r="D53" s="30">
         <v>8</v>
@@ -11007,7 +11755,7 @@
       <c r="A54" s="33"/>
       <c r="B54" s="33"/>
       <c r="C54" s="30" t="s">
-        <v>30</v>
+        <v>319</v>
       </c>
       <c r="D54" s="30">
         <v>6</v>
@@ -11016,7 +11764,7 @@
     </row>
     <row r="55" spans="1:5">
       <c r="A55" s="34" t="s">
-        <v>191</v>
+        <v>320</v>
       </c>
       <c r="B55" s="35"/>
       <c r="C55" s="35"/>
@@ -11031,7 +11779,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
@@ -11062,16 +11810,16 @@
   <sheetData>
     <row r="2" ht="16.5" spans="2:2">
       <c r="B2" s="7" t="s">
-        <v>192</v>
+        <v>321</v>
       </c>
     </row>
     <row r="4" ht="13.5"/>
     <row r="5" s="1" customFormat="1" ht="16.5" spans="2:27">
       <c r="B5" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>193</v>
+        <v>322</v>
       </c>
       <c r="D5" s="10"/>
       <c r="E5" s="10"/>
@@ -11178,37 +11926,37 @@
       <c r="B7" s="11"/>
       <c r="C7"/>
       <c r="D7" s="14" t="s">
-        <v>194</v>
+        <v>323</v>
       </c>
       <c r="E7" s="15"/>
       <c r="F7" s="15"/>
       <c r="G7" s="16"/>
       <c r="H7" s="17" t="s">
-        <v>195</v>
+        <v>324</v>
       </c>
       <c r="I7" s="15"/>
       <c r="J7" s="15"/>
       <c r="K7" s="16"/>
       <c r="L7" s="17" t="s">
-        <v>196</v>
+        <v>325</v>
       </c>
       <c r="M7" s="15"/>
       <c r="N7" s="15"/>
       <c r="O7" s="16"/>
       <c r="P7" s="17" t="s">
-        <v>197</v>
+        <v>326</v>
       </c>
       <c r="Q7" s="15"/>
       <c r="R7" s="15"/>
       <c r="S7" s="16"/>
       <c r="T7" s="17" t="s">
-        <v>198</v>
+        <v>327</v>
       </c>
       <c r="U7" s="15"/>
       <c r="V7" s="15"/>
       <c r="W7" s="16"/>
       <c r="X7" s="17" t="s">
-        <v>199</v>
+        <v>328</v>
       </c>
       <c r="Y7" s="15"/>
       <c r="Z7" s="15"/>
@@ -11216,10 +11964,10 @@
     </row>
     <row r="8" s="2" customFormat="1" ht="15.75" spans="2:27">
       <c r="B8" s="18" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C8" s="19" t="s">
-        <v>200</v>
+        <v>329</v>
       </c>
       <c r="D8" s="20">
         <v>30000</v>
@@ -11250,10 +11998,10 @@
     </row>
     <row r="9" s="2" customFormat="1" ht="15.75" spans="2:27">
       <c r="B9" s="18" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C9" s="19" t="s">
-        <v>201</v>
+        <v>330</v>
       </c>
       <c r="D9" s="20"/>
       <c r="E9" s="21"/>
@@ -11290,10 +12038,10 @@
     </row>
     <row r="10" s="2" customFormat="1" ht="16.5" spans="2:27">
       <c r="B10" s="18" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C10" s="19" t="s">
-        <v>202</v>
+        <v>331</v>
       </c>
       <c r="D10" s="20"/>
       <c r="E10" s="21"/>
@@ -11327,7 +12075,7 @@
         <v>2</v>
       </c>
       <c r="C11" s="24" t="s">
-        <v>203</v>
+        <v>332</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="21"/>
@@ -11364,10 +12112,10 @@
     </row>
     <row r="12" ht="15.75" spans="2:27">
       <c r="B12" s="25" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="C12" s="26" t="s">
-        <v>204</v>
+        <v>333</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="21"/>
@@ -11406,10 +12154,10 @@
     </row>
     <row r="13" s="3" customFormat="1" ht="16.5" spans="2:27">
       <c r="B13" s="25" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C13" s="26" t="s">
-        <v>205</v>
+        <v>334</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="21"/>
@@ -11449,7 +12197,7 @@
         <v>4</v>
       </c>
       <c r="C14" s="24" t="s">
-        <v>206</v>
+        <v>335</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="21"/>
@@ -11480,10 +12228,10 @@
     </row>
     <row r="15" s="4" customFormat="1" ht="15.75" spans="2:27">
       <c r="B15" s="25" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="C15" s="26" t="s">
-        <v>207</v>
+        <v>336</v>
       </c>
       <c r="D15" s="20"/>
       <c r="E15" s="21"/>
@@ -11516,10 +12264,10 @@
     </row>
     <row r="16" ht="15.75" spans="2:27">
       <c r="B16" s="25" t="s">
-        <v>177</v>
+        <v>301</v>
       </c>
       <c r="C16" s="26" t="s">
-        <v>208</v>
+        <v>337</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="21"/>
@@ -11552,10 +12300,10 @@
     </row>
     <row r="17" s="3" customFormat="1" ht="15.75" spans="2:27">
       <c r="B17" s="25" t="s">
-        <v>179</v>
+        <v>303</v>
       </c>
       <c r="C17" s="26" t="s">
-        <v>209</v>
+        <v>338</v>
       </c>
       <c r="D17" s="20"/>
       <c r="E17" s="21"/>
@@ -11586,10 +12334,10 @@
     </row>
     <row r="18" s="4" customFormat="1" ht="15.75" spans="2:27">
       <c r="B18" s="25" t="s">
-        <v>210</v>
+        <v>339</v>
       </c>
       <c r="C18" s="26" t="s">
-        <v>211</v>
+        <v>340</v>
       </c>
       <c r="D18" s="20"/>
       <c r="E18" s="21"/>
